--- a/Test Cases/Preethi/Test Case- In Patient.xlsx
+++ b/Test Cases/Preethi/Test Case- In Patient.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="896">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1629,217 +1629,13 @@
     <t>A Preview of print should be generated</t>
   </si>
   <si>
-    <t>Counter change</t>
-  </si>
-  <si>
-    <t>Bed occupancy rate-drop down</t>
-  </si>
-  <si>
-    <t>Admission Requisition</t>
-  </si>
-  <si>
-    <t>Search</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>Date Picker</t>
-  </si>
-  <si>
-    <t>Total Requests</t>
-  </si>
-  <si>
-    <t>In Patient List</t>
-  </si>
-  <si>
-    <t>View Admission</t>
-  </si>
-  <si>
-    <t>Print Patient Sticker</t>
-  </si>
-  <si>
-    <t>Print Pass</t>
-  </si>
-  <si>
-    <t>Summary Info</t>
-  </si>
-  <si>
-    <t>Patient info pop up</t>
-  </si>
-  <si>
-    <t>Patient Info</t>
-  </si>
-  <si>
-    <t>Print Patient Info</t>
-  </si>
-  <si>
-    <t>Lab result</t>
-  </si>
-  <si>
-    <t>Print lab result</t>
-  </si>
-  <si>
-    <t>Group wise lab result</t>
-  </si>
-  <si>
-    <t>Datewise lab result</t>
-  </si>
-  <si>
-    <t>Procedure wise lab result</t>
-  </si>
-  <si>
-    <t>Search Lab Result</t>
-  </si>
-  <si>
-    <t>Radiology result</t>
-  </si>
-  <si>
-    <t>Print radiology result</t>
-  </si>
-  <si>
-    <t>Patient log</t>
-  </si>
-  <si>
-    <t>Save in Letters &amp; Certificates</t>
-  </si>
-  <si>
-    <t>Date Picker in Letters &amp; Certificates</t>
-  </si>
-  <si>
-    <t>Add New Template in  Letters &amp; Certificates</t>
-  </si>
-  <si>
-    <t>Upload Patient files</t>
-  </si>
-  <si>
-    <t>View Treatment summary</t>
-  </si>
-  <si>
-    <t>Print Treatment summary</t>
-  </si>
-  <si>
-    <t>Select Treatment summary from drop down</t>
-  </si>
-  <si>
-    <t>Send message</t>
-  </si>
-  <si>
-    <t>Save in Service entry</t>
-  </si>
-  <si>
-    <t>View Previous in service entry</t>
-  </si>
-  <si>
-    <t>Edit procedure in service entry</t>
-  </si>
-  <si>
-    <t>delete procedure in service entry</t>
-  </si>
-  <si>
-    <t>save in bed allocation</t>
-  </si>
-  <si>
-    <t>Save in bed shifting</t>
-  </si>
-  <si>
-    <t>View Previous in bed shifing</t>
-  </si>
-  <si>
-    <t>Dbed Release</t>
-  </si>
-  <si>
-    <t>Save Transfer request</t>
-  </si>
-  <si>
-    <t>View previous in transfer request</t>
-  </si>
-  <si>
-    <t>Upload photo</t>
-  </si>
-  <si>
-    <t>Patiet info</t>
-  </si>
-  <si>
-    <t>Add Remarks</t>
-  </si>
-  <si>
-    <t>Medical record</t>
-  </si>
-  <si>
-    <t>Print Preview in Medical Record</t>
-  </si>
-  <si>
-    <t>Menu order change in order</t>
-  </si>
-  <si>
-    <t>Discharge Requisition</t>
-  </si>
-  <si>
-    <t>Enter discharge details and save</t>
-  </si>
-  <si>
-    <t>Delete in discharge</t>
-  </si>
-  <si>
-    <t>Summary info</t>
-  </si>
-  <si>
-    <t>Bed Status</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>Each room details</t>
-  </si>
-  <si>
-    <t>Admission</t>
-  </si>
-  <si>
     <t>Print</t>
   </si>
   <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>Advance</t>
-  </si>
-  <si>
-    <t>Search patient</t>
-  </si>
-  <si>
-    <t>Search Advance entered patient</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>Disacharge Entry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save </t>
-  </si>
-  <si>
-    <t>Delete</t>
-  </si>
-  <si>
-    <t>Receipt Entry</t>
-  </si>
-  <si>
-    <t>Bill search</t>
-  </si>
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
     <t>MED_IP_TC_078</t>
   </si>
   <si>
     <t>Verify Admission Request, OB Request, ALL in "Admission Requisition" tab is working correctly</t>
-  </si>
-  <si>
-    <t>advance refund</t>
   </si>
   <si>
     <t>Verify Date Picker in "Admission Requisition" tab is working correctly</t>
@@ -2236,190 +2032,10 @@
     <t>"Data saved " message should be displayed</t>
   </si>
   <si>
-    <t>Discount Voucher</t>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>Discharge bill</t>
-  </si>
-  <si>
-    <t>New bill</t>
-  </si>
-  <si>
-    <t>Search bill</t>
-  </si>
-  <si>
-    <t>Print bill</t>
-  </si>
-  <si>
-    <t>Save bill</t>
-  </si>
-  <si>
-    <t>Cancel Bill</t>
-  </si>
-  <si>
-    <t>Room Rent</t>
-  </si>
-  <si>
-    <t>Service-&gt;View Previous</t>
-  </si>
-  <si>
-    <t>Service-&gt;Save</t>
-  </si>
-  <si>
-    <t>Service-&gt;Edit</t>
-  </si>
-  <si>
-    <t>Service-&gt;Delete</t>
-  </si>
-  <si>
-    <t>Visit-&gt;Save</t>
-  </si>
-  <si>
-    <t>Visit-&gt;New</t>
-  </si>
-  <si>
-    <t>New Surgery</t>
-  </si>
-  <si>
-    <t>Search surgery</t>
-  </si>
-  <si>
-    <t>Surgery-&gt;view</t>
-  </si>
-  <si>
-    <t>Procedure Bill-&gt;Edit</t>
-  </si>
-  <si>
-    <t>Pharmacy bill</t>
-  </si>
-  <si>
-    <t>Change Scheme</t>
-  </si>
-  <si>
-    <t>Change room category</t>
-  </si>
-  <si>
-    <t>Add insurance</t>
-  </si>
-  <si>
-    <t>Seselect insurance</t>
-  </si>
-  <si>
-    <t>Edit insurance</t>
-  </si>
-  <si>
-    <t>IP Bill edit</t>
-  </si>
-  <si>
-    <t>Room Blocking</t>
-  </si>
-  <si>
-    <t>Room Release</t>
-  </si>
-  <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>IP Credit note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print </t>
-  </si>
-  <si>
-    <t>Generate bill</t>
-  </si>
-  <si>
-    <t>OP Bill Transfer</t>
-  </si>
-  <si>
-    <t>Transfer</t>
-  </si>
-  <si>
-    <t>Bed Shifting</t>
-  </si>
-  <si>
-    <t>Patient wise search</t>
-  </si>
-  <si>
-    <t>Query</t>
-  </si>
-  <si>
-    <t>Procategory heads</t>
-  </si>
-  <si>
-    <t>Mediware session lock</t>
-  </si>
-  <si>
-    <t>Settings</t>
-  </si>
-  <si>
-    <t>Approximate calculation</t>
-  </si>
-  <si>
-    <t>Process</t>
-  </si>
-  <si>
-    <t>Mandatory field update</t>
-  </si>
-  <si>
-    <t>generate</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>tab working</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>Verify "Advance Search" in Advance Menu is working correctly</t>
   </si>
   <si>
-    <t>SEARCH</t>
-  </si>
-  <si>
-    <t>Patient msg</t>
-  </si>
-  <si>
-    <t>exp excel</t>
-  </si>
-  <si>
-    <t>change column visibility</t>
-  </si>
-  <si>
     <t>Verify "Save" in  discharge entry in Menu is working correctly</t>
-  </si>
-  <si>
-    <t>Advance collected</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>admission pop up</t>
-  </si>
-  <si>
-    <t>Admission-&gt;Print</t>
-  </si>
-  <si>
-    <t>excel export</t>
-  </si>
-  <si>
-    <t>change column</t>
-  </si>
-  <si>
-    <t>print</t>
   </si>
   <si>
     <t>MED_IP_TC_096</t>
@@ -2979,9 +2595,6 @@
   </si>
   <si>
     <t>Verify "Transfer " in "OP Bill transfer" is working correctly</t>
-  </si>
-  <si>
-    <t>save settings</t>
   </si>
   <si>
     <t xml:space="preserve">Enter reason </t>
@@ -3111,17 +2724,173 @@
   <si>
     <t>Verify IP search in "Admission" is working correctly</t>
   </si>
+  <si>
+    <t>MED_IP_TC_130</t>
+  </si>
+  <si>
+    <t>Verify "Clear" option in "Advance search" is  working correctly</t>
+  </si>
+  <si>
+    <t>Select "Search"  Butoon on bottom of the page</t>
+  </si>
+  <si>
+    <t>1) Patient No
+2) Patient Name
+3) Advance No
+4) Advance Date</t>
+  </si>
+  <si>
+    <t>Enter any Patient name and select clear button</t>
+  </si>
+  <si>
+    <t>Patient Name field should be cleared and all IP list should be displayed</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_131</t>
+  </si>
+  <si>
+    <t>Verify "Search" is working correctly in "Advance list"</t>
+  </si>
+  <si>
+    <t>Enter Searck keyword on search textbox on right top of the list</t>
+  </si>
+  <si>
+    <t>Corresponding details should be displayed</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_132</t>
+  </si>
+  <si>
+    <t>Data saved successfully message should be displayed</t>
+  </si>
+  <si>
+    <t>Verify "update" in Mandatory Field update is working correctly</t>
+  </si>
+  <si>
+    <t>Verify "generate" in Mandatory Field update is working correctly</t>
+  </si>
+  <si>
+    <t>Verify  "save settings" in Parameter settings is working correctly</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Patient id search in Advance is working correctly when an out patient id is entered </t>
+  </si>
+  <si>
+    <t>Enter Patient Id in textbox and Press Enter button</t>
+  </si>
+  <si>
+    <t>"Patent Not Admitted" message should be displayed</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_134</t>
+  </si>
+  <si>
+    <t>Verify "Clear" in Advance is  working correctly</t>
+  </si>
+  <si>
+    <t>Enter Patient Id and select Clear button</t>
+  </si>
+  <si>
+    <t>It clears Patient Id Textbox</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_135</t>
+  </si>
+  <si>
+    <t>Verify No data message id displaying while entering invalid entry in search fields</t>
+  </si>
+  <si>
+    <t>Select Search option on bottom of the pop up view</t>
+  </si>
+  <si>
+    <t>"Advance search" pop up window should be listed with Patients having Advance payment and fields to search should be listed</t>
+  </si>
+  <si>
+    <t>Enter any Patirnt ID having no advance payments</t>
+  </si>
+  <si>
+    <t>"Couldnot find such Advance" message should be displayed</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_136</t>
+  </si>
+  <si>
+    <t>Verify already admitted Patient can be admitted twice</t>
+  </si>
+  <si>
+    <t>Select Menu&gt;&gt;Transactions&gt;&gt;Admissions</t>
+  </si>
+  <si>
+    <t>Admission pop up window should be displayed with fields  with following tabs:
+1) Patient Information
+2) Personal Details
+3)Foreigner
+4) Insurance
+5) Documents</t>
+  </si>
+  <si>
+    <t>Enter an IP Patient Id and press Enter</t>
+  </si>
+  <si>
+    <t>"Patient already admitted" message should be displayed</t>
+  </si>
+  <si>
+    <t>Dashboard dropdown</t>
+  </si>
+  <si>
+    <t>selec tab to view Admission Request,OB Request</t>
+  </si>
+  <si>
+    <t>Search in In patient tab</t>
+  </si>
+  <si>
+    <t>Summary Info in Admission Requisition</t>
+  </si>
+  <si>
+    <t>Invalid entry in Patient search</t>
+  </si>
+  <si>
+    <t>Closed option in admission requisition</t>
+  </si>
+  <si>
+    <t>Search admission</t>
+  </si>
+  <si>
+    <t>Print admission</t>
+  </si>
+  <si>
+    <t>save admission</t>
+  </si>
+  <si>
+    <t>Age calculation</t>
+  </si>
+  <si>
+    <t>In patient list search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3314,17 +3083,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3336,13 +3105,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3351,22 +3120,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3375,57 +3144,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3433,58 +3202,54 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3762,11 +3527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R1030"/>
+  <dimension ref="A1:R1071"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
+      <pane ySplit="1" topLeftCell="A1056" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1070" sqref="C1070"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3822,14 +3587,14 @@
       <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="60"/>
-      <c r="Q1" s="61" t="s">
+      <c r="O1" s="53"/>
+      <c r="Q1" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="61"/>
+      <c r="R1" s="54"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="35.25" customHeight="1">
       <c r="A2" s="20" t="s">
@@ -3845,8 +3610,8 @@
         <v>210</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="54" t="s">
-        <v>970</v>
+      <c r="F2" s="46" t="s">
+        <v>841</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="5"/>
@@ -3859,7 +3624,7 @@
       </c>
       <c r="O2" s="16">
         <f>COUNTA(A:A)-1</f>
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="Q2" s="17" t="s">
         <v>15</v>
@@ -3905,7 +3670,7 @@
         <v>91</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>967</v>
+        <v>838</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="13"/>
@@ -3928,8 +3693,8 @@
       <c r="F5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="54" t="s">
-        <v>968</v>
+      <c r="G5" s="46" t="s">
+        <v>839</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="13"/>
@@ -3974,8 +3739,8 @@
       <c r="F7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="54" t="s">
-        <v>969</v>
+      <c r="G7" s="46" t="s">
+        <v>840</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="14"/>
@@ -3995,8 +3760,8 @@
         <v>26</v>
       </c>
       <c r="C9" s="24"/>
-      <c r="D9" s="39" t="s">
-        <v>563</v>
+      <c r="D9" s="35" t="s">
+        <v>496</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>36</v>
@@ -4004,11 +3769,11 @@
       <c r="J9" s="4"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:18" s="57" customFormat="1" ht="36" customHeight="1">
-      <c r="A10" s="55"/>
+    <row r="10" spans="1:18" s="49" customFormat="1" ht="36" customHeight="1">
+      <c r="A10" s="47"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="56"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="5">
         <v>1</v>
       </c>
@@ -4022,8 +3787,8 @@
       <c r="J10" s="4"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="59"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="51"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="18"/>
     </row>
@@ -4039,7 +3804,7 @@
         <v>91</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>967</v>
+        <v>838</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="13"/>
@@ -4097,8 +3862,8 @@
       <c r="F15" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="54" t="s">
-        <v>971</v>
+      <c r="G15" s="46" t="s">
+        <v>842</v>
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
@@ -4118,7 +3883,7 @@
       <c r="D17" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="46" t="s">
         <v>36</v>
       </c>
       <c r="J17" s="14"/>
@@ -4149,7 +3914,7 @@
         <v>91</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>967</v>
+        <v>838</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
@@ -4171,8 +3936,8 @@
       <c r="E21" s="5">
         <v>4</v>
       </c>
-      <c r="F21" s="54" t="s">
-        <v>972</v>
+      <c r="F21" s="46" t="s">
+        <v>843</v>
       </c>
       <c r="G21" s="22" t="s">
         <v>38</v>
@@ -4226,7 +3991,7 @@
         <v>91</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>967</v>
+        <v>838</v>
       </c>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
@@ -4264,14 +4029,14 @@
       <c r="K28" s="14"/>
     </row>
     <row r="29" spans="1:11" ht="30">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="39" t="s">
-        <v>565</v>
+      <c r="D29" s="35" t="s">
+        <v>497</v>
       </c>
       <c r="F29" s="22" t="s">
         <v>36</v>
@@ -4297,7 +4062,7 @@
         <v>91</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>967</v>
+        <v>838</v>
       </c>
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
@@ -4319,11 +4084,11 @@
       <c r="E33" s="5">
         <v>4</v>
       </c>
-      <c r="F33" s="39" t="s">
-        <v>566</v>
-      </c>
-      <c r="G33" s="39" t="s">
-        <v>567</v>
+      <c r="F33" s="35" t="s">
+        <v>498</v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>499</v>
       </c>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
@@ -4332,8 +4097,8 @@
       <c r="E34" s="5">
         <v>5</v>
       </c>
-      <c r="F34" s="39" t="s">
-        <v>568</v>
+      <c r="F34" s="35" t="s">
+        <v>500</v>
       </c>
       <c r="G34" s="22"/>
       <c r="J34" s="14"/>
@@ -4343,11 +4108,11 @@
       <c r="E35" s="5">
         <v>6</v>
       </c>
-      <c r="F35" s="39" t="s">
-        <v>569</v>
-      </c>
-      <c r="G35" s="39" t="s">
-        <v>570</v>
+      <c r="F35" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>502</v>
       </c>
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
@@ -4357,14 +4122,14 @@
       <c r="K36" s="14"/>
     </row>
     <row r="37" spans="1:11" ht="30">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="39" t="s">
         <v>61</v>
       </c>
       <c r="B37" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="62" t="s">
-        <v>976</v>
+      <c r="D37" s="52" t="s">
+        <v>847</v>
       </c>
       <c r="F37" s="22" t="s">
         <v>36</v>
@@ -4396,7 +4161,7 @@
         <v>91</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>967</v>
+        <v>838</v>
       </c>
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
@@ -4421,8 +4186,8 @@
       <c r="F41" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G41" s="54" t="s">
-        <v>973</v>
+      <c r="G41" s="46" t="s">
+        <v>844</v>
       </c>
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
@@ -4510,7 +4275,7 @@
       <c r="K48" s="14"/>
     </row>
     <row r="49" spans="1:11" ht="30">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="39" t="s">
         <v>62</v>
       </c>
       <c r="B49" s="22" t="s">
@@ -4549,7 +4314,7 @@
         <v>91</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>967</v>
+        <v>838</v>
       </c>
       <c r="J51" s="14"/>
       <c r="K51" s="14"/>
@@ -4574,8 +4339,8 @@
       <c r="F53" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G53" s="54" t="s">
-        <v>973</v>
+      <c r="G53" s="46" t="s">
+        <v>844</v>
       </c>
       <c r="J53" s="14"/>
       <c r="K53" s="14"/>
@@ -4587,8 +4352,8 @@
       <c r="F54" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G54" s="54" t="s">
-        <v>974</v>
+      <c r="G54" s="46" t="s">
+        <v>845</v>
       </c>
       <c r="J54" s="14"/>
       <c r="K54" s="14"/>
@@ -4600,7 +4365,7 @@
       <c r="F55" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G55" s="54" t="s">
+      <c r="G55" s="46" t="s">
         <v>277</v>
       </c>
       <c r="J55" s="14"/>
@@ -4624,7 +4389,7 @@
       <c r="K57" s="14"/>
     </row>
     <row r="58" spans="1:11" ht="45">
-      <c r="A58" s="43" t="s">
+      <c r="A58" s="39" t="s">
         <v>70</v>
       </c>
       <c r="B58" s="26" t="s">
@@ -4663,7 +4428,7 @@
         <v>91</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>967</v>
+        <v>838</v>
       </c>
       <c r="J60" s="14"/>
       <c r="K60" s="14"/>
@@ -4699,14 +4464,14 @@
       <c r="K63" s="14"/>
     </row>
     <row r="64" spans="1:11" ht="30">
-      <c r="A64" s="43" t="s">
+      <c r="A64" s="39" t="s">
         <v>75</v>
       </c>
       <c r="B64" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="62" t="s">
-        <v>977</v>
+      <c r="D64" s="52" t="s">
+        <v>848</v>
       </c>
       <c r="F64" s="26" t="s">
         <v>64</v>
@@ -4738,7 +4503,7 @@
         <v>91</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>967</v>
+        <v>838</v>
       </c>
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
@@ -4786,8 +4551,8 @@
       <c r="F70" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="G70" s="54" t="s">
-        <v>975</v>
+      <c r="G70" s="46" t="s">
+        <v>846</v>
       </c>
       <c r="J70" s="14"/>
       <c r="K70" s="14"/>
@@ -4797,7 +4562,7 @@
       <c r="K71" s="14"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="43" t="s">
+      <c r="A72" s="39" t="s">
         <v>81</v>
       </c>
       <c r="B72" s="26" t="s">
@@ -4836,7 +4601,7 @@
         <v>91</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>967</v>
+        <v>838</v>
       </c>
       <c r="J74" s="14"/>
       <c r="K74" s="14"/>
@@ -4861,7 +4626,7 @@
       <c r="F76" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G76" s="26" t="s">
+      <c r="G76" s="56" t="s">
         <v>80</v>
       </c>
       <c r="K76" s="14"/>
@@ -4870,7 +4635,7 @@
       <c r="K77" s="14"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="50" t="s">
+      <c r="A78" s="42" t="s">
         <v>367</v>
       </c>
       <c r="B78" s="26" t="s">
@@ -4960,14 +4725,14 @@
       <c r="K85" s="14"/>
     </row>
     <row r="86" spans="1:11" ht="30">
-      <c r="A86" s="50" t="s">
+      <c r="A86" s="42" t="s">
         <v>108</v>
       </c>
       <c r="B86" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D86" s="41" t="s">
-        <v>740</v>
+      <c r="D86" s="37" t="s">
+        <v>624</v>
       </c>
       <c r="F86" s="29" t="s">
         <v>96</v>
@@ -5044,7 +4809,7 @@
       <c r="K93" s="14"/>
     </row>
     <row r="94" spans="1:11" ht="30">
-      <c r="A94" s="50" t="s">
+      <c r="A94" s="42" t="s">
         <v>109</v>
       </c>
       <c r="B94" s="26" t="s">
@@ -5152,7 +4917,7 @@
       <c r="K103" s="14"/>
     </row>
     <row r="104" spans="1:11" ht="30">
-      <c r="A104" s="50" t="s">
+      <c r="A104" s="42" t="s">
         <v>110</v>
       </c>
       <c r="B104" s="26" t="s">
@@ -5224,7 +4989,7 @@
       <c r="K110" s="14"/>
     </row>
     <row r="111" spans="1:11" ht="30">
-      <c r="A111" s="50" t="s">
+      <c r="A111" s="42" t="s">
         <v>116</v>
       </c>
       <c r="B111" s="26" t="s">
@@ -5320,7 +5085,7 @@
       <c r="K119" s="14"/>
     </row>
     <row r="120" spans="1:11" ht="30">
-      <c r="A120" s="50" t="s">
+      <c r="A120" s="42" t="s">
         <v>123</v>
       </c>
       <c r="B120" s="26" t="s">
@@ -5407,7 +5172,7 @@
       </c>
     </row>
     <row r="129" spans="1:7" ht="30">
-      <c r="A129" s="50" t="s">
+      <c r="A129" s="42" t="s">
         <v>128</v>
       </c>
       <c r="B129" s="26" t="s">
@@ -5511,14 +5276,14 @@
       </c>
     </row>
     <row r="140" spans="1:7" ht="30">
-      <c r="A140" s="50" t="s">
+      <c r="A140" s="42" t="s">
         <v>135</v>
       </c>
       <c r="B140" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D140" s="41" t="s">
-        <v>745</v>
+      <c r="D140" s="37" t="s">
+        <v>625</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>97</v>
@@ -5563,7 +5328,7 @@
       </c>
     </row>
     <row r="146" spans="1:7" ht="30">
-      <c r="A146" s="50" t="s">
+      <c r="A146" s="42" t="s">
         <v>139</v>
       </c>
       <c r="B146" s="26" t="s">
@@ -5637,7 +5402,7 @@
       </c>
     </row>
     <row r="154" spans="1:7" ht="30">
-      <c r="A154" s="50" t="s">
+      <c r="A154" s="42" t="s">
         <v>148</v>
       </c>
       <c r="B154" s="26" t="s">
@@ -5689,7 +5454,7 @@
       </c>
     </row>
     <row r="160" spans="1:7" ht="30">
-      <c r="A160" s="50" t="s">
+      <c r="A160" s="42" t="s">
         <v>155</v>
       </c>
       <c r="B160" s="26" t="s">
@@ -5763,7 +5528,7 @@
       </c>
     </row>
     <row r="168" spans="1:7" ht="30">
-      <c r="A168" s="50" t="s">
+      <c r="A168" s="42" t="s">
         <v>167</v>
       </c>
       <c r="B168" s="26" t="s">
@@ -5848,7 +5613,7 @@
       </c>
     </row>
     <row r="177" spans="1:7" ht="30">
-      <c r="A177" s="50" t="s">
+      <c r="A177" s="42" t="s">
         <v>169</v>
       </c>
       <c r="B177" s="26" t="s">
@@ -5933,7 +5698,7 @@
       </c>
     </row>
     <row r="186" spans="1:7" ht="30">
-      <c r="A186" s="50" t="s">
+      <c r="A186" s="42" t="s">
         <v>174</v>
       </c>
       <c r="B186" s="26" t="s">
@@ -5985,7 +5750,7 @@
       </c>
     </row>
     <row r="192" spans="1:7" ht="30">
-      <c r="A192" s="50" t="s">
+      <c r="A192" s="42" t="s">
         <v>181</v>
       </c>
       <c r="B192" s="26" t="s">
@@ -6048,7 +5813,7 @@
       </c>
     </row>
     <row r="199" spans="1:7" ht="30">
-      <c r="A199" s="50" t="s">
+      <c r="A199" s="42" t="s">
         <v>187</v>
       </c>
       <c r="B199" s="26" t="s">
@@ -6122,7 +5887,7 @@
       </c>
     </row>
     <row r="207" spans="1:7" ht="30">
-      <c r="A207" s="50" t="s">
+      <c r="A207" s="42" t="s">
         <v>191</v>
       </c>
       <c r="B207" s="26" t="s">
@@ -6174,7 +5939,7 @@
       </c>
     </row>
     <row r="213" spans="1:7" ht="30">
-      <c r="A213" s="50" t="s">
+      <c r="A213" s="42" t="s">
         <v>198</v>
       </c>
       <c r="B213" s="26" t="s">
@@ -6237,7 +6002,7 @@
       </c>
     </row>
     <row r="220" spans="1:7" ht="30">
-      <c r="A220" s="50" t="s">
+      <c r="A220" s="42" t="s">
         <v>200</v>
       </c>
       <c r="B220" s="26" t="s">
@@ -6311,7 +6076,7 @@
       </c>
     </row>
     <row r="228" spans="1:8" ht="45">
-      <c r="A228" s="50" t="s">
+      <c r="A228" s="42" t="s">
         <v>209</v>
       </c>
       <c r="B228" s="26" t="s">
@@ -6363,7 +6128,7 @@
       </c>
     </row>
     <row r="234" spans="1:8" ht="30">
-      <c r="A234" s="50" t="s">
+      <c r="A234" s="42" t="s">
         <v>217</v>
       </c>
       <c r="B234" s="26" t="s">
@@ -6426,7 +6191,7 @@
       </c>
     </row>
     <row r="241" spans="1:8" ht="45">
-      <c r="A241" s="50" t="s">
+      <c r="A241" s="42" t="s">
         <v>220</v>
       </c>
       <c r="B241" s="26" t="s">
@@ -6470,7 +6235,7 @@
       </c>
     </row>
     <row r="246" spans="1:8" ht="30">
-      <c r="A246" s="50" t="s">
+      <c r="A246" s="42" t="s">
         <v>225</v>
       </c>
       <c r="B246" s="26" t="s">
@@ -6533,7 +6298,7 @@
       </c>
     </row>
     <row r="253" spans="1:8" ht="30">
-      <c r="A253" s="50" t="s">
+      <c r="A253" s="42" t="s">
         <v>232</v>
       </c>
       <c r="B253" s="26" t="s">
@@ -6589,7 +6354,7 @@
       </c>
     </row>
     <row r="259" spans="1:8" ht="30">
-      <c r="A259" s="50" t="s">
+      <c r="A259" s="42" t="s">
         <v>243</v>
       </c>
       <c r="B259" s="26" t="s">
@@ -6663,7 +6428,7 @@
       </c>
     </row>
     <row r="267" spans="1:8" ht="30">
-      <c r="A267" s="50" t="s">
+      <c r="A267" s="42" t="s">
         <v>254</v>
       </c>
       <c r="B267" s="26" t="s">
@@ -6773,7 +6538,7 @@
       </c>
     </row>
     <row r="278" spans="1:8" ht="30">
-      <c r="A278" s="50" t="s">
+      <c r="A278" s="42" t="s">
         <v>257</v>
       </c>
       <c r="B278" s="26" t="s">
@@ -6839,7 +6604,7 @@
       </c>
     </row>
     <row r="285" spans="1:8" ht="30">
-      <c r="A285" s="50" t="s">
+      <c r="A285" s="42" t="s">
         <v>263</v>
       </c>
       <c r="B285" s="26" t="s">
@@ -6913,7 +6678,7 @@
       </c>
     </row>
     <row r="293" spans="1:8" ht="30">
-      <c r="A293" s="50" t="s">
+      <c r="A293" s="42" t="s">
         <v>266</v>
       </c>
       <c r="B293" s="26" t="s">
@@ -6968,7 +6733,7 @@
       </c>
     </row>
     <row r="299" spans="1:8" ht="30">
-      <c r="A299" s="50" t="s">
+      <c r="A299" s="42" t="s">
         <v>270</v>
       </c>
       <c r="B299" s="26" t="s">
@@ -7023,7 +6788,7 @@
       </c>
     </row>
     <row r="305" spans="1:8" ht="30">
-      <c r="A305" s="50" t="s">
+      <c r="A305" s="42" t="s">
         <v>278</v>
       </c>
       <c r="B305" s="26" t="s">
@@ -7113,7 +6878,7 @@
       </c>
     </row>
     <row r="315" spans="1:8" ht="30">
-      <c r="A315" s="50" t="s">
+      <c r="A315" s="42" t="s">
         <v>283</v>
       </c>
       <c r="B315" s="26" t="s">
@@ -7184,7 +6949,7 @@
       </c>
     </row>
     <row r="323" spans="1:8" ht="30">
-      <c r="A323" s="50" t="s">
+      <c r="A323" s="42" t="s">
         <v>288</v>
       </c>
       <c r="B323" s="26" t="s">
@@ -7266,7 +7031,7 @@
       </c>
     </row>
     <row r="332" spans="1:8" ht="30">
-      <c r="A332" s="50" t="s">
+      <c r="A332" s="42" t="s">
         <v>293</v>
       </c>
       <c r="B332" s="26" t="s">
@@ -7351,7 +7116,7 @@
       </c>
     </row>
     <row r="341" spans="1:8" ht="30">
-      <c r="A341" s="50" t="s">
+      <c r="A341" s="42" t="s">
         <v>303</v>
       </c>
       <c r="B341" s="26" t="s">
@@ -7428,7 +7193,7 @@
       </c>
     </row>
     <row r="349" spans="1:8" ht="30">
-      <c r="A349" s="50" t="s">
+      <c r="A349" s="42" t="s">
         <v>307</v>
       </c>
       <c r="B349" s="26" t="s">
@@ -7516,7 +7281,7 @@
       </c>
     </row>
     <row r="358" spans="1:8" ht="30">
-      <c r="A358" s="50" t="s">
+      <c r="A358" s="42" t="s">
         <v>318</v>
       </c>
       <c r="B358" s="26" t="s">
@@ -7593,7 +7358,7 @@
       </c>
     </row>
     <row r="366" spans="1:8" ht="30">
-      <c r="A366" s="50" t="s">
+      <c r="A366" s="42" t="s">
         <v>319</v>
       </c>
       <c r="B366" s="26" t="s">
@@ -7648,7 +7413,7 @@
       </c>
     </row>
     <row r="372" spans="1:8" ht="45">
-      <c r="A372" s="50" t="s">
+      <c r="A372" s="42" t="s">
         <v>325</v>
       </c>
       <c r="B372" s="26" t="s">
@@ -7714,7 +7479,7 @@
       </c>
     </row>
     <row r="379" spans="1:8" ht="45">
-      <c r="A379" s="50" t="s">
+      <c r="A379" s="42" t="s">
         <v>328</v>
       </c>
       <c r="B379" s="26" t="s">
@@ -7791,7 +7556,7 @@
       </c>
     </row>
     <row r="387" spans="1:8" ht="45">
-      <c r="A387" s="50" t="s">
+      <c r="A387" s="42" t="s">
         <v>333</v>
       </c>
       <c r="B387" s="26" t="s">
@@ -7835,7 +7600,7 @@
       </c>
     </row>
     <row r="392" spans="1:8" ht="30">
-      <c r="A392" s="50" t="s">
+      <c r="A392" s="42" t="s">
         <v>339</v>
       </c>
       <c r="B392" s="26" t="s">
@@ -7890,7 +7655,7 @@
       </c>
     </row>
     <row r="398" spans="1:8" ht="30">
-      <c r="A398" s="50" t="s">
+      <c r="A398" s="42" t="s">
         <v>343</v>
       </c>
       <c r="B398" s="26" t="s">
@@ -7945,7 +7710,7 @@
       </c>
     </row>
     <row r="404" spans="1:8" ht="30">
-      <c r="A404" s="50" t="s">
+      <c r="A404" s="42" t="s">
         <v>349</v>
       </c>
       <c r="B404" s="26" t="s">
@@ -7989,7 +7754,7 @@
       </c>
     </row>
     <row r="409" spans="1:8" ht="30">
-      <c r="A409" s="50" t="s">
+      <c r="A409" s="42" t="s">
         <v>356</v>
       </c>
       <c r="B409" s="26" t="s">
@@ -8044,7 +7809,7 @@
       </c>
     </row>
     <row r="415" spans="1:8" ht="30">
-      <c r="A415" s="50" t="s">
+      <c r="A415" s="42" t="s">
         <v>363</v>
       </c>
       <c r="B415" s="26" t="s">
@@ -8134,7 +7899,7 @@
       </c>
     </row>
     <row r="425" spans="1:8" ht="30">
-      <c r="A425" s="50" t="s">
+      <c r="A425" s="42" t="s">
         <v>366</v>
       </c>
       <c r="B425" s="26" t="s">
@@ -8208,7 +7973,7 @@
       </c>
     </row>
     <row r="433" spans="1:8" ht="30">
-      <c r="A433" s="50" t="s">
+      <c r="A433" s="42" t="s">
         <v>368</v>
       </c>
       <c r="B433" s="26" t="s">
@@ -8293,7 +8058,7 @@
       </c>
     </row>
     <row r="442" spans="1:8" ht="30">
-      <c r="A442" s="50" t="s">
+      <c r="A442" s="42" t="s">
         <v>375</v>
       </c>
       <c r="B442" s="26" t="s">
@@ -8356,7 +8121,7 @@
       </c>
     </row>
     <row r="449" spans="1:8" ht="30">
-      <c r="A449" s="50" t="s">
+      <c r="A449" s="42" t="s">
         <v>379</v>
       </c>
       <c r="B449" s="26" t="s">
@@ -8430,7 +8195,7 @@
       </c>
     </row>
     <row r="457" spans="1:8" ht="30">
-      <c r="A457" s="50" t="s">
+      <c r="A457" s="42" t="s">
         <v>386</v>
       </c>
       <c r="B457" s="26" t="s">
@@ -8523,7 +8288,7 @@
       </c>
     </row>
     <row r="467" spans="1:8" ht="30">
-      <c r="A467" s="50" t="s">
+      <c r="A467" s="42" t="s">
         <v>392</v>
       </c>
       <c r="B467" s="26" t="s">
@@ -8581,7 +8346,7 @@
       </c>
     </row>
     <row r="474" spans="1:8" ht="30">
-      <c r="A474" s="50" t="s">
+      <c r="A474" s="42" t="s">
         <v>398</v>
       </c>
       <c r="B474" s="26" t="s">
@@ -8642,7 +8407,7 @@
       </c>
     </row>
     <row r="480" spans="1:8" ht="30">
-      <c r="A480" s="50" t="s">
+      <c r="A480" s="42" t="s">
         <v>406</v>
       </c>
       <c r="B480" s="26" t="s">
@@ -8741,7 +8506,7 @@
       </c>
     </row>
     <row r="490" spans="1:8" ht="30">
-      <c r="A490" s="50" t="s">
+      <c r="A490" s="42" t="s">
         <v>412</v>
       </c>
       <c r="B490" s="26" t="s">
@@ -8799,7 +8564,7 @@
       </c>
     </row>
     <row r="496" spans="1:8" ht="30">
-      <c r="A496" s="50" t="s">
+      <c r="A496" s="42" t="s">
         <v>431</v>
       </c>
       <c r="B496" s="26" t="s">
@@ -8934,7 +8699,7 @@
       </c>
     </row>
     <row r="509" spans="1:8" ht="30">
-      <c r="A509" s="50" t="s">
+      <c r="A509" s="42" t="s">
         <v>438</v>
       </c>
       <c r="B509" s="26" t="s">
@@ -9014,7 +8779,7 @@
       </c>
     </row>
     <row r="517" spans="1:8" ht="45">
-      <c r="A517" s="50" t="s">
+      <c r="A517" s="42" t="s">
         <v>445</v>
       </c>
       <c r="B517" s="26" t="s">
@@ -9064,7 +8829,7 @@
       </c>
     </row>
     <row r="522" spans="1:8" ht="30">
-      <c r="A522" s="50" t="s">
+      <c r="A522" s="42" t="s">
         <v>454</v>
       </c>
       <c r="B522" s="26" t="s">
@@ -9141,7 +8906,7 @@
       </c>
     </row>
     <row r="530" spans="1:7" ht="30">
-      <c r="A530" s="50" t="s">
+      <c r="A530" s="42" t="s">
         <v>455</v>
       </c>
       <c r="B530" s="26" t="s">
@@ -9204,7 +8969,7 @@
       </c>
     </row>
     <row r="537" spans="1:7" ht="30">
-      <c r="A537" s="50" t="s">
+      <c r="A537" s="42" t="s">
         <v>463</v>
       </c>
       <c r="B537" s="26" t="s">
@@ -9289,7 +9054,7 @@
       </c>
     </row>
     <row r="546" spans="1:7" ht="30">
-      <c r="A546" s="50" t="s">
+      <c r="A546" s="42" t="s">
         <v>467</v>
       </c>
       <c r="B546" s="26" t="s">
@@ -9352,7 +9117,7 @@
       </c>
     </row>
     <row r="553" spans="1:7" ht="30">
-      <c r="A553" s="50" t="s">
+      <c r="A553" s="42" t="s">
         <v>471</v>
       </c>
       <c r="B553" s="26" t="s">
@@ -9415,14 +9180,14 @@
       </c>
     </row>
     <row r="560" spans="1:7" ht="30">
-      <c r="A560" s="50" t="s">
+      <c r="A560" s="42" t="s">
         <v>474</v>
       </c>
       <c r="B560" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D560" s="52" t="s">
-        <v>911</v>
+      <c r="D560" s="44" t="s">
+        <v>783</v>
       </c>
       <c r="F560" s="34" t="s">
         <v>97</v>
@@ -9487,15 +9252,15 @@
       <c r="E567" s="5">
         <v>6</v>
       </c>
-      <c r="F567" s="52" t="s">
-        <v>910</v>
+      <c r="F567" s="44" t="s">
+        <v>782</v>
       </c>
       <c r="G567" s="34" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="569" spans="1:7" ht="30">
-      <c r="A569" s="50" t="s">
+      <c r="A569" s="42" t="s">
         <v>482</v>
       </c>
       <c r="B569" s="26" t="s">
@@ -9558,7 +9323,7 @@
       </c>
     </row>
     <row r="576" spans="1:7" ht="30">
-      <c r="A576" s="50" t="s">
+      <c r="A576" s="42" t="s">
         <v>483</v>
       </c>
       <c r="B576" s="26" t="s">
@@ -9621,14 +9386,14 @@
       </c>
     </row>
     <row r="583" spans="1:7" ht="30">
-      <c r="A583" s="50" t="s">
+      <c r="A583" s="42" t="s">
         <v>488</v>
       </c>
       <c r="B583" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D583" s="47" t="s">
-        <v>826</v>
+      <c r="D583" s="41" t="s">
+        <v>698</v>
       </c>
       <c r="F583" s="34" t="s">
         <v>97</v>
@@ -9695,8 +9460,8 @@
       </c>
     </row>
     <row r="591" spans="1:7" ht="30">
-      <c r="A591" s="50" t="s">
-        <v>562</v>
+      <c r="A591" s="42" t="s">
+        <v>495</v>
       </c>
       <c r="B591" s="26" t="s">
         <v>20</v>
@@ -9769,14 +9534,14 @@
       </c>
     </row>
     <row r="599" spans="1:7" ht="30">
-      <c r="A599" s="50" t="s">
-        <v>576</v>
-      </c>
-      <c r="B599" s="39" t="s">
+      <c r="A599" s="42" t="s">
+        <v>508</v>
+      </c>
+      <c r="B599" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D599" s="39" t="s">
-        <v>571</v>
+      <c r="D599" s="35" t="s">
+        <v>503</v>
       </c>
       <c r="F599" s="34" t="s">
         <v>97</v>
@@ -9835,36 +9600,36 @@
       <c r="E605" s="5">
         <v>6</v>
       </c>
-      <c r="F605" s="39" t="s">
-        <v>572</v>
-      </c>
-      <c r="G605" s="39" t="s">
-        <v>573</v>
+      <c r="F605" s="35" t="s">
+        <v>504</v>
+      </c>
+      <c r="G605" s="35" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="606" spans="1:7">
       <c r="E606" s="5">
         <v>7</v>
       </c>
-      <c r="F606" s="39" t="s">
-        <v>574</v>
-      </c>
-      <c r="G606" s="39" t="s">
-        <v>575</v>
+      <c r="F606" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="G606" s="35" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="608" spans="1:7" ht="30">
-      <c r="A608" s="50" t="s">
-        <v>584</v>
-      </c>
-      <c r="B608" s="39" t="s">
+      <c r="A608" s="42" t="s">
+        <v>516</v>
+      </c>
+      <c r="B608" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D608" s="39" t="s">
-        <v>577</v>
-      </c>
-      <c r="F608" s="39" t="s">
-        <v>578</v>
+      <c r="D608" s="35" t="s">
+        <v>509</v>
+      </c>
+      <c r="F608" s="35" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="609" spans="1:7">
@@ -9889,47 +9654,47 @@
       <c r="E611" s="3">
         <v>3</v>
       </c>
-      <c r="F611" s="39" t="s">
-        <v>579</v>
-      </c>
-      <c r="G611" s="39" t="s">
-        <v>582</v>
+      <c r="F611" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="G611" s="35" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="612" spans="1:7" ht="95.25" customHeight="1">
       <c r="E612" s="5">
         <v>4</v>
       </c>
-      <c r="F612" s="39" t="s">
+      <c r="F612" s="35" t="s">
         <v>410</v>
       </c>
-      <c r="G612" s="39" t="s">
-        <v>580</v>
+      <c r="G612" s="35" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="613" spans="1:7" ht="30">
       <c r="E613" s="5">
         <v>5</v>
       </c>
-      <c r="F613" s="39" t="s">
-        <v>581</v>
-      </c>
-      <c r="G613" s="39" t="s">
-        <v>583</v>
+      <c r="F613" s="35" t="s">
+        <v>513</v>
+      </c>
+      <c r="G613" s="35" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="615" spans="1:7" ht="30">
-      <c r="A615" s="50" t="s">
-        <v>589</v>
-      </c>
-      <c r="B615" s="39" t="s">
+      <c r="A615" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="B615" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D615" s="39" t="s">
-        <v>590</v>
-      </c>
-      <c r="F615" s="39" t="s">
-        <v>578</v>
+      <c r="D615" s="35" t="s">
+        <v>522</v>
+      </c>
+      <c r="F615" s="35" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="616" spans="1:7">
@@ -9952,47 +9717,47 @@
       <c r="E618" s="3">
         <v>3</v>
       </c>
-      <c r="F618" s="39" t="s">
-        <v>579</v>
-      </c>
-      <c r="G618" s="39" t="s">
-        <v>582</v>
+      <c r="F618" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="G618" s="35" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="619" spans="1:7">
       <c r="E619" s="5">
         <v>4</v>
       </c>
-      <c r="F619" s="39" t="s">
-        <v>585</v>
-      </c>
-      <c r="G619" s="39" t="s">
-        <v>586</v>
+      <c r="F619" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="G619" s="35" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="620" spans="1:7">
       <c r="E620" s="5">
         <v>5</v>
       </c>
-      <c r="F620" s="39" t="s">
-        <v>587</v>
-      </c>
-      <c r="G620" s="39" t="s">
-        <v>588</v>
+      <c r="F620" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="G620" s="35" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="622" spans="1:7" ht="30">
-      <c r="A622" s="50" t="s">
-        <v>595</v>
-      </c>
-      <c r="B622" s="39" t="s">
+      <c r="A622" s="42" t="s">
+        <v>527</v>
+      </c>
+      <c r="B622" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D622" s="39" t="s">
-        <v>591</v>
-      </c>
-      <c r="F622" s="39" t="s">
-        <v>578</v>
+      <c r="D622" s="35" t="s">
+        <v>523</v>
+      </c>
+      <c r="F622" s="35" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="623" spans="1:7">
@@ -10015,66 +9780,66 @@
       <c r="E625" s="3">
         <v>3</v>
       </c>
-      <c r="F625" s="39" t="s">
-        <v>579</v>
-      </c>
-      <c r="G625" s="39" t="s">
-        <v>582</v>
+      <c r="F625" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="G625" s="35" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="626" spans="1:7">
       <c r="E626" s="5">
         <v>4</v>
       </c>
-      <c r="F626" s="39" t="s">
-        <v>585</v>
-      </c>
-      <c r="G626" s="39" t="s">
-        <v>586</v>
+      <c r="F626" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="G626" s="35" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="627" spans="1:7">
       <c r="E627" s="5">
         <v>5</v>
       </c>
-      <c r="F627" s="39" t="s">
-        <v>587</v>
-      </c>
-      <c r="G627" s="39" t="s">
-        <v>588</v>
+      <c r="F627" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="G627" s="35" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="628" spans="1:7" ht="60">
       <c r="E628" s="5">
         <v>6</v>
       </c>
-      <c r="F628" s="39" t="s">
+      <c r="F628" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="G628" s="39" t="s">
-        <v>592</v>
+      <c r="G628" s="35" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="629" spans="1:7">
       <c r="E629" s="5">
         <v>7</v>
       </c>
-      <c r="F629" s="39" t="s">
-        <v>593</v>
-      </c>
-      <c r="G629" s="39" t="s">
-        <v>594</v>
+      <c r="F629" s="35" t="s">
+        <v>525</v>
+      </c>
+      <c r="G629" s="35" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="631" spans="1:7" ht="30">
-      <c r="A631" s="50" t="s">
-        <v>599</v>
-      </c>
-      <c r="B631" s="39" t="s">
+      <c r="A631" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="B631" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D631" s="39" t="s">
-        <v>596</v>
+      <c r="D631" s="35" t="s">
+        <v>528</v>
       </c>
       <c r="E631" s="5">
         <v>1</v>
@@ -10095,55 +9860,55 @@
       <c r="E633" s="3">
         <v>3</v>
       </c>
-      <c r="F633" s="39" t="s">
-        <v>579</v>
-      </c>
-      <c r="G633" s="39" t="s">
-        <v>582</v>
+      <c r="F633" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="G633" s="35" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="634" spans="1:7">
       <c r="E634" s="5">
         <v>4</v>
       </c>
-      <c r="F634" s="39" t="s">
-        <v>585</v>
-      </c>
-      <c r="G634" s="39" t="s">
-        <v>586</v>
+      <c r="F634" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="G634" s="35" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="635" spans="1:7">
       <c r="E635" s="5">
         <v>5</v>
       </c>
-      <c r="F635" s="39" t="s">
-        <v>587</v>
-      </c>
-      <c r="G635" s="39" t="s">
-        <v>588</v>
+      <c r="F635" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="G635" s="35" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="636" spans="1:7">
       <c r="E636" s="5">
         <v>6</v>
       </c>
-      <c r="F636" s="39" t="s">
-        <v>597</v>
-      </c>
-      <c r="G636" s="39" t="s">
-        <v>598</v>
+      <c r="F636" s="35" t="s">
+        <v>529</v>
+      </c>
+      <c r="G636" s="35" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="638" spans="1:7">
-      <c r="A638" s="50" t="s">
-        <v>603</v>
-      </c>
-      <c r="B638" s="39" t="s">
+      <c r="A638" s="42" t="s">
+        <v>535</v>
+      </c>
+      <c r="B638" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D638" s="40" t="s">
-        <v>600</v>
+      <c r="D638" s="36" t="s">
+        <v>532</v>
       </c>
       <c r="E638" s="5">
         <v>1</v>
@@ -10164,55 +9929,55 @@
       <c r="E640" s="3">
         <v>3</v>
       </c>
-      <c r="F640" s="39" t="s">
-        <v>579</v>
-      </c>
-      <c r="G640" s="39" t="s">
-        <v>582</v>
+      <c r="F640" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="G640" s="35" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="641" spans="1:7">
       <c r="E641" s="5">
         <v>4</v>
       </c>
-      <c r="F641" s="39" t="s">
-        <v>585</v>
-      </c>
-      <c r="G641" s="39" t="s">
-        <v>586</v>
+      <c r="F641" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="G641" s="35" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="642" spans="1:7">
       <c r="E642" s="5">
         <v>5</v>
       </c>
-      <c r="F642" s="39" t="s">
-        <v>601</v>
-      </c>
-      <c r="G642" s="39" t="s">
-        <v>602</v>
+      <c r="F642" s="35" t="s">
+        <v>533</v>
+      </c>
+      <c r="G642" s="35" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="643" spans="1:7">
       <c r="E643" s="5">
         <v>6</v>
       </c>
-      <c r="F643" s="39" t="s">
-        <v>605</v>
-      </c>
-      <c r="G643" s="39" t="s">
-        <v>606</v>
+      <c r="F643" s="35" t="s">
+        <v>537</v>
+      </c>
+      <c r="G643" s="35" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="645" spans="1:7">
-      <c r="A645" s="50" t="s">
-        <v>611</v>
-      </c>
-      <c r="B645" s="39" t="s">
+      <c r="A645" s="42" t="s">
+        <v>543</v>
+      </c>
+      <c r="B645" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D645" s="40" t="s">
-        <v>604</v>
+      <c r="D645" s="36" t="s">
+        <v>536</v>
       </c>
       <c r="E645" s="5">
         <v>1</v>
@@ -10233,66 +9998,66 @@
       <c r="E647" s="3">
         <v>3</v>
       </c>
-      <c r="F647" s="39" t="s">
-        <v>579</v>
-      </c>
-      <c r="G647" s="39" t="s">
-        <v>582</v>
+      <c r="F647" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="G647" s="35" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="648" spans="1:7">
       <c r="E648" s="5">
         <v>4</v>
       </c>
-      <c r="F648" s="39" t="s">
-        <v>585</v>
-      </c>
-      <c r="G648" s="39" t="s">
-        <v>586</v>
+      <c r="F648" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="G648" s="35" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="649" spans="1:7">
       <c r="E649" s="5">
         <v>5</v>
       </c>
-      <c r="F649" s="39" t="s">
-        <v>607</v>
-      </c>
-      <c r="G649" s="39" t="s">
-        <v>612</v>
+      <c r="F649" s="35" t="s">
+        <v>539</v>
+      </c>
+      <c r="G649" s="35" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="650" spans="1:7">
       <c r="E650" s="5">
         <v>6</v>
       </c>
-      <c r="F650" s="39" t="s">
-        <v>608</v>
-      </c>
-      <c r="G650" s="39" t="s">
-        <v>609</v>
+      <c r="F650" s="35" t="s">
+        <v>540</v>
+      </c>
+      <c r="G650" s="35" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="651" spans="1:7">
       <c r="E651" s="5">
         <v>7</v>
       </c>
-      <c r="F651" s="39" t="s">
-        <v>610</v>
-      </c>
-      <c r="G651" s="39" t="s">
+      <c r="F651" s="35" t="s">
+        <v>542</v>
+      </c>
+      <c r="G651" s="35" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="653" spans="1:7" ht="30">
-      <c r="A653" s="50" t="s">
-        <v>628</v>
-      </c>
-      <c r="B653" s="39" t="s">
+      <c r="A653" s="42" t="s">
+        <v>560</v>
+      </c>
+      <c r="B653" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D653" s="39" t="s">
-        <v>613</v>
+      <c r="D653" s="35" t="s">
+        <v>545</v>
       </c>
       <c r="E653" s="5">
         <v>1</v>
@@ -10313,66 +10078,66 @@
       <c r="E655" s="3">
         <v>3</v>
       </c>
-      <c r="F655" s="39" t="s">
-        <v>579</v>
-      </c>
-      <c r="G655" s="39" t="s">
-        <v>582</v>
+      <c r="F655" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="G655" s="35" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="656" spans="1:7">
       <c r="E656" s="5">
         <v>4</v>
       </c>
-      <c r="F656" s="39" t="s">
-        <v>585</v>
-      </c>
-      <c r="G656" s="39" t="s">
-        <v>586</v>
+      <c r="F656" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="G656" s="35" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="657" spans="1:7">
       <c r="E657" s="5">
         <v>5</v>
       </c>
-      <c r="F657" s="39" t="s">
-        <v>614</v>
-      </c>
-      <c r="G657" s="39" t="s">
-        <v>615</v>
+      <c r="F657" s="35" t="s">
+        <v>546</v>
+      </c>
+      <c r="G657" s="35" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="658" spans="1:7">
       <c r="E658" s="5">
         <v>6</v>
       </c>
-      <c r="F658" s="39" t="s">
-        <v>616</v>
+      <c r="F658" s="35" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="659" spans="1:7">
       <c r="E659" s="5">
         <v>7</v>
       </c>
-      <c r="F659" s="39" t="s">
-        <v>617</v>
-      </c>
-      <c r="G659" s="39" t="s">
+      <c r="F659" s="35" t="s">
+        <v>549</v>
+      </c>
+      <c r="G659" s="35" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="661" spans="1:7" ht="30">
-      <c r="A661" s="50" t="s">
-        <v>633</v>
-      </c>
-      <c r="B661" s="39" t="s">
+      <c r="A661" s="42" t="s">
+        <v>565</v>
+      </c>
+      <c r="B661" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D661" s="39" t="s">
-        <v>618</v>
-      </c>
-      <c r="F661" s="39" t="s">
-        <v>578</v>
+      <c r="D661" s="35" t="s">
+        <v>550</v>
+      </c>
+      <c r="F661" s="35" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="662" spans="1:7">
@@ -10395,91 +10160,91 @@
       <c r="E664" s="3">
         <v>3</v>
       </c>
-      <c r="F664" s="39" t="s">
-        <v>579</v>
-      </c>
-      <c r="G664" s="39" t="s">
-        <v>582</v>
+      <c r="F664" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="G664" s="35" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="665" spans="1:7">
       <c r="E665" s="5">
         <v>4</v>
       </c>
-      <c r="F665" s="39" t="s">
-        <v>585</v>
-      </c>
-      <c r="G665" s="39" t="s">
-        <v>586</v>
+      <c r="F665" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="G665" s="35" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="666" spans="1:7">
       <c r="E666" s="5">
         <v>5</v>
       </c>
-      <c r="F666" s="39" t="s">
-        <v>619</v>
-      </c>
-      <c r="G666" s="39" t="s">
-        <v>620</v>
+      <c r="F666" s="35" t="s">
+        <v>551</v>
+      </c>
+      <c r="G666" s="35" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="667" spans="1:7">
       <c r="E667" s="5">
         <v>6</v>
       </c>
-      <c r="F667" s="39" t="s">
-        <v>621</v>
-      </c>
-      <c r="G667" s="39" t="s">
-        <v>622</v>
+      <c r="F667" s="35" t="s">
+        <v>553</v>
+      </c>
+      <c r="G667" s="35" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="668" spans="1:7" ht="30">
       <c r="E668" s="5">
         <v>7</v>
       </c>
-      <c r="F668" s="39" t="s">
-        <v>623</v>
-      </c>
-      <c r="G668" s="39" t="s">
-        <v>624</v>
+      <c r="F668" s="35" t="s">
+        <v>555</v>
+      </c>
+      <c r="G668" s="35" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="669" spans="1:7" ht="60">
       <c r="E669" s="5">
         <v>8</v>
       </c>
-      <c r="F669" s="39" t="s">
-        <v>625</v>
-      </c>
-      <c r="G669" s="39" t="s">
-        <v>626</v>
+      <c r="F669" s="35" t="s">
+        <v>557</v>
+      </c>
+      <c r="G669" s="35" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="670" spans="1:7">
       <c r="E670" s="5">
         <v>9</v>
       </c>
-      <c r="F670" s="39" t="s">
-        <v>627</v>
-      </c>
-      <c r="G670" s="39" t="s">
+      <c r="F670" s="35" t="s">
+        <v>559</v>
+      </c>
+      <c r="G670" s="35" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="672" spans="1:7" ht="30">
-      <c r="A672" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="B672" s="39" t="s">
+      <c r="A672" s="42" t="s">
+        <v>569</v>
+      </c>
+      <c r="B672" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D672" s="39" t="s">
-        <v>629</v>
-      </c>
-      <c r="F672" s="39" t="s">
-        <v>578</v>
+      <c r="D672" s="35" t="s">
+        <v>561</v>
+      </c>
+      <c r="F672" s="35" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="673" spans="1:7">
@@ -10502,69 +10267,69 @@
       <c r="E675" s="3">
         <v>3</v>
       </c>
-      <c r="F675" s="39" t="s">
-        <v>579</v>
-      </c>
-      <c r="G675" s="39" t="s">
-        <v>582</v>
+      <c r="F675" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="G675" s="35" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="676" spans="1:7">
       <c r="E676" s="5">
         <v>4</v>
       </c>
-      <c r="F676" s="39" t="s">
-        <v>585</v>
-      </c>
-      <c r="G676" s="39" t="s">
-        <v>586</v>
+      <c r="F676" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="G676" s="35" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="677" spans="1:7">
       <c r="E677" s="5">
         <v>5</v>
       </c>
-      <c r="F677" s="39" t="s">
-        <v>619</v>
-      </c>
-      <c r="G677" s="39" t="s">
-        <v>620</v>
+      <c r="F677" s="35" t="s">
+        <v>551</v>
+      </c>
+      <c r="G677" s="35" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="678" spans="1:7">
       <c r="E678" s="5">
         <v>6</v>
       </c>
-      <c r="F678" s="39" t="s">
-        <v>630</v>
-      </c>
-      <c r="G678" s="39" t="s">
-        <v>631</v>
+      <c r="F678" s="35" t="s">
+        <v>562</v>
+      </c>
+      <c r="G678" s="35" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="679" spans="1:7">
       <c r="E679" s="5">
         <v>7</v>
       </c>
-      <c r="F679" s="39" t="s">
-        <v>632</v>
-      </c>
-      <c r="G679" s="39" t="s">
+      <c r="F679" s="35" t="s">
+        <v>564</v>
+      </c>
+      <c r="G679" s="35" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="681" spans="1:7" ht="30">
-      <c r="A681" s="50" t="s">
-        <v>643</v>
-      </c>
-      <c r="B681" s="39" t="s">
+      <c r="A681" s="42" t="s">
+        <v>575</v>
+      </c>
+      <c r="B681" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D681" s="39" t="s">
-        <v>634</v>
-      </c>
-      <c r="F681" s="39" t="s">
-        <v>578</v>
+      <c r="D681" s="35" t="s">
+        <v>566</v>
+      </c>
+      <c r="F681" s="35" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="682" spans="1:7">
@@ -10587,47 +10352,47 @@
       <c r="E684" s="3">
         <v>3</v>
       </c>
-      <c r="F684" s="39" t="s">
-        <v>579</v>
-      </c>
-      <c r="G684" s="39" t="s">
-        <v>582</v>
+      <c r="F684" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="G684" s="35" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="685" spans="1:7">
       <c r="E685" s="5">
         <v>4</v>
       </c>
-      <c r="F685" s="39" t="s">
-        <v>585</v>
-      </c>
-      <c r="G685" s="39" t="s">
-        <v>586</v>
+      <c r="F685" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="G685" s="35" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="686" spans="1:7">
       <c r="E686" s="5">
         <v>5</v>
       </c>
-      <c r="F686" s="39" t="s">
-        <v>635</v>
-      </c>
-      <c r="G686" s="39" t="s">
-        <v>636</v>
+      <c r="F686" s="35" t="s">
+        <v>567</v>
+      </c>
+      <c r="G686" s="35" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="688" spans="1:7" ht="30">
-      <c r="A688" s="50" t="s">
-        <v>650</v>
-      </c>
-      <c r="B688" s="39" t="s">
+      <c r="A688" s="42" t="s">
+        <v>582</v>
+      </c>
+      <c r="B688" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D688" s="39" t="s">
-        <v>638</v>
-      </c>
-      <c r="F688" s="39" t="s">
-        <v>578</v>
+      <c r="D688" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="F688" s="35" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="689" spans="1:7">
@@ -10650,58 +10415,58 @@
       <c r="E691" s="3">
         <v>3</v>
       </c>
-      <c r="F691" s="39" t="s">
-        <v>579</v>
-      </c>
-      <c r="G691" s="39" t="s">
-        <v>582</v>
+      <c r="F691" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="G691" s="35" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="692" spans="1:7">
       <c r="E692" s="5">
         <v>4</v>
       </c>
-      <c r="F692" s="39" t="s">
-        <v>585</v>
-      </c>
-      <c r="G692" s="39" t="s">
-        <v>586</v>
+      <c r="F692" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="G692" s="35" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="693" spans="1:7">
       <c r="E693" s="5">
         <v>5</v>
       </c>
-      <c r="F693" s="39" t="s">
-        <v>639</v>
-      </c>
-      <c r="G693" s="39" t="s">
-        <v>640</v>
+      <c r="F693" s="35" t="s">
+        <v>571</v>
+      </c>
+      <c r="G693" s="35" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="694" spans="1:7">
       <c r="E694" s="5">
         <v>6</v>
       </c>
-      <c r="F694" s="39" t="s">
-        <v>641</v>
-      </c>
-      <c r="G694" s="39" t="s">
-        <v>642</v>
+      <c r="F694" s="35" t="s">
+        <v>573</v>
+      </c>
+      <c r="G694" s="35" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="696" spans="1:7" ht="30">
-      <c r="A696" s="50" t="s">
-        <v>657</v>
-      </c>
-      <c r="B696" s="39" t="s">
+      <c r="A696" s="42" t="s">
+        <v>589</v>
+      </c>
+      <c r="B696" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D696" s="39" t="s">
-        <v>644</v>
-      </c>
-      <c r="F696" s="39" t="s">
-        <v>578</v>
+      <c r="D696" s="35" t="s">
+        <v>576</v>
+      </c>
+      <c r="F696" s="35" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="697" spans="1:7">
@@ -10724,69 +10489,69 @@
       <c r="E699" s="3">
         <v>3</v>
       </c>
-      <c r="F699" s="39" t="s">
-        <v>579</v>
-      </c>
-      <c r="G699" s="39" t="s">
-        <v>582</v>
+      <c r="F699" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="G699" s="35" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="700" spans="1:7">
       <c r="E700" s="5">
         <v>4</v>
       </c>
-      <c r="F700" s="39" t="s">
-        <v>585</v>
-      </c>
-      <c r="G700" s="39" t="s">
-        <v>586</v>
+      <c r="F700" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="G700" s="35" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="701" spans="1:7">
       <c r="E701" s="5">
         <v>5</v>
       </c>
-      <c r="F701" s="39" t="s">
-        <v>645</v>
-      </c>
-      <c r="G701" s="39" t="s">
-        <v>646</v>
+      <c r="F701" s="35" t="s">
+        <v>577</v>
+      </c>
+      <c r="G701" s="35" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="702" spans="1:7">
       <c r="E702" s="5">
         <v>6</v>
       </c>
-      <c r="F702" s="39" t="s">
-        <v>623</v>
-      </c>
-      <c r="G702" s="39" t="s">
-        <v>647</v>
+      <c r="F702" s="35" t="s">
+        <v>555</v>
+      </c>
+      <c r="G702" s="35" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="703" spans="1:7">
       <c r="E703" s="5">
         <v>7</v>
       </c>
-      <c r="F703" s="39" t="s">
-        <v>648</v>
-      </c>
-      <c r="G703" s="39" t="s">
-        <v>649</v>
+      <c r="F703" s="35" t="s">
+        <v>580</v>
+      </c>
+      <c r="G703" s="35" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="705" spans="1:7" ht="30">
-      <c r="A705" s="50" t="s">
-        <v>669</v>
-      </c>
-      <c r="B705" s="39" t="s">
+      <c r="A705" s="42" t="s">
+        <v>601</v>
+      </c>
+      <c r="B705" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D705" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="F705" s="39" t="s">
-        <v>578</v>
+      <c r="D705" s="35" t="s">
+        <v>583</v>
+      </c>
+      <c r="F705" s="35" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="706" spans="1:7">
@@ -10809,69 +10574,69 @@
       <c r="E708" s="3">
         <v>3</v>
       </c>
-      <c r="F708" s="39" t="s">
-        <v>579</v>
-      </c>
-      <c r="G708" s="39" t="s">
-        <v>582</v>
+      <c r="F708" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="G708" s="35" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="709" spans="1:7">
       <c r="E709" s="5">
         <v>4</v>
       </c>
-      <c r="F709" s="39" t="s">
-        <v>585</v>
-      </c>
-      <c r="G709" s="39" t="s">
-        <v>586</v>
+      <c r="F709" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="G709" s="35" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="710" spans="1:7" ht="30">
       <c r="E710" s="5">
         <v>5</v>
       </c>
-      <c r="F710" s="39" t="s">
-        <v>652</v>
-      </c>
-      <c r="G710" s="39" t="s">
-        <v>653</v>
+      <c r="F710" s="35" t="s">
+        <v>584</v>
+      </c>
+      <c r="G710" s="35" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="711" spans="1:7" ht="30">
       <c r="E711" s="5">
         <v>6</v>
       </c>
-      <c r="F711" s="39" t="s">
-        <v>654</v>
-      </c>
-      <c r="G711" s="39" t="s">
-        <v>655</v>
+      <c r="F711" s="35" t="s">
+        <v>586</v>
+      </c>
+      <c r="G711" s="35" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="712" spans="1:7">
       <c r="E712" s="5">
         <v>7</v>
       </c>
-      <c r="F712" s="39" t="s">
+      <c r="F712" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="G712" s="39" t="s">
-        <v>656</v>
+      <c r="G712" s="35" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="714" spans="1:7" ht="30">
-      <c r="A714" s="50" t="s">
-        <v>676</v>
-      </c>
-      <c r="B714" s="39" t="s">
+      <c r="A714" s="42" t="s">
+        <v>608</v>
+      </c>
+      <c r="B714" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D714" s="39" t="s">
-        <v>658</v>
-      </c>
-      <c r="F714" s="39" t="s">
-        <v>578</v>
+      <c r="D714" s="35" t="s">
+        <v>590</v>
+      </c>
+      <c r="F714" s="35" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="715" spans="1:7">
@@ -10894,63 +10659,63 @@
       <c r="E717" s="3">
         <v>3</v>
       </c>
-      <c r="F717" s="39" t="s">
-        <v>579</v>
-      </c>
-      <c r="G717" s="39" t="s">
-        <v>582</v>
+      <c r="F717" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="G717" s="35" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="718" spans="1:7">
       <c r="E718" s="5">
         <v>4</v>
       </c>
-      <c r="F718" s="39" t="s">
-        <v>585</v>
-      </c>
-      <c r="G718" s="39" t="s">
-        <v>586</v>
+      <c r="F718" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="G718" s="35" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="719" spans="1:7">
       <c r="E719" s="5">
         <v>5</v>
       </c>
-      <c r="F719" s="39" t="s">
-        <v>659</v>
-      </c>
-      <c r="G719" s="39" t="s">
-        <v>660</v>
+      <c r="F719" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="G719" s="35" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="720" spans="1:7">
       <c r="E720" s="5">
         <v>6</v>
       </c>
-      <c r="F720" s="39" t="s">
-        <v>661</v>
+      <c r="F720" s="35" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="721" spans="1:7">
       <c r="E721" s="5">
         <v>7</v>
       </c>
-      <c r="F721" s="39" t="s">
-        <v>662</v>
+      <c r="F721" s="35" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="723" spans="1:7" ht="30">
-      <c r="A723" s="50" t="s">
-        <v>680</v>
-      </c>
-      <c r="B723" s="41" t="s">
+      <c r="A723" s="42" t="s">
+        <v>612</v>
+      </c>
+      <c r="B723" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D723" s="41" t="s">
-        <v>663</v>
-      </c>
-      <c r="F723" s="41" t="s">
-        <v>671</v>
+      <c r="D723" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="F723" s="37" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="724" spans="1:7">
@@ -10973,69 +10738,69 @@
       <c r="E726" s="3">
         <v>3</v>
       </c>
-      <c r="F726" s="39" t="s">
-        <v>579</v>
-      </c>
-      <c r="G726" s="39" t="s">
-        <v>582</v>
+      <c r="F726" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="G726" s="35" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="727" spans="1:7">
       <c r="E727" s="5">
         <v>4</v>
       </c>
-      <c r="F727" s="39" t="s">
-        <v>585</v>
-      </c>
-      <c r="G727" s="39" t="s">
-        <v>586</v>
+      <c r="F727" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="G727" s="35" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="728" spans="1:7" ht="45">
       <c r="E728" s="5">
         <v>5</v>
       </c>
-      <c r="F728" s="41" t="s">
-        <v>664</v>
-      </c>
-      <c r="G728" s="41" t="s">
-        <v>665</v>
+      <c r="F728" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="G728" s="37" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="729" spans="1:7" ht="30">
       <c r="E729" s="5">
         <v>6</v>
       </c>
-      <c r="F729" s="41" t="s">
-        <v>666</v>
-      </c>
-      <c r="G729" s="41" t="s">
-        <v>667</v>
+      <c r="F729" s="37" t="s">
+        <v>598</v>
+      </c>
+      <c r="G729" s="37" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="730" spans="1:7">
       <c r="E730" s="5">
         <v>7</v>
       </c>
-      <c r="F730" s="41" t="s">
+      <c r="F730" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="G730" s="41" t="s">
-        <v>668</v>
+      <c r="G730" s="37" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="732" spans="1:7" ht="30">
-      <c r="A732" s="50" t="s">
-        <v>684</v>
-      </c>
-      <c r="B732" s="41" t="s">
+      <c r="A732" s="42" t="s">
+        <v>616</v>
+      </c>
+      <c r="B732" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D732" s="41" t="s">
-        <v>670</v>
-      </c>
-      <c r="F732" s="41" t="s">
-        <v>671</v>
+      <c r="D732" s="37" t="s">
+        <v>602</v>
+      </c>
+      <c r="F732" s="37" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="733" spans="1:7">
@@ -11058,91 +10823,91 @@
       <c r="E735" s="3">
         <v>3</v>
       </c>
-      <c r="F735" s="39" t="s">
-        <v>579</v>
-      </c>
-      <c r="G735" s="39" t="s">
-        <v>582</v>
+      <c r="F735" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="G735" s="35" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="736" spans="1:7">
       <c r="E736" s="5">
         <v>4</v>
       </c>
-      <c r="F736" s="39" t="s">
-        <v>585</v>
-      </c>
-      <c r="G736" s="39" t="s">
-        <v>586</v>
+      <c r="F736" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="G736" s="35" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="737" spans="1:7" ht="45">
       <c r="E737" s="5">
         <v>5</v>
       </c>
-      <c r="F737" s="41" t="s">
-        <v>664</v>
-      </c>
-      <c r="G737" s="41" t="s">
-        <v>665</v>
+      <c r="F737" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="G737" s="37" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="738" spans="1:7" ht="30">
       <c r="E738" s="5">
         <v>6</v>
       </c>
-      <c r="F738" s="41" t="s">
-        <v>666</v>
-      </c>
-      <c r="G738" s="41" t="s">
-        <v>667</v>
+      <c r="F738" s="37" t="s">
+        <v>598</v>
+      </c>
+      <c r="G738" s="37" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="739" spans="1:7" ht="30">
       <c r="E739" s="5">
         <v>7</v>
       </c>
-      <c r="F739" s="41" t="s">
-        <v>672</v>
-      </c>
-      <c r="G739" s="41" t="s">
-        <v>673</v>
+      <c r="F739" s="37" t="s">
+        <v>604</v>
+      </c>
+      <c r="G739" s="37" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="740" spans="1:7">
       <c r="E740" s="5">
         <v>8</v>
       </c>
-      <c r="F740" s="41" t="s">
-        <v>608</v>
-      </c>
-      <c r="G740" s="41" t="s">
-        <v>674</v>
+      <c r="F740" s="37" t="s">
+        <v>540</v>
+      </c>
+      <c r="G740" s="37" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="741" spans="1:7">
       <c r="E741" s="5">
         <v>9</v>
       </c>
-      <c r="F741" s="41" t="s">
-        <v>675</v>
-      </c>
-      <c r="G741" s="41" t="s">
+      <c r="F741" s="37" t="s">
+        <v>607</v>
+      </c>
+      <c r="G741" s="37" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="743" spans="1:7" ht="30">
-      <c r="A743" s="50" t="s">
-        <v>754</v>
-      </c>
-      <c r="B743" s="41" t="s">
+      <c r="A743" s="42" t="s">
+        <v>626</v>
+      </c>
+      <c r="B743" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D743" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="F743" s="41" t="s">
-        <v>671</v>
+      <c r="D743" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="F743" s="37" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="744" spans="1:7">
@@ -11165,69 +10930,69 @@
       <c r="E746" s="3">
         <v>3</v>
       </c>
-      <c r="F746" s="39" t="s">
-        <v>579</v>
-      </c>
-      <c r="G746" s="39" t="s">
-        <v>582</v>
+      <c r="F746" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="G746" s="35" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="747" spans="1:7">
       <c r="E747" s="5">
         <v>4</v>
       </c>
-      <c r="F747" s="39" t="s">
-        <v>585</v>
-      </c>
-      <c r="G747" s="39" t="s">
-        <v>586</v>
+      <c r="F747" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="G747" s="35" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="748" spans="1:7" ht="45">
       <c r="E748" s="5">
         <v>5</v>
       </c>
-      <c r="F748" s="41" t="s">
-        <v>664</v>
-      </c>
-      <c r="G748" s="41" t="s">
-        <v>665</v>
+      <c r="F748" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="G748" s="37" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="749" spans="1:7">
       <c r="E749" s="5">
         <v>6</v>
       </c>
-      <c r="F749" s="41" t="s">
-        <v>678</v>
-      </c>
-      <c r="G749" s="41" t="s">
-        <v>646</v>
+      <c r="F749" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="G749" s="37" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="750" spans="1:7">
       <c r="E750" s="5">
         <v>7</v>
       </c>
-      <c r="F750" s="41" t="s">
-        <v>623</v>
-      </c>
-      <c r="G750" s="41" t="s">
-        <v>679</v>
+      <c r="F750" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="G750" s="37" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="752" spans="1:7" ht="30">
-      <c r="A752" s="50" t="s">
-        <v>765</v>
-      </c>
-      <c r="B752" s="41" t="s">
+      <c r="A752" s="42" t="s">
+        <v>637</v>
+      </c>
+      <c r="B752" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D752" s="41" t="s">
-        <v>681</v>
-      </c>
-      <c r="F752" s="41" t="s">
-        <v>671</v>
+      <c r="D752" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="F752" s="37" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="753" spans="1:7">
@@ -11250,47 +11015,47 @@
       <c r="E755" s="3">
         <v>3</v>
       </c>
-      <c r="F755" s="39" t="s">
-        <v>579</v>
-      </c>
-      <c r="G755" s="39" t="s">
-        <v>582</v>
+      <c r="F755" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="G755" s="35" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="756" spans="1:7">
       <c r="E756" s="5">
         <v>4</v>
       </c>
-      <c r="F756" s="39" t="s">
-        <v>585</v>
-      </c>
-      <c r="G756" s="39" t="s">
-        <v>586</v>
+      <c r="F756" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="G756" s="35" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="757" spans="1:7">
       <c r="E757" s="5">
         <v>5</v>
       </c>
-      <c r="F757" s="41" t="s">
-        <v>682</v>
-      </c>
-      <c r="G757" s="41" t="s">
-        <v>683</v>
+      <c r="F757" s="37" t="s">
+        <v>614</v>
+      </c>
+      <c r="G757" s="37" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="759" spans="1:7" ht="30">
-      <c r="A759" s="50" t="s">
-        <v>773</v>
-      </c>
-      <c r="B759" s="41" t="s">
+      <c r="A759" s="42" t="s">
+        <v>645</v>
+      </c>
+      <c r="B759" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D759" s="41" t="s">
-        <v>685</v>
-      </c>
-      <c r="F759" s="41" t="s">
-        <v>671</v>
+      <c r="D759" s="37" t="s">
+        <v>617</v>
+      </c>
+      <c r="F759" s="37" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="760" spans="1:7">
@@ -11313,77 +11078,77 @@
       <c r="E762" s="3">
         <v>3</v>
       </c>
-      <c r="F762" s="39" t="s">
-        <v>579</v>
-      </c>
-      <c r="G762" s="39" t="s">
-        <v>582</v>
+      <c r="F762" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="G762" s="35" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="763" spans="1:7">
       <c r="E763" s="5">
         <v>4</v>
       </c>
-      <c r="F763" s="39" t="s">
-        <v>585</v>
-      </c>
-      <c r="G763" s="39" t="s">
-        <v>586</v>
+      <c r="F763" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="G763" s="35" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="764" spans="1:7">
       <c r="E764" s="5">
         <v>5</v>
       </c>
-      <c r="F764" s="41" t="s">
-        <v>682</v>
-      </c>
-      <c r="G764" s="41" t="s">
-        <v>683</v>
+      <c r="F764" s="37" t="s">
+        <v>614</v>
+      </c>
+      <c r="G764" s="37" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="765" spans="1:7">
       <c r="E765" s="5">
         <v>6</v>
       </c>
-      <c r="F765" s="41" t="s">
-        <v>686</v>
-      </c>
-      <c r="G765" s="41" t="s">
-        <v>687</v>
+      <c r="F765" s="37" t="s">
+        <v>618</v>
+      </c>
+      <c r="G765" s="37" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="766" spans="1:7">
       <c r="E766" s="5">
         <v>7</v>
       </c>
-      <c r="F766" s="41" t="s">
-        <v>688</v>
-      </c>
-      <c r="G766" s="41" t="s">
-        <v>689</v>
+      <c r="F766" s="37" t="s">
+        <v>620</v>
+      </c>
+      <c r="G766" s="37" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="767" spans="1:7">
       <c r="E767" s="5">
         <v>6</v>
       </c>
-      <c r="F767" s="41" t="s">
-        <v>690</v>
-      </c>
-      <c r="G767" s="41" t="s">
-        <v>691</v>
+      <c r="F767" s="37" t="s">
+        <v>622</v>
+      </c>
+      <c r="G767" s="37" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="769" spans="1:7" ht="30">
-      <c r="A769" s="50" t="s">
-        <v>895</v>
-      </c>
-      <c r="B769" s="41" t="s">
+      <c r="A769" s="42" t="s">
+        <v>767</v>
+      </c>
+      <c r="B769" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D769" s="41" t="s">
-        <v>755</v>
+      <c r="D769" s="37" t="s">
+        <v>627</v>
       </c>
       <c r="F769" s="3" t="s">
         <v>97</v>
@@ -11393,7 +11158,7 @@
       <c r="E770" s="5">
         <v>1</v>
       </c>
-      <c r="F770" s="41" t="s">
+      <c r="F770" s="37" t="s">
         <v>89</v>
       </c>
     </row>
@@ -11409,21 +11174,21 @@
       <c r="E772" s="5">
         <v>3</v>
       </c>
-      <c r="F772" s="41" t="s">
-        <v>756</v>
-      </c>
-      <c r="G772" s="41" t="s">
-        <v>757</v>
+      <c r="F772" s="37" t="s">
+        <v>628</v>
+      </c>
+      <c r="G772" s="37" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="773" spans="1:7">
       <c r="E773" s="5">
         <v>4</v>
       </c>
-      <c r="F773" s="41" t="s">
-        <v>758</v>
-      </c>
-      <c r="G773" s="41" t="s">
+      <c r="F773" s="37" t="s">
+        <v>630</v>
+      </c>
+      <c r="G773" s="37" t="s">
         <v>322</v>
       </c>
     </row>
@@ -11431,60 +11196,60 @@
       <c r="E774" s="5">
         <v>5</v>
       </c>
-      <c r="F774" s="41" t="s">
-        <v>759</v>
-      </c>
-      <c r="G774" s="41" t="s">
-        <v>760</v>
+      <c r="F774" s="37" t="s">
+        <v>631</v>
+      </c>
+      <c r="G774" s="37" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="775" spans="1:7">
       <c r="E775" s="5">
         <v>6</v>
       </c>
-      <c r="F775" s="41" t="s">
-        <v>761</v>
-      </c>
-      <c r="G775" s="41" t="s">
-        <v>646</v>
+      <c r="F775" s="37" t="s">
+        <v>633</v>
+      </c>
+      <c r="G775" s="37" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="776" spans="1:7">
       <c r="E776" s="5">
         <v>7</v>
       </c>
-      <c r="F776" s="41" t="s">
-        <v>623</v>
-      </c>
-      <c r="G776" s="41" t="s">
-        <v>762</v>
+      <c r="F776" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="G776" s="37" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="777" spans="1:7">
       <c r="E777" s="5">
         <v>8</v>
       </c>
-      <c r="F777" s="41" t="s">
-        <v>763</v>
-      </c>
-      <c r="G777" s="41" t="s">
-        <v>764</v>
+      <c r="F777" s="37" t="s">
+        <v>635</v>
+      </c>
+      <c r="G777" s="37" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="779" spans="1:7" ht="30">
-      <c r="A779" s="50" t="s">
-        <v>896</v>
-      </c>
-      <c r="B779" s="41" t="s">
+      <c r="A779" s="42" t="s">
+        <v>768</v>
+      </c>
+      <c r="B779" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D779" s="41" t="s">
-        <v>766</v>
+      <c r="D779" s="37" t="s">
+        <v>638</v>
       </c>
       <c r="E779" s="5">
         <v>1</v>
       </c>
-      <c r="F779" s="41" t="s">
+      <c r="F779" s="37" t="s">
         <v>89</v>
       </c>
     </row>
@@ -11500,60 +11265,60 @@
       <c r="E781" s="5">
         <v>3</v>
       </c>
-      <c r="F781" s="41" t="s">
-        <v>767</v>
-      </c>
-      <c r="G781" s="41" t="s">
-        <v>768</v>
+      <c r="F781" s="37" t="s">
+        <v>639</v>
+      </c>
+      <c r="G781" s="37" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="782" spans="1:7">
       <c r="E782" s="5">
         <v>4</v>
       </c>
-      <c r="F782" s="41" t="s">
-        <v>769</v>
-      </c>
-      <c r="G782" s="41" t="s">
-        <v>770</v>
+      <c r="F782" s="37" t="s">
+        <v>641</v>
+      </c>
+      <c r="G782" s="37" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="783" spans="1:7">
       <c r="E783" s="5">
         <v>5</v>
       </c>
-      <c r="F783" s="41" t="s">
-        <v>771</v>
-      </c>
-      <c r="G783" s="41" t="s">
-        <v>772</v>
+      <c r="F783" s="37" t="s">
+        <v>643</v>
+      </c>
+      <c r="G783" s="37" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="784" spans="1:7">
       <c r="E784" s="5">
         <v>6</v>
       </c>
-      <c r="F784" s="41" t="s">
+      <c r="F784" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="G784" s="41" t="s">
+      <c r="G784" s="37" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="786" spans="1:7" ht="30">
-      <c r="A786" s="50" t="s">
-        <v>781</v>
-      </c>
-      <c r="B786" s="41" t="s">
+      <c r="A786" s="42" t="s">
+        <v>653</v>
+      </c>
+      <c r="B786" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D786" s="41" t="s">
-        <v>774</v>
+      <c r="D786" s="37" t="s">
+        <v>646</v>
       </c>
       <c r="E786" s="5">
         <v>1</v>
       </c>
-      <c r="F786" s="41" t="s">
+      <c r="F786" s="37" t="s">
         <v>89</v>
       </c>
     </row>
@@ -11569,71 +11334,71 @@
       <c r="E788" s="5">
         <v>3</v>
       </c>
-      <c r="F788" s="41" t="s">
-        <v>767</v>
-      </c>
-      <c r="G788" s="41" t="s">
-        <v>768</v>
+      <c r="F788" s="37" t="s">
+        <v>639</v>
+      </c>
+      <c r="G788" s="37" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="789" spans="1:7">
       <c r="E789" s="5">
         <v>4</v>
       </c>
-      <c r="F789" s="41" t="s">
-        <v>775</v>
-      </c>
-      <c r="G789" s="41" t="s">
-        <v>776</v>
+      <c r="F789" s="37" t="s">
+        <v>647</v>
+      </c>
+      <c r="G789" s="37" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="790" spans="1:7">
       <c r="E790" s="5">
         <v>5</v>
       </c>
-      <c r="F790" s="41" t="s">
-        <v>783</v>
-      </c>
-      <c r="G790" s="41" t="s">
-        <v>784</v>
+      <c r="F790" s="37" t="s">
+        <v>655</v>
+      </c>
+      <c r="G790" s="37" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="791" spans="1:7">
       <c r="E791" s="5">
         <v>6</v>
       </c>
-      <c r="F791" s="41" t="s">
-        <v>777</v>
-      </c>
-      <c r="G791" s="41" t="s">
-        <v>778</v>
+      <c r="F791" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="G791" s="37" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="792" spans="1:7">
       <c r="E792" s="5">
         <v>7</v>
       </c>
-      <c r="F792" s="41" t="s">
-        <v>779</v>
-      </c>
-      <c r="G792" s="41" t="s">
-        <v>780</v>
+      <c r="F792" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="G792" s="37" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="794" spans="1:7" ht="30">
-      <c r="A794" s="50" t="s">
-        <v>785</v>
-      </c>
-      <c r="B794" s="41" t="s">
+      <c r="A794" s="42" t="s">
+        <v>657</v>
+      </c>
+      <c r="B794" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D794" s="41" t="s">
-        <v>782</v>
+      <c r="D794" s="37" t="s">
+        <v>654</v>
       </c>
       <c r="E794" s="5">
         <v>1</v>
       </c>
-      <c r="F794" s="41" t="s">
+      <c r="F794" s="37" t="s">
         <v>89</v>
       </c>
     </row>
@@ -11649,44 +11414,44 @@
       <c r="E796" s="5">
         <v>3</v>
       </c>
-      <c r="F796" s="41" t="s">
-        <v>767</v>
-      </c>
-      <c r="G796" s="41" t="s">
-        <v>768</v>
+      <c r="F796" s="37" t="s">
+        <v>639</v>
+      </c>
+      <c r="G796" s="37" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="797" spans="1:7">
       <c r="E797" s="5">
         <v>4</v>
       </c>
-      <c r="F797" s="41" t="s">
-        <v>775</v>
-      </c>
-      <c r="G797" s="41" t="s">
-        <v>776</v>
+      <c r="F797" s="37" t="s">
+        <v>647</v>
+      </c>
+      <c r="G797" s="37" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="798" spans="1:7">
       <c r="E798" s="5">
         <v>5</v>
       </c>
-      <c r="F798" s="41" t="s">
-        <v>783</v>
-      </c>
-      <c r="G798" s="41" t="s">
-        <v>784</v>
+      <c r="F798" s="37" t="s">
+        <v>655</v>
+      </c>
+      <c r="G798" s="37" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="800" spans="1:7" ht="30">
-      <c r="A800" s="50" t="s">
-        <v>798</v>
-      </c>
-      <c r="B800" s="41" t="s">
+      <c r="A800" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="B800" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D800" s="41" t="s">
-        <v>786</v>
+      <c r="D800" s="37" t="s">
+        <v>658</v>
       </c>
       <c r="F800" s="3" t="s">
         <v>97</v>
@@ -11696,7 +11461,7 @@
       <c r="E801" s="5">
         <v>1</v>
       </c>
-      <c r="F801" s="41" t="s">
+      <c r="F801" s="37" t="s">
         <v>89</v>
       </c>
     </row>
@@ -11712,79 +11477,79 @@
       <c r="E803" s="5">
         <v>3</v>
       </c>
-      <c r="F803" s="41" t="s">
-        <v>787</v>
+      <c r="F803" s="37" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="804" spans="1:7" ht="90">
       <c r="E804" s="5">
         <v>4</v>
       </c>
-      <c r="F804" s="41" t="s">
+      <c r="F804" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="G804" s="41" t="s">
-        <v>788</v>
+      <c r="G804" s="37" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="805" spans="1:7">
       <c r="E805" s="5">
         <v>5</v>
       </c>
-      <c r="F805" s="41" t="s">
-        <v>789</v>
+      <c r="F805" s="37" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="806" spans="1:7" ht="30">
       <c r="E806" s="5">
         <v>6</v>
       </c>
-      <c r="F806" s="41" t="s">
-        <v>790</v>
-      </c>
-      <c r="G806" s="41" t="s">
-        <v>791</v>
+      <c r="F806" s="37" t="s">
+        <v>662</v>
+      </c>
+      <c r="G806" s="37" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="807" spans="1:7">
       <c r="E807" s="5">
         <v>7</v>
       </c>
-      <c r="F807" s="41" t="s">
-        <v>792</v>
-      </c>
-      <c r="G807" s="41" t="s">
-        <v>793</v>
+      <c r="F807" s="37" t="s">
+        <v>664</v>
+      </c>
+      <c r="G807" s="37" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="808" spans="1:7">
       <c r="E808" s="5">
         <v>8</v>
       </c>
-      <c r="F808" s="41" t="s">
-        <v>794</v>
+      <c r="F808" s="37" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="809" spans="1:7">
       <c r="E809" s="5">
         <v>9</v>
       </c>
-      <c r="F809" s="41" t="s">
+      <c r="F809" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="G809" s="41" t="s">
+      <c r="G809" s="37" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="811" spans="1:7" ht="30">
-      <c r="A811" s="50" t="s">
-        <v>801</v>
-      </c>
-      <c r="B811" s="41" t="s">
+      <c r="A811" s="42" t="s">
+        <v>673</v>
+      </c>
+      <c r="B811" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D811" s="41" t="s">
-        <v>795</v>
+      <c r="D811" s="37" t="s">
+        <v>667</v>
       </c>
       <c r="F811" s="3" t="s">
         <v>97</v>
@@ -11794,7 +11559,7 @@
       <c r="E812" s="5">
         <v>1</v>
       </c>
-      <c r="F812" s="41" t="s">
+      <c r="F812" s="37" t="s">
         <v>89</v>
       </c>
     </row>
@@ -11810,71 +11575,71 @@
       <c r="E814" s="5">
         <v>3</v>
       </c>
-      <c r="F814" s="41" t="s">
-        <v>787</v>
+      <c r="F814" s="37" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="815" spans="1:7" ht="90">
       <c r="E815" s="5">
         <v>4</v>
       </c>
-      <c r="F815" s="41" t="s">
+      <c r="F815" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="G815" s="41" t="s">
-        <v>788</v>
+      <c r="G815" s="37" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="816" spans="1:7">
       <c r="E816" s="5">
         <v>5</v>
       </c>
-      <c r="F816" s="41" t="s">
-        <v>789</v>
+      <c r="F816" s="37" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="817" spans="1:7" ht="30">
       <c r="E817" s="5">
         <v>6</v>
       </c>
-      <c r="F817" s="41" t="s">
-        <v>790</v>
-      </c>
-      <c r="G817" s="41" t="s">
-        <v>791</v>
+      <c r="F817" s="37" t="s">
+        <v>662</v>
+      </c>
+      <c r="G817" s="37" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="818" spans="1:7">
       <c r="E818" s="5">
         <v>7</v>
       </c>
-      <c r="F818" s="41" t="s">
-        <v>796</v>
-      </c>
-      <c r="G818" s="41" t="s">
-        <v>797</v>
+      <c r="F818" s="37" t="s">
+        <v>668</v>
+      </c>
+      <c r="G818" s="37" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="819" spans="1:7">
       <c r="E819" s="5">
         <v>8</v>
       </c>
-      <c r="F819" s="41" t="s">
+      <c r="F819" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="G819" s="41" t="s">
+      <c r="G819" s="37" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="821" spans="1:7" ht="30">
-      <c r="A821" s="50" t="s">
-        <v>805</v>
-      </c>
-      <c r="B821" s="41" t="s">
+      <c r="A821" s="42" t="s">
+        <v>677</v>
+      </c>
+      <c r="B821" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D821" s="41" t="s">
-        <v>799</v>
+      <c r="D821" s="37" t="s">
+        <v>671</v>
       </c>
       <c r="E821" s="5">
         <v>1</v>
@@ -11895,55 +11660,55 @@
       <c r="E823" s="3">
         <v>3</v>
       </c>
-      <c r="F823" s="39" t="s">
-        <v>579</v>
-      </c>
-      <c r="G823" s="39" t="s">
-        <v>582</v>
+      <c r="F823" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="G823" s="35" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="824" spans="1:7">
       <c r="E824" s="5">
         <v>4</v>
       </c>
-      <c r="F824" s="39" t="s">
-        <v>585</v>
-      </c>
-      <c r="G824" s="39" t="s">
-        <v>586</v>
+      <c r="F824" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="G824" s="35" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="825" spans="1:7">
       <c r="E825" s="5">
         <v>5</v>
       </c>
-      <c r="F825" s="39" t="s">
-        <v>614</v>
-      </c>
-      <c r="G825" s="39" t="s">
-        <v>615</v>
+      <c r="F825" s="35" t="s">
+        <v>546</v>
+      </c>
+      <c r="G825" s="35" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="826" spans="1:7">
       <c r="E826" s="5">
         <v>6</v>
       </c>
-      <c r="F826" s="41" t="s">
+      <c r="F826" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="G826" s="41" t="s">
-        <v>800</v>
+      <c r="G826" s="37" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="828" spans="1:7">
-      <c r="A828" s="50" t="s">
-        <v>815</v>
-      </c>
-      <c r="B828" s="41" t="s">
+      <c r="A828" s="42" t="s">
+        <v>687</v>
+      </c>
+      <c r="B828" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D828" s="42" t="s">
-        <v>802</v>
+      <c r="D828" s="38" t="s">
+        <v>674</v>
       </c>
       <c r="E828" s="5">
         <v>1</v>
@@ -11964,22 +11729,22 @@
       <c r="E830" s="5">
         <v>3</v>
       </c>
-      <c r="F830" s="41" t="s">
-        <v>803</v>
-      </c>
-      <c r="G830" s="41" t="s">
-        <v>804</v>
+      <c r="F830" s="37" t="s">
+        <v>675</v>
+      </c>
+      <c r="G830" s="37" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="832" spans="1:7" ht="30">
-      <c r="A832" s="50" t="s">
-        <v>822</v>
-      </c>
-      <c r="B832" s="41" t="s">
+      <c r="A832" s="42" t="s">
+        <v>694</v>
+      </c>
+      <c r="B832" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D832" s="41" t="s">
-        <v>806</v>
+      <c r="D832" s="37" t="s">
+        <v>678</v>
       </c>
       <c r="E832" s="5">
         <v>1</v>
@@ -12000,63 +11765,63 @@
       <c r="E834" s="5">
         <v>3</v>
       </c>
-      <c r="F834" s="41" t="s">
-        <v>807</v>
-      </c>
-      <c r="G834" s="41" t="s">
-        <v>808</v>
+      <c r="F834" s="37" t="s">
+        <v>679</v>
+      </c>
+      <c r="G834" s="37" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="835" spans="1:7">
       <c r="E835" s="5">
         <v>4</v>
       </c>
-      <c r="F835" s="41" t="s">
-        <v>809</v>
-      </c>
-      <c r="G835" s="41" t="s">
-        <v>810</v>
+      <c r="F835" s="37" t="s">
+        <v>681</v>
+      </c>
+      <c r="G835" s="37" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="836" spans="1:7">
       <c r="E836" s="5">
         <v>5</v>
       </c>
-      <c r="F836" s="41" t="s">
-        <v>811</v>
+      <c r="F836" s="37" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="837" spans="1:7">
       <c r="E837" s="5">
         <v>6</v>
       </c>
-      <c r="F837" s="41" t="s">
-        <v>812</v>
-      </c>
-      <c r="G837" s="41" t="s">
-        <v>813</v>
+      <c r="F837" s="37" t="s">
+        <v>684</v>
+      </c>
+      <c r="G837" s="37" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="838" spans="1:7">
       <c r="E838" s="5">
         <v>7</v>
       </c>
-      <c r="F838" s="41" t="s">
+      <c r="F838" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="G838" s="41" t="s">
-        <v>814</v>
+      <c r="G838" s="37" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="840" spans="1:7" ht="30">
-      <c r="A840" s="50" t="s">
-        <v>827</v>
-      </c>
-      <c r="B840" s="41" t="s">
+      <c r="A840" s="42" t="s">
+        <v>699</v>
+      </c>
+      <c r="B840" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D840" s="41" t="s">
-        <v>816</v>
+      <c r="D840" s="37" t="s">
+        <v>688</v>
       </c>
       <c r="E840" s="5">
         <v>1</v>
@@ -12077,41 +11842,41 @@
       <c r="E842" s="5">
         <v>3</v>
       </c>
-      <c r="F842" s="41" t="s">
-        <v>817</v>
-      </c>
-      <c r="G842" s="41" t="s">
-        <v>818</v>
+      <c r="F842" s="37" t="s">
+        <v>689</v>
+      </c>
+      <c r="G842" s="37" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="843" spans="1:7">
       <c r="E843" s="5">
         <v>4</v>
       </c>
-      <c r="F843" s="41" t="s">
-        <v>819</v>
+      <c r="F843" s="37" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="844" spans="1:7">
       <c r="E844" s="5">
         <v>5</v>
       </c>
-      <c r="F844" s="41" t="s">
-        <v>820</v>
-      </c>
-      <c r="G844" s="41" t="s">
-        <v>821</v>
+      <c r="F844" s="37" t="s">
+        <v>692</v>
+      </c>
+      <c r="G844" s="37" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="846" spans="1:7" ht="30">
-      <c r="A846" s="50" t="s">
-        <v>897</v>
-      </c>
-      <c r="B846" s="41" t="s">
+      <c r="A846" s="42" t="s">
+        <v>769</v>
+      </c>
+      <c r="B846" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D846" s="41" t="s">
-        <v>823</v>
+      <c r="D846" s="37" t="s">
+        <v>695</v>
       </c>
       <c r="E846" s="5">
         <v>1</v>
@@ -12132,35 +11897,35 @@
       <c r="E848" s="5">
         <v>3</v>
       </c>
-      <c r="F848" s="41" t="s">
-        <v>817</v>
-      </c>
-      <c r="G848" s="41" t="s">
-        <v>818</v>
+      <c r="F848" s="37" t="s">
+        <v>689</v>
+      </c>
+      <c r="G848" s="37" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="849" spans="1:7">
       <c r="E849" s="5">
         <v>4</v>
       </c>
-      <c r="F849" s="41" t="s">
-        <v>824</v>
-      </c>
-      <c r="G849" s="41" t="s">
-        <v>825</v>
+      <c r="F849" s="37" t="s">
+        <v>696</v>
+      </c>
+      <c r="G849" s="37" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="851" spans="1:7" ht="30">
-      <c r="A851" s="50" t="s">
-        <v>898</v>
-      </c>
-      <c r="B851" s="41" t="s">
+      <c r="A851" s="42" t="s">
+        <v>770</v>
+      </c>
+      <c r="B851" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D851" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="F851" s="47" t="s">
+        <v>700</v>
+      </c>
+      <c r="F851" s="41" t="s">
         <v>97</v>
       </c>
     </row>
@@ -12185,10 +11950,10 @@
         <v>3</v>
       </c>
       <c r="F854" s="3" t="s">
-        <v>829</v>
+        <v>701</v>
       </c>
       <c r="G854" s="3" t="s">
-        <v>830</v>
+        <v>702</v>
       </c>
     </row>
     <row r="855" spans="1:7" ht="30">
@@ -12196,10 +11961,10 @@
         <v>4</v>
       </c>
       <c r="F855" s="3" t="s">
-        <v>831</v>
+        <v>703</v>
       </c>
       <c r="G855" s="3" t="s">
-        <v>832</v>
+        <v>704</v>
       </c>
     </row>
     <row r="856" spans="1:7">
@@ -12207,10 +11972,10 @@
         <v>5</v>
       </c>
       <c r="F856" s="3" t="s">
-        <v>833</v>
+        <v>705</v>
       </c>
       <c r="G856" s="3" t="s">
-        <v>834</v>
+        <v>706</v>
       </c>
     </row>
     <row r="857" spans="1:7">
@@ -12218,23 +11983,23 @@
         <v>6</v>
       </c>
       <c r="F857" s="3" t="s">
-        <v>835</v>
+        <v>707</v>
       </c>
       <c r="G857" s="3" t="s">
-        <v>836</v>
+        <v>708</v>
       </c>
     </row>
     <row r="859" spans="1:7" ht="30">
-      <c r="A859" s="50" t="s">
-        <v>899</v>
-      </c>
-      <c r="B859" s="41" t="s">
+      <c r="A859" s="42" t="s">
+        <v>771</v>
+      </c>
+      <c r="B859" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D859" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="F859" s="47" t="s">
+        <v>709</v>
+      </c>
+      <c r="F859" s="41" t="s">
         <v>97</v>
       </c>
     </row>
@@ -12259,10 +12024,10 @@
         <v>3</v>
       </c>
       <c r="F862" s="3" t="s">
-        <v>829</v>
+        <v>701</v>
       </c>
       <c r="G862" s="3" t="s">
-        <v>830</v>
+        <v>702</v>
       </c>
     </row>
     <row r="863" spans="1:7" ht="30">
@@ -12270,10 +12035,10 @@
         <v>4</v>
       </c>
       <c r="F863" s="3" t="s">
-        <v>831</v>
+        <v>703</v>
       </c>
       <c r="G863" s="3" t="s">
-        <v>832</v>
+        <v>704</v>
       </c>
     </row>
     <row r="864" spans="1:7">
@@ -12281,10 +12046,10 @@
         <v>5</v>
       </c>
       <c r="F864" s="3" t="s">
-        <v>833</v>
+        <v>705</v>
       </c>
       <c r="G864" s="3" t="s">
-        <v>834</v>
+        <v>706</v>
       </c>
     </row>
     <row r="865" spans="1:7">
@@ -12292,23 +12057,23 @@
         <v>6</v>
       </c>
       <c r="F865" s="3" t="s">
-        <v>838</v>
+        <v>710</v>
       </c>
       <c r="G865" s="3" t="s">
-        <v>839</v>
+        <v>711</v>
       </c>
     </row>
     <row r="867" spans="1:7" ht="30">
-      <c r="A867" s="50" t="s">
-        <v>900</v>
-      </c>
-      <c r="B867" s="41" t="s">
+      <c r="A867" s="42" t="s">
+        <v>772</v>
+      </c>
+      <c r="B867" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D867" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="F867" s="47" t="s">
+        <v>712</v>
+      </c>
+      <c r="F867" s="41" t="s">
         <v>97</v>
       </c>
     </row>
@@ -12333,10 +12098,10 @@
         <v>3</v>
       </c>
       <c r="F870" s="3" t="s">
-        <v>829</v>
+        <v>701</v>
       </c>
       <c r="G870" s="3" t="s">
-        <v>830</v>
+        <v>702</v>
       </c>
     </row>
     <row r="871" spans="1:7" ht="30">
@@ -12344,10 +12109,10 @@
         <v>4</v>
       </c>
       <c r="F871" s="3" t="s">
-        <v>831</v>
+        <v>703</v>
       </c>
       <c r="G871" s="3" t="s">
-        <v>832</v>
+        <v>704</v>
       </c>
     </row>
     <row r="872" spans="1:7">
@@ -12355,10 +12120,10 @@
         <v>5</v>
       </c>
       <c r="F872" s="3" t="s">
-        <v>833</v>
+        <v>705</v>
       </c>
       <c r="G872" s="3" t="s">
-        <v>834</v>
+        <v>706</v>
       </c>
     </row>
     <row r="873" spans="1:7">
@@ -12366,23 +12131,23 @@
         <v>6</v>
       </c>
       <c r="F873" s="3" t="s">
-        <v>841</v>
+        <v>713</v>
       </c>
       <c r="G873" s="3" t="s">
-        <v>842</v>
+        <v>714</v>
       </c>
     </row>
     <row r="875" spans="1:7" ht="30">
-      <c r="A875" s="50" t="s">
-        <v>901</v>
-      </c>
-      <c r="B875" s="41" t="s">
+      <c r="A875" s="42" t="s">
+        <v>773</v>
+      </c>
+      <c r="B875" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D875" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="F875" s="47" t="s">
+        <v>715</v>
+      </c>
+      <c r="F875" s="41" t="s">
         <v>97</v>
       </c>
     </row>
@@ -12407,10 +12172,10 @@
         <v>3</v>
       </c>
       <c r="F878" s="3" t="s">
-        <v>829</v>
+        <v>701</v>
       </c>
       <c r="G878" s="3" t="s">
-        <v>830</v>
+        <v>702</v>
       </c>
     </row>
     <row r="879" spans="1:7" ht="30">
@@ -12418,10 +12183,10 @@
         <v>4</v>
       </c>
       <c r="F879" s="3" t="s">
-        <v>831</v>
+        <v>703</v>
       </c>
       <c r="G879" s="3" t="s">
-        <v>832</v>
+        <v>704</v>
       </c>
     </row>
     <row r="880" spans="1:7">
@@ -12429,10 +12194,10 @@
         <v>5</v>
       </c>
       <c r="F880" s="3" t="s">
-        <v>833</v>
+        <v>705</v>
       </c>
       <c r="G880" s="3" t="s">
-        <v>834</v>
+        <v>706</v>
       </c>
     </row>
     <row r="881" spans="1:7">
@@ -12440,23 +12205,23 @@
         <v>6</v>
       </c>
       <c r="F881" s="3" t="s">
-        <v>844</v>
+        <v>716</v>
       </c>
       <c r="G881" s="3" t="s">
-        <v>845</v>
+        <v>717</v>
       </c>
     </row>
     <row r="884" spans="1:7" ht="30">
-      <c r="A884" s="51" t="s">
-        <v>902</v>
-      </c>
-      <c r="B884" s="41" t="s">
+      <c r="A884" s="43" t="s">
+        <v>774</v>
+      </c>
+      <c r="B884" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D884" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="F884" s="47" t="s">
+        <v>720</v>
+      </c>
+      <c r="F884" s="41" t="s">
         <v>97</v>
       </c>
     </row>
@@ -12481,10 +12246,10 @@
         <v>3</v>
       </c>
       <c r="F887" s="3" t="s">
-        <v>829</v>
+        <v>701</v>
       </c>
       <c r="G887" s="3" t="s">
-        <v>830</v>
+        <v>702</v>
       </c>
     </row>
     <row r="888" spans="1:7" ht="30">
@@ -12492,10 +12257,10 @@
         <v>4</v>
       </c>
       <c r="F888" s="3" t="s">
-        <v>831</v>
+        <v>703</v>
       </c>
       <c r="G888" s="3" t="s">
-        <v>832</v>
+        <v>704</v>
       </c>
     </row>
     <row r="889" spans="1:7">
@@ -12503,10 +12268,10 @@
         <v>5</v>
       </c>
       <c r="F889" s="3" t="s">
-        <v>846</v>
+        <v>718</v>
       </c>
       <c r="G889" s="3" t="s">
-        <v>847</v>
+        <v>719</v>
       </c>
     </row>
     <row r="890" spans="1:7">
@@ -12514,23 +12279,23 @@
         <v>6</v>
       </c>
       <c r="F890" s="3" t="s">
-        <v>849</v>
+        <v>721</v>
       </c>
       <c r="G890" s="3" t="s">
-        <v>850</v>
+        <v>722</v>
       </c>
     </row>
     <row r="892" spans="1:7" ht="30">
-      <c r="A892" s="51" t="s">
-        <v>903</v>
-      </c>
-      <c r="B892" s="41" t="s">
+      <c r="A892" s="43" t="s">
+        <v>775</v>
+      </c>
+      <c r="B892" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D892" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="F892" s="47" t="s">
+        <v>723</v>
+      </c>
+      <c r="F892" s="41" t="s">
         <v>97</v>
       </c>
     </row>
@@ -12555,10 +12320,10 @@
         <v>3</v>
       </c>
       <c r="F895" s="3" t="s">
-        <v>829</v>
+        <v>701</v>
       </c>
       <c r="G895" s="3" t="s">
-        <v>830</v>
+        <v>702</v>
       </c>
     </row>
     <row r="896" spans="1:7" ht="30">
@@ -12566,10 +12331,10 @@
         <v>4</v>
       </c>
       <c r="F896" s="3" t="s">
-        <v>831</v>
+        <v>703</v>
       </c>
       <c r="G896" s="3" t="s">
-        <v>832</v>
+        <v>704</v>
       </c>
     </row>
     <row r="897" spans="1:7">
@@ -12577,10 +12342,10 @@
         <v>5</v>
       </c>
       <c r="F897" s="3" t="s">
-        <v>852</v>
+        <v>724</v>
       </c>
       <c r="G897" s="3" t="s">
-        <v>853</v>
+        <v>725</v>
       </c>
     </row>
     <row r="898" spans="1:7">
@@ -12588,10 +12353,10 @@
         <v>6</v>
       </c>
       <c r="F898" s="3" t="s">
-        <v>854</v>
+        <v>726</v>
       </c>
       <c r="G898" s="3" t="s">
-        <v>855</v>
+        <v>727</v>
       </c>
     </row>
     <row r="899" spans="1:7">
@@ -12599,10 +12364,10 @@
         <v>7</v>
       </c>
       <c r="F899" s="3" t="s">
-        <v>856</v>
+        <v>728</v>
       </c>
       <c r="G899" s="3" t="s">
-        <v>857</v>
+        <v>729</v>
       </c>
     </row>
     <row r="900" spans="1:7">
@@ -12610,23 +12375,23 @@
         <v>8</v>
       </c>
       <c r="F900" s="3" t="s">
-        <v>858</v>
+        <v>730</v>
       </c>
       <c r="G900" s="3" t="s">
-        <v>859</v>
+        <v>731</v>
       </c>
     </row>
     <row r="902" spans="1:7" ht="30">
-      <c r="A902" s="51" t="s">
-        <v>904</v>
-      </c>
-      <c r="B902" s="41" t="s">
+      <c r="A902" s="43" t="s">
+        <v>776</v>
+      </c>
+      <c r="B902" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D902" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="F902" s="47" t="s">
+        <v>732</v>
+      </c>
+      <c r="F902" s="41" t="s">
         <v>97</v>
       </c>
     </row>
@@ -12651,10 +12416,10 @@
         <v>3</v>
       </c>
       <c r="F905" s="3" t="s">
-        <v>829</v>
+        <v>701</v>
       </c>
       <c r="G905" s="3" t="s">
-        <v>830</v>
+        <v>702</v>
       </c>
     </row>
     <row r="906" spans="1:7" ht="30">
@@ -12662,10 +12427,10 @@
         <v>4</v>
       </c>
       <c r="F906" s="3" t="s">
-        <v>831</v>
+        <v>703</v>
       </c>
       <c r="G906" s="3" t="s">
-        <v>832</v>
+        <v>704</v>
       </c>
     </row>
     <row r="907" spans="1:7">
@@ -12673,10 +12438,10 @@
         <v>5</v>
       </c>
       <c r="F907" s="3" t="s">
-        <v>852</v>
+        <v>724</v>
       </c>
       <c r="G907" s="3" t="s">
-        <v>853</v>
+        <v>725</v>
       </c>
     </row>
     <row r="908" spans="1:7">
@@ -12684,10 +12449,10 @@
         <v>6</v>
       </c>
       <c r="F908" s="3" t="s">
-        <v>861</v>
+        <v>733</v>
       </c>
       <c r="G908" s="3" t="s">
-        <v>862</v>
+        <v>734</v>
       </c>
     </row>
     <row r="909" spans="1:7">
@@ -12695,7 +12460,7 @@
         <v>7</v>
       </c>
       <c r="F909" s="3" t="s">
-        <v>863</v>
+        <v>735</v>
       </c>
     </row>
     <row r="910" spans="1:7">
@@ -12703,23 +12468,23 @@
         <v>8</v>
       </c>
       <c r="F910" s="3" t="s">
-        <v>864</v>
+        <v>736</v>
       </c>
       <c r="G910" s="3" t="s">
-        <v>865</v>
+        <v>737</v>
       </c>
     </row>
     <row r="912" spans="1:7" ht="30">
-      <c r="A912" s="51" t="s">
-        <v>905</v>
-      </c>
-      <c r="B912" s="41" t="s">
+      <c r="A912" s="43" t="s">
+        <v>777</v>
+      </c>
+      <c r="B912" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D912" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="F912" s="47" t="s">
+        <v>738</v>
+      </c>
+      <c r="F912" s="41" t="s">
         <v>97</v>
       </c>
     </row>
@@ -12744,10 +12509,10 @@
         <v>3</v>
       </c>
       <c r="F915" s="3" t="s">
-        <v>829</v>
+        <v>701</v>
       </c>
       <c r="G915" s="3" t="s">
-        <v>830</v>
+        <v>702</v>
       </c>
     </row>
     <row r="916" spans="1:7" ht="30">
@@ -12755,10 +12520,10 @@
         <v>4</v>
       </c>
       <c r="F916" s="3" t="s">
-        <v>831</v>
+        <v>703</v>
       </c>
       <c r="G916" s="3" t="s">
-        <v>832</v>
+        <v>704</v>
       </c>
     </row>
     <row r="917" spans="1:7">
@@ -12766,10 +12531,10 @@
         <v>5</v>
       </c>
       <c r="F917" s="3" t="s">
-        <v>852</v>
+        <v>724</v>
       </c>
       <c r="G917" s="3" t="s">
-        <v>853</v>
+        <v>725</v>
       </c>
     </row>
     <row r="918" spans="1:7">
@@ -12777,10 +12542,10 @@
         <v>6</v>
       </c>
       <c r="F918" s="3" t="s">
-        <v>867</v>
+        <v>739</v>
       </c>
       <c r="G918" s="3" t="s">
-        <v>855</v>
+        <v>727</v>
       </c>
     </row>
     <row r="919" spans="1:7">
@@ -12788,7 +12553,7 @@
         <v>7</v>
       </c>
       <c r="F919" s="3" t="s">
-        <v>868</v>
+        <v>740</v>
       </c>
     </row>
     <row r="920" spans="1:7">
@@ -12796,7 +12561,7 @@
         <v>8</v>
       </c>
       <c r="F920" s="3" t="s">
-        <v>869</v>
+        <v>741</v>
       </c>
     </row>
     <row r="921" spans="1:7">
@@ -12807,20 +12572,20 @@
         <v>58</v>
       </c>
       <c r="G921" s="3" t="s">
-        <v>859</v>
+        <v>731</v>
       </c>
     </row>
     <row r="923" spans="1:7" ht="30">
-      <c r="A923" s="51" t="s">
-        <v>906</v>
-      </c>
-      <c r="B923" s="41" t="s">
+      <c r="A923" s="43" t="s">
+        <v>778</v>
+      </c>
+      <c r="B923" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D923" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="F923" s="47" t="s">
+        <v>750</v>
+      </c>
+      <c r="F923" s="41" t="s">
         <v>97</v>
       </c>
     </row>
@@ -12845,10 +12610,10 @@
         <v>3</v>
       </c>
       <c r="F926" s="3" t="s">
-        <v>829</v>
+        <v>701</v>
       </c>
       <c r="G926" s="3" t="s">
-        <v>830</v>
+        <v>702</v>
       </c>
     </row>
     <row r="927" spans="1:7" ht="90">
@@ -12856,10 +12621,10 @@
         <v>4</v>
       </c>
       <c r="F927" s="3" t="s">
-        <v>870</v>
+        <v>742</v>
       </c>
       <c r="G927" s="3" t="s">
-        <v>871</v>
+        <v>743</v>
       </c>
     </row>
     <row r="928" spans="1:7">
@@ -12867,7 +12632,7 @@
         <v>5</v>
       </c>
       <c r="F928" s="3" t="s">
-        <v>872</v>
+        <v>744</v>
       </c>
     </row>
     <row r="929" spans="1:7">
@@ -12875,10 +12640,10 @@
         <v>6</v>
       </c>
       <c r="F929" s="3" t="s">
-        <v>873</v>
+        <v>745</v>
       </c>
       <c r="G929" s="3" t="s">
-        <v>874</v>
+        <v>746</v>
       </c>
     </row>
     <row r="930" spans="1:7">
@@ -12886,10 +12651,10 @@
         <v>7</v>
       </c>
       <c r="F930" s="3" t="s">
-        <v>875</v>
+        <v>747</v>
       </c>
       <c r="G930" s="3" t="s">
-        <v>876</v>
+        <v>748</v>
       </c>
     </row>
     <row r="931" spans="1:7">
@@ -12897,7 +12662,7 @@
         <v>8</v>
       </c>
       <c r="F931" s="3" t="s">
-        <v>877</v>
+        <v>749</v>
       </c>
     </row>
     <row r="932" spans="1:7">
@@ -12905,23 +12670,23 @@
         <v>9</v>
       </c>
       <c r="F932" s="3" t="s">
-        <v>662</v>
+        <v>594</v>
       </c>
       <c r="G932" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="934" spans="1:7" ht="30">
-      <c r="A934" s="51" t="s">
-        <v>907</v>
-      </c>
-      <c r="B934" s="41" t="s">
+      <c r="A934" s="43" t="s">
+        <v>779</v>
+      </c>
+      <c r="B934" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D934" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="F934" s="47" t="s">
+        <v>751</v>
+      </c>
+      <c r="F934" s="41" t="s">
         <v>97</v>
       </c>
     </row>
@@ -12946,10 +12711,10 @@
         <v>3</v>
       </c>
       <c r="F937" s="3" t="s">
-        <v>829</v>
+        <v>701</v>
       </c>
       <c r="G937" s="3" t="s">
-        <v>830</v>
+        <v>702</v>
       </c>
     </row>
     <row r="938" spans="1:7" ht="90">
@@ -12957,10 +12722,10 @@
         <v>4</v>
       </c>
       <c r="F938" s="3" t="s">
-        <v>870</v>
+        <v>742</v>
       </c>
       <c r="G938" s="3" t="s">
-        <v>871</v>
+        <v>743</v>
       </c>
     </row>
     <row r="939" spans="1:7">
@@ -12968,7 +12733,7 @@
         <v>5</v>
       </c>
       <c r="F939" s="3" t="s">
-        <v>872</v>
+        <v>744</v>
       </c>
     </row>
     <row r="940" spans="1:7">
@@ -12976,10 +12741,10 @@
         <v>6</v>
       </c>
       <c r="F940" s="3" t="s">
-        <v>873</v>
+        <v>745</v>
       </c>
       <c r="G940" s="3" t="s">
-        <v>874</v>
+        <v>746</v>
       </c>
     </row>
     <row r="941" spans="1:7">
@@ -12987,10 +12752,10 @@
         <v>7</v>
       </c>
       <c r="F941" s="3" t="s">
-        <v>875</v>
+        <v>747</v>
       </c>
       <c r="G941" s="3" t="s">
-        <v>876</v>
+        <v>748</v>
       </c>
     </row>
     <row r="942" spans="1:7">
@@ -12998,10 +12763,10 @@
         <v>8</v>
       </c>
       <c r="F942" s="3" t="s">
-        <v>880</v>
+        <v>752</v>
       </c>
       <c r="G942" s="3" t="s">
-        <v>881</v>
+        <v>753</v>
       </c>
     </row>
     <row r="943" spans="1:7">
@@ -13009,23 +12774,23 @@
         <v>9</v>
       </c>
       <c r="F943" s="3" t="s">
-        <v>662</v>
+        <v>594</v>
       </c>
       <c r="G943" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="945" spans="1:7">
-      <c r="A945" s="51" t="s">
-        <v>908</v>
-      </c>
-      <c r="B945" s="41" t="s">
+      <c r="A945" s="43" t="s">
+        <v>780</v>
+      </c>
+      <c r="B945" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D945" s="5" t="s">
-        <v>882</v>
-      </c>
-      <c r="F945" s="47" t="s">
+        <v>754</v>
+      </c>
+      <c r="F945" s="41" t="s">
         <v>97</v>
       </c>
     </row>
@@ -13050,10 +12815,10 @@
         <v>3</v>
       </c>
       <c r="F948" s="3" t="s">
-        <v>829</v>
+        <v>701</v>
       </c>
       <c r="G948" s="3" t="s">
-        <v>830</v>
+        <v>702</v>
       </c>
     </row>
     <row r="949" spans="1:7" ht="90">
@@ -13061,10 +12826,10 @@
         <v>4</v>
       </c>
       <c r="F949" s="3" t="s">
-        <v>870</v>
+        <v>742</v>
       </c>
       <c r="G949" s="3" t="s">
-        <v>871</v>
+        <v>743</v>
       </c>
     </row>
     <row r="950" spans="1:7">
@@ -13072,10 +12837,10 @@
         <v>5</v>
       </c>
       <c r="F950" s="3" t="s">
-        <v>883</v>
+        <v>755</v>
       </c>
       <c r="G950" s="3" t="s">
-        <v>884</v>
+        <v>756</v>
       </c>
     </row>
     <row r="951" spans="1:7">
@@ -13083,23 +12848,23 @@
         <v>6</v>
       </c>
       <c r="F951" s="3" t="s">
-        <v>885</v>
+        <v>757</v>
       </c>
       <c r="G951" s="3" t="s">
-        <v>886</v>
+        <v>758</v>
       </c>
     </row>
     <row r="953" spans="1:7" ht="30">
-      <c r="A953" s="53" t="s">
-        <v>909</v>
-      </c>
-      <c r="B953" s="41" t="s">
+      <c r="A953" s="45" t="s">
+        <v>781</v>
+      </c>
+      <c r="B953" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D953" s="3" t="s">
-        <v>887</v>
-      </c>
-      <c r="F953" s="47" t="s">
+        <v>759</v>
+      </c>
+      <c r="F953" s="41" t="s">
         <v>97</v>
       </c>
     </row>
@@ -13124,10 +12889,10 @@
         <v>3</v>
       </c>
       <c r="F956" s="3" t="s">
-        <v>829</v>
+        <v>701</v>
       </c>
       <c r="G956" s="3" t="s">
-        <v>830</v>
+        <v>702</v>
       </c>
     </row>
     <row r="957" spans="1:7" ht="90">
@@ -13135,10 +12900,10 @@
         <v>4</v>
       </c>
       <c r="F957" s="3" t="s">
-        <v>870</v>
+        <v>742</v>
       </c>
       <c r="G957" s="3" t="s">
-        <v>871</v>
+        <v>743</v>
       </c>
     </row>
     <row r="958" spans="1:7">
@@ -13146,10 +12911,10 @@
         <v>5</v>
       </c>
       <c r="F958" s="3" t="s">
-        <v>888</v>
+        <v>760</v>
       </c>
       <c r="G958" s="3" t="s">
-        <v>889</v>
+        <v>761</v>
       </c>
     </row>
     <row r="959" spans="1:7">
@@ -13157,10 +12922,10 @@
         <v>6</v>
       </c>
       <c r="F959" s="3" t="s">
-        <v>890</v>
+        <v>762</v>
       </c>
       <c r="G959" s="3" t="s">
-        <v>891</v>
+        <v>763</v>
       </c>
     </row>
     <row r="960" spans="1:7">
@@ -13168,7 +12933,7 @@
         <v>7</v>
       </c>
       <c r="F960" s="3" t="s">
-        <v>892</v>
+        <v>764</v>
       </c>
     </row>
     <row r="961" spans="1:7">
@@ -13176,24 +12941,24 @@
         <v>8</v>
       </c>
       <c r="F961" s="3" t="s">
-        <v>893</v>
+        <v>765</v>
       </c>
       <c r="G961" s="3" t="s">
-        <v>894</v>
+        <v>766</v>
       </c>
     </row>
     <row r="963" spans="1:7" ht="30">
-      <c r="A963" s="53" t="s">
-        <v>959</v>
-      </c>
-      <c r="B963" s="41" t="s">
+      <c r="A963" s="45" t="s">
+        <v>830</v>
+      </c>
+      <c r="B963" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D963" s="3" t="s">
-        <v>912</v>
+        <v>784</v>
       </c>
       <c r="F963" s="3" t="s">
-        <v>913</v>
+        <v>785</v>
       </c>
     </row>
     <row r="964" spans="1:7">
@@ -13217,10 +12982,10 @@
         <v>3</v>
       </c>
       <c r="F966" s="3" t="s">
-        <v>914</v>
+        <v>786</v>
       </c>
       <c r="G966" s="3" t="s">
-        <v>915</v>
+        <v>787</v>
       </c>
     </row>
     <row r="967" spans="1:7">
@@ -13228,7 +12993,7 @@
         <v>4</v>
       </c>
       <c r="F967" s="3" t="s">
-        <v>916</v>
+        <v>788</v>
       </c>
     </row>
     <row r="968" spans="1:7">
@@ -13236,10 +13001,10 @@
         <v>5</v>
       </c>
       <c r="F968" s="3" t="s">
-        <v>917</v>
+        <v>789</v>
       </c>
       <c r="G968" s="3" t="s">
-        <v>918</v>
+        <v>790</v>
       </c>
     </row>
     <row r="969" spans="1:7">
@@ -13247,7 +13012,7 @@
         <v>6</v>
       </c>
       <c r="F969" s="3" t="s">
-        <v>919</v>
+        <v>791</v>
       </c>
     </row>
     <row r="970" spans="1:7">
@@ -13255,7 +13020,7 @@
         <v>7</v>
       </c>
       <c r="F970" s="3" t="s">
-        <v>920</v>
+        <v>792</v>
       </c>
     </row>
     <row r="971" spans="1:7">
@@ -13263,10 +13028,10 @@
         <v>8</v>
       </c>
       <c r="F971" s="3" t="s">
-        <v>922</v>
+        <v>794</v>
       </c>
       <c r="G971" s="3" t="s">
-        <v>921</v>
+        <v>793</v>
       </c>
     </row>
     <row r="972" spans="1:7">
@@ -13274,10 +13039,10 @@
         <v>9</v>
       </c>
       <c r="F972" s="3" t="s">
-        <v>923</v>
+        <v>795</v>
       </c>
       <c r="G972" s="3" t="s">
-        <v>924</v>
+        <v>796</v>
       </c>
     </row>
     <row r="973" spans="1:7">
@@ -13285,10 +13050,10 @@
         <v>10</v>
       </c>
       <c r="F973" s="3" t="s">
-        <v>925</v>
+        <v>797</v>
       </c>
       <c r="G973" s="3" t="s">
-        <v>926</v>
+        <v>798</v>
       </c>
     </row>
     <row r="974" spans="1:7">
@@ -13296,24 +13061,24 @@
         <v>11</v>
       </c>
       <c r="F974" s="3" t="s">
-        <v>662</v>
+        <v>594</v>
       </c>
       <c r="G974" s="3" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="976" spans="1:7" ht="30">
-      <c r="A976" s="53" t="s">
-        <v>960</v>
-      </c>
-      <c r="B976" s="41" t="s">
+      <c r="A976" s="45" t="s">
+        <v>831</v>
+      </c>
+      <c r="B976" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D976" s="3" t="s">
-        <v>927</v>
+        <v>799</v>
       </c>
       <c r="F976" s="3" t="s">
-        <v>928</v>
+        <v>800</v>
       </c>
     </row>
     <row r="977" spans="1:7">
@@ -13337,10 +13102,10 @@
         <v>3</v>
       </c>
       <c r="F979" s="3" t="s">
-        <v>914</v>
+        <v>786</v>
       </c>
       <c r="G979" s="3" t="s">
-        <v>915</v>
+        <v>787</v>
       </c>
     </row>
     <row r="980" spans="1:7">
@@ -13351,7 +13116,7 @@
         <v>410</v>
       </c>
       <c r="G980" s="3" t="s">
-        <v>929</v>
+        <v>801</v>
       </c>
     </row>
     <row r="981" spans="1:7" ht="30">
@@ -13359,10 +13124,10 @@
         <v>5</v>
       </c>
       <c r="F981" s="3" t="s">
-        <v>930</v>
+        <v>802</v>
       </c>
       <c r="G981" s="3" t="s">
-        <v>931</v>
+        <v>803</v>
       </c>
     </row>
     <row r="982" spans="1:7">
@@ -13370,24 +13135,24 @@
         <v>6</v>
       </c>
       <c r="F982" s="3" t="s">
-        <v>932</v>
+        <v>804</v>
       </c>
       <c r="G982" s="3" t="s">
-        <v>933</v>
+        <v>805</v>
       </c>
     </row>
     <row r="984" spans="1:7" ht="30">
-      <c r="A984" s="53" t="s">
-        <v>961</v>
-      </c>
-      <c r="B984" s="41" t="s">
+      <c r="A984" s="45" t="s">
+        <v>832</v>
+      </c>
+      <c r="B984" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D984" s="3" t="s">
-        <v>934</v>
+        <v>806</v>
       </c>
       <c r="F984" s="3" t="s">
-        <v>928</v>
+        <v>800</v>
       </c>
     </row>
     <row r="985" spans="1:7">
@@ -13411,10 +13176,10 @@
         <v>3</v>
       </c>
       <c r="F987" s="3" t="s">
-        <v>914</v>
+        <v>786</v>
       </c>
       <c r="G987" s="3" t="s">
-        <v>915</v>
+        <v>787</v>
       </c>
     </row>
     <row r="988" spans="1:7">
@@ -13425,7 +13190,7 @@
         <v>410</v>
       </c>
       <c r="G988" s="3" t="s">
-        <v>929</v>
+        <v>801</v>
       </c>
     </row>
     <row r="989" spans="1:7" ht="30">
@@ -13433,10 +13198,10 @@
         <v>5</v>
       </c>
       <c r="F989" s="3" t="s">
-        <v>930</v>
+        <v>802</v>
       </c>
       <c r="G989" s="3" t="s">
-        <v>931</v>
+        <v>803</v>
       </c>
     </row>
     <row r="990" spans="1:7">
@@ -13444,10 +13209,10 @@
         <v>6</v>
       </c>
       <c r="F990" s="3" t="s">
-        <v>932</v>
+        <v>804</v>
       </c>
       <c r="G990" s="3" t="s">
-        <v>933</v>
+        <v>805</v>
       </c>
     </row>
     <row r="991" spans="1:7">
@@ -13458,7 +13223,7 @@
         <v>207</v>
       </c>
       <c r="G991" s="3" t="s">
-        <v>646</v>
+        <v>578</v>
       </c>
     </row>
     <row r="992" spans="1:7">
@@ -13466,10 +13231,10 @@
         <v>8</v>
       </c>
       <c r="F992" s="3" t="s">
-        <v>623</v>
+        <v>555</v>
       </c>
       <c r="G992" s="3" t="s">
-        <v>938</v>
+        <v>809</v>
       </c>
     </row>
     <row r="993" spans="1:7">
@@ -13477,24 +13242,24 @@
         <v>9</v>
       </c>
       <c r="F993" s="3" t="s">
-        <v>939</v>
+        <v>810</v>
       </c>
       <c r="G993" s="3" t="s">
-        <v>940</v>
+        <v>811</v>
       </c>
     </row>
     <row r="995" spans="1:7" ht="30">
-      <c r="A995" s="53" t="s">
-        <v>962</v>
-      </c>
-      <c r="B995" s="41" t="s">
+      <c r="A995" s="45" t="s">
+        <v>833</v>
+      </c>
+      <c r="B995" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D995" s="3" t="s">
-        <v>935</v>
+        <v>807</v>
       </c>
       <c r="F995" s="3" t="s">
-        <v>928</v>
+        <v>800</v>
       </c>
     </row>
     <row r="996" spans="1:7">
@@ -13518,10 +13283,10 @@
         <v>3</v>
       </c>
       <c r="F998" s="3" t="s">
-        <v>914</v>
+        <v>786</v>
       </c>
       <c r="G998" s="3" t="s">
-        <v>915</v>
+        <v>787</v>
       </c>
     </row>
     <row r="999" spans="1:7">
@@ -13532,7 +13297,7 @@
         <v>410</v>
       </c>
       <c r="G999" s="3" t="s">
-        <v>929</v>
+        <v>801</v>
       </c>
     </row>
     <row r="1000" spans="1:7" ht="30">
@@ -13540,10 +13305,10 @@
         <v>5</v>
       </c>
       <c r="F1000" s="3" t="s">
-        <v>930</v>
+        <v>802</v>
       </c>
       <c r="G1000" s="3" t="s">
-        <v>931</v>
+        <v>803</v>
       </c>
     </row>
     <row r="1001" spans="1:7">
@@ -13551,10 +13316,10 @@
         <v>6</v>
       </c>
       <c r="F1001" s="3" t="s">
-        <v>932</v>
+        <v>804</v>
       </c>
       <c r="G1001" s="3" t="s">
-        <v>933</v>
+        <v>805</v>
       </c>
     </row>
     <row r="1002" spans="1:7">
@@ -13562,24 +13327,24 @@
         <v>7</v>
       </c>
       <c r="F1002" s="3" t="s">
-        <v>849</v>
+        <v>721</v>
       </c>
       <c r="G1002" s="3" t="s">
-        <v>941</v>
+        <v>812</v>
       </c>
     </row>
     <row r="1004" spans="1:7" ht="30">
-      <c r="A1004" s="53" t="s">
-        <v>963</v>
-      </c>
-      <c r="B1004" s="41" t="s">
+      <c r="A1004" s="45" t="s">
+        <v>834</v>
+      </c>
+      <c r="B1004" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D1004" s="3" t="s">
-        <v>936</v>
+        <v>808</v>
       </c>
       <c r="F1004" s="3" t="s">
-        <v>928</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1005" spans="1:7">
@@ -13603,10 +13368,10 @@
         <v>3</v>
       </c>
       <c r="F1007" s="3" t="s">
-        <v>942</v>
+        <v>813</v>
       </c>
       <c r="G1007" s="3" t="s">
-        <v>943</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1008" spans="1:7">
@@ -13614,7 +13379,7 @@
         <v>4</v>
       </c>
       <c r="F1008" s="3" t="s">
-        <v>944</v>
+        <v>815</v>
       </c>
       <c r="G1008" s="3" t="s">
         <v>152</v>
@@ -13625,24 +13390,24 @@
         <v>5</v>
       </c>
       <c r="F1009" s="3" t="s">
-        <v>945</v>
+        <v>816</v>
       </c>
       <c r="G1009" s="3" t="s">
-        <v>946</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1011" spans="1:7" ht="30">
-      <c r="A1011" s="53" t="s">
-        <v>964</v>
-      </c>
-      <c r="B1011" s="41" t="s">
+      <c r="A1011" s="45" t="s">
+        <v>835</v>
+      </c>
+      <c r="B1011" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D1011" s="3" t="s">
-        <v>736</v>
+        <v>861</v>
       </c>
       <c r="F1011" s="3" t="s">
-        <v>928</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1012" spans="1:7">
@@ -13666,10 +13431,10 @@
         <v>3</v>
       </c>
       <c r="F1014" s="3" t="s">
-        <v>947</v>
+        <v>818</v>
       </c>
       <c r="G1014" s="3" t="s">
-        <v>948</v>
+        <v>819</v>
       </c>
     </row>
     <row r="1015" spans="1:7">
@@ -13677,7 +13442,7 @@
         <v>4</v>
       </c>
       <c r="F1015" s="3" t="s">
-        <v>949</v>
+        <v>820</v>
       </c>
     </row>
     <row r="1016" spans="1:7">
@@ -13685,24 +13450,24 @@
         <v>5</v>
       </c>
       <c r="F1016" s="3" t="s">
-        <v>950</v>
+        <v>821</v>
       </c>
       <c r="G1016" s="3" t="s">
-        <v>951</v>
+        <v>822</v>
       </c>
     </row>
     <row r="1018" spans="1:7" ht="30">
-      <c r="A1018" s="53" t="s">
-        <v>965</v>
-      </c>
-      <c r="B1018" s="41" t="s">
+      <c r="A1018" s="45" t="s">
+        <v>836</v>
+      </c>
+      <c r="B1018" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D1018" s="3" t="s">
-        <v>735</v>
+        <v>862</v>
       </c>
       <c r="F1018" s="3" t="s">
-        <v>928</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1019" spans="1:7">
@@ -13726,10 +13491,10 @@
         <v>3</v>
       </c>
       <c r="F1021" s="3" t="s">
-        <v>947</v>
+        <v>818</v>
       </c>
       <c r="G1021" s="3" t="s">
-        <v>948</v>
+        <v>819</v>
       </c>
     </row>
     <row r="1022" spans="1:7">
@@ -13737,7 +13502,7 @@
         <v>4</v>
       </c>
       <c r="F1022" s="3" t="s">
-        <v>949</v>
+        <v>820</v>
       </c>
     </row>
     <row r="1023" spans="1:7">
@@ -13745,24 +13510,24 @@
         <v>5</v>
       </c>
       <c r="F1023" s="3" t="s">
-        <v>952</v>
+        <v>823</v>
       </c>
       <c r="G1023" s="3" t="s">
-        <v>953</v>
+        <v>824</v>
       </c>
     </row>
     <row r="1025" spans="1:7" ht="30">
-      <c r="A1025" s="53" t="s">
-        <v>966</v>
-      </c>
-      <c r="B1025" s="41" t="s">
+      <c r="A1025" s="45" t="s">
+        <v>837</v>
+      </c>
+      <c r="B1025" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D1025" s="5" t="s">
-        <v>937</v>
+      <c r="D1025" s="3" t="s">
+        <v>863</v>
       </c>
       <c r="F1025" s="3" t="s">
-        <v>928</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1026" spans="1:7">
@@ -13786,10 +13551,10 @@
         <v>3</v>
       </c>
       <c r="F1028" s="3" t="s">
-        <v>954</v>
+        <v>825</v>
       </c>
       <c r="G1028" s="3" t="s">
-        <v>955</v>
+        <v>826</v>
       </c>
     </row>
     <row r="1029" spans="1:7">
@@ -13797,7 +13562,7 @@
         <v>4</v>
       </c>
       <c r="F1029" s="3" t="s">
-        <v>956</v>
+        <v>827</v>
       </c>
     </row>
     <row r="1030" spans="1:7">
@@ -13805,10 +13570,409 @@
         <v>5</v>
       </c>
       <c r="F1030" s="3" t="s">
-        <v>957</v>
+        <v>828</v>
       </c>
       <c r="G1030" s="3" t="s">
-        <v>958</v>
+        <v>829</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:7" ht="30">
+      <c r="A1032" s="55" t="s">
+        <v>849</v>
+      </c>
+      <c r="B1032" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1032" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="F1032" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:7">
+      <c r="E1033" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1033" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:7">
+      <c r="E1034" s="5">
+        <v>2</v>
+      </c>
+      <c r="F1034" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:7" ht="75">
+      <c r="E1035" s="5">
+        <v>3</v>
+      </c>
+      <c r="F1035" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1035" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:7" ht="72" customHeight="1">
+      <c r="E1036" s="5">
+        <v>4</v>
+      </c>
+      <c r="F1036" s="56" t="s">
+        <v>851</v>
+      </c>
+      <c r="G1036" s="56" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:7">
+      <c r="E1037" s="5">
+        <v>5</v>
+      </c>
+      <c r="F1037" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="G1037" s="56" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:7">
+      <c r="F1038" s="26"/>
+      <c r="G1038" s="26"/>
+    </row>
+    <row r="1039" spans="1:7" ht="30">
+      <c r="A1039" s="55" t="s">
+        <v>855</v>
+      </c>
+      <c r="B1039" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1039" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="F1039" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:7">
+      <c r="E1040" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1040" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:8">
+      <c r="E1041" s="5">
+        <v>2</v>
+      </c>
+      <c r="F1041" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:8" ht="75">
+      <c r="E1042" s="5">
+        <v>3</v>
+      </c>
+      <c r="F1042" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1042" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:8" ht="30">
+      <c r="E1043" s="5">
+        <v>4</v>
+      </c>
+      <c r="F1043" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="G1043" s="3" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:8" ht="30">
+      <c r="A1045" s="55" t="s">
+        <v>859</v>
+      </c>
+      <c r="B1045" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1045" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="E1045" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1045" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1045" s="31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:8">
+      <c r="E1046" s="5">
+        <v>2</v>
+      </c>
+      <c r="F1046" s="29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:8" ht="30">
+      <c r="E1047" s="5">
+        <v>3</v>
+      </c>
+      <c r="F1047" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="G1047" s="34" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:8" ht="45">
+      <c r="E1048" s="33">
+        <v>4</v>
+      </c>
+      <c r="F1048" s="34" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:8">
+      <c r="E1049" s="5">
+        <v>5</v>
+      </c>
+      <c r="F1049" s="56" t="s">
+        <v>651</v>
+      </c>
+      <c r="G1049" s="56" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:8">
+      <c r="E1050" s="5">
+        <v>6</v>
+      </c>
+      <c r="F1050" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1050" s="3" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:8" ht="45">
+      <c r="A1052" s="55" t="s">
+        <v>864</v>
+      </c>
+      <c r="B1052" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1052" s="56" t="s">
+        <v>865</v>
+      </c>
+      <c r="E1052" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1052" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1052" s="31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:8">
+      <c r="E1053" s="5">
+        <v>2</v>
+      </c>
+      <c r="F1053" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:8" ht="75">
+      <c r="E1054" s="5">
+        <v>3</v>
+      </c>
+      <c r="F1054" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1054" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:8" ht="30">
+      <c r="E1055" s="5">
+        <v>4</v>
+      </c>
+      <c r="F1055" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="G1055" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:8" ht="30">
+      <c r="A1057" s="55" t="s">
+        <v>868</v>
+      </c>
+      <c r="B1057" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1057" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E1057" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1057" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1057" s="31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:8">
+      <c r="E1058" s="5">
+        <v>2</v>
+      </c>
+      <c r="F1058" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:8" ht="75">
+      <c r="E1059" s="5">
+        <v>3</v>
+      </c>
+      <c r="F1059" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1059" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:8">
+      <c r="E1060" s="5">
+        <v>4</v>
+      </c>
+      <c r="F1060" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="G1060" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:8" ht="30">
+      <c r="A1062" s="55" t="s">
+        <v>872</v>
+      </c>
+      <c r="B1062" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1062" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="E1062" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1062" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1062" s="31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:8">
+      <c r="E1063" s="5">
+        <v>2</v>
+      </c>
+      <c r="F1063" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:8" ht="75">
+      <c r="E1064" s="5">
+        <v>3</v>
+      </c>
+      <c r="F1064" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1064" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:8" ht="30">
+      <c r="E1065" s="5">
+        <v>5</v>
+      </c>
+      <c r="F1065" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="G1065" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:8" ht="30">
+      <c r="E1066" s="5">
+        <v>6</v>
+      </c>
+      <c r="F1066" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="G1066" s="3" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:8" ht="30">
+      <c r="A1068" s="55" t="s">
+        <v>878</v>
+      </c>
+      <c r="B1068" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1068" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="E1068" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1068" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1068" s="31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:8">
+      <c r="E1069" s="5">
+        <v>2</v>
+      </c>
+      <c r="F1069" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:8" ht="105">
+      <c r="E1070" s="5">
+        <v>3</v>
+      </c>
+      <c r="F1070" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="G1070" s="3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:8">
+      <c r="E1071" s="5">
+        <v>4</v>
+      </c>
+      <c r="F1071" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="G1071" s="3" t="s">
+        <v>883</v>
       </c>
     </row>
   </sheetData>
@@ -13817,16 +13981,16 @@
     <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43:C48 C51:C57 C60:C117 C120 C129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43:C48 C129 C120 C60:C117 C51:C57">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C49:C50 J2:J11 C2:C42 C58:C59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C49:C50 C58:C59 C2:C42 J2:J11">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12:J75">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B8 B2:B4 B10:B11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B8 B10:B11 B2:B4">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K121">
@@ -13885,1134 +14049,103 @@
     <hyperlink ref="H509" r:id="rId49"/>
     <hyperlink ref="H517" r:id="rId50"/>
     <hyperlink ref="H523" r:id="rId51"/>
+    <hyperlink ref="H1045" r:id="rId52"/>
+    <hyperlink ref="H1052" r:id="rId53"/>
+    <hyperlink ref="H1057" r:id="rId54"/>
+    <hyperlink ref="H1062" r:id="rId55"/>
+    <hyperlink ref="H1068" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId52"/>
+  <pageSetup orientation="portrait" r:id="rId57"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D177"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="C175" sqref="C175"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="38" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3">
-      <c r="B2" s="36" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>494</v>
       </c>
-      <c r="C2" s="44" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="36" t="s">
-        <v>495</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="36"/>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="35"/>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="37" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="36" t="s">
-        <v>497</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="36" t="s">
-        <v>498</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="36" t="s">
-        <v>499</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="36" t="s">
-        <v>500</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="44" t="s">
-        <v>738</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="44" t="s">
-        <v>748</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="44" t="s">
-        <v>749</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="37" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="36" t="s">
-        <v>497</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="36" t="s">
-        <v>502</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="44" t="s">
-        <v>750</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="36" t="s">
-        <v>503</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="36" t="s">
-        <v>504</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="36" t="s">
-        <v>505</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="36" t="s">
-        <v>506</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="36" t="s">
-        <v>507</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="36" t="s">
-        <v>508</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="36" t="s">
-        <v>509</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="36" t="s">
-        <v>510</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C27" s="48" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="C28" s="48" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="36" t="s">
-        <v>513</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="36" t="s">
-        <v>514</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="36" t="s">
-        <v>515</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="36" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="36" t="s">
-        <v>517</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="36" t="s">
-        <v>518</v>
-      </c>
-      <c r="C35" s="48" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="36" t="s">
-        <v>519</v>
-      </c>
-      <c r="C36" s="48" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="36" t="s">
-        <v>520</v>
-      </c>
-      <c r="C37" s="48" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="36" t="s">
-        <v>521</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="36" t="s">
-        <v>522</v>
-      </c>
-      <c r="C39" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="36" t="s">
-        <v>523</v>
-      </c>
-      <c r="C40" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="36" t="s">
-        <v>524</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="36" t="s">
-        <v>525</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="36" t="s">
-        <v>526</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="36" t="s">
-        <v>527</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="36" t="s">
-        <v>528</v>
-      </c>
-      <c r="C46" s="49" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="36" t="s">
-        <v>529</v>
-      </c>
-      <c r="C47" s="49" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48" s="36" t="s">
-        <v>530</v>
-      </c>
-      <c r="C48" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="36" t="s">
-        <v>531</v>
-      </c>
-      <c r="C49" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="36" t="s">
-        <v>532</v>
-      </c>
-      <c r="C50" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51" s="36" t="s">
-        <v>533</v>
-      </c>
-      <c r="C51" s="49" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="B52" s="36" t="s">
-        <v>534</v>
-      </c>
-      <c r="C52" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="B53" s="36" t="s">
-        <v>535</v>
-      </c>
-      <c r="C53" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="B54" s="36" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="B55" s="36" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="36" t="s">
-        <v>538</v>
-      </c>
-      <c r="C56" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="B57" s="36" t="s">
-        <v>539</v>
-      </c>
-      <c r="C57" s="49" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="36" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="36" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="B61" s="37" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="36" t="s">
-        <v>543</v>
-      </c>
-      <c r="C62" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="36" t="s">
-        <v>544</v>
-      </c>
-      <c r="C63" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="C64" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="B65" s="36" t="s">
-        <v>499</v>
-      </c>
-      <c r="C65" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4">
-      <c r="B66" s="45" t="s">
-        <v>497</v>
-      </c>
-      <c r="C66" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4">
-      <c r="B67" s="46" t="s">
-        <v>693</v>
-      </c>
-      <c r="C67" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4">
-      <c r="B69" s="37" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4">
-      <c r="B70" s="36" t="s">
-        <v>547</v>
-      </c>
-      <c r="C70" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4">
-      <c r="B71" s="36" t="s">
-        <v>548</v>
-      </c>
-      <c r="C71" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4">
-      <c r="B73" s="37" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4">
-      <c r="B74" s="36" t="s">
-        <v>498</v>
-      </c>
-      <c r="C74" s="44" t="s">
-        <v>739</v>
-      </c>
-      <c r="D74" s="44"/>
-    </row>
-    <row r="75" spans="2:4">
-      <c r="B75" s="36" t="s">
-        <v>550</v>
-      </c>
-      <c r="C75" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4">
-      <c r="B76" s="36" t="s">
-        <v>497</v>
-      </c>
-      <c r="C76" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4">
-      <c r="B77" s="36" t="s">
-        <v>551</v>
-      </c>
-      <c r="C77" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4">
-      <c r="B79" s="37" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4">
-      <c r="B80" s="36" t="s">
-        <v>553</v>
-      </c>
-      <c r="C80" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4">
-      <c r="B81" s="36" t="s">
-        <v>554</v>
-      </c>
-      <c r="C81" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4">
-      <c r="B82" s="44" t="s">
-        <v>741</v>
-      </c>
-      <c r="C82" s="44"/>
-    </row>
-    <row r="83" spans="2:4">
-      <c r="B83" s="36" t="s">
-        <v>555</v>
-      </c>
-      <c r="C83" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4">
-      <c r="B84" s="36" t="s">
-        <v>564</v>
-      </c>
-      <c r="C84" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4">
-      <c r="B85" s="44" t="s">
-        <v>742</v>
-      </c>
-      <c r="C85" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4">
-      <c r="B86" s="44" t="s">
-        <v>743</v>
-      </c>
-      <c r="C86" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4">
-      <c r="B87" s="44" t="s">
-        <v>744</v>
-      </c>
-      <c r="C87" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4">
-      <c r="B88" s="44"/>
-      <c r="C88" s="44"/>
-    </row>
-    <row r="90" spans="2:4">
-      <c r="B90" s="37" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4">
-      <c r="B91" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="C91" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4">
-      <c r="B92" s="36" t="s">
-        <v>558</v>
-      </c>
-      <c r="C92" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4">
-      <c r="B93" s="36" t="s">
-        <v>497</v>
-      </c>
-      <c r="C93" s="44" t="s">
-        <v>739</v>
-      </c>
-      <c r="D93" s="44"/>
-    </row>
-    <row r="95" spans="2:4">
-      <c r="B95" s="37" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4">
-      <c r="B96" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="C96" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4">
-      <c r="B97" s="36" t="s">
-        <v>497</v>
-      </c>
-      <c r="C97" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4">
-      <c r="B98" s="36" t="s">
-        <v>560</v>
-      </c>
-      <c r="C98" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4">
-      <c r="B99" s="44" t="s">
-        <v>746</v>
-      </c>
-      <c r="C99" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4">
-      <c r="B100" s="44" t="s">
-        <v>550</v>
-      </c>
-      <c r="C100" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4">
-      <c r="B102" s="37" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4">
-      <c r="B103" s="44" t="s">
-        <v>693</v>
-      </c>
-      <c r="C103" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4">
-      <c r="B104" s="44" t="s">
-        <v>555</v>
-      </c>
-      <c r="C104" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4">
-      <c r="B105" s="44" t="s">
-        <v>747</v>
-      </c>
-      <c r="C105" s="44" t="s">
-        <v>739</v>
-      </c>
-      <c r="D105" s="44"/>
-    </row>
-    <row r="107" spans="2:4">
-      <c r="B107" s="37" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4">
-      <c r="B108" s="44" t="s">
-        <v>695</v>
-      </c>
-      <c r="C108" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4">
-      <c r="B109" s="44" t="s">
-        <v>696</v>
-      </c>
-      <c r="C109" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4">
-      <c r="B110" s="44" t="s">
-        <v>697</v>
-      </c>
-      <c r="C110" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4">
-      <c r="B111" s="44" t="s">
-        <v>698</v>
-      </c>
-      <c r="C111" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4">
-      <c r="B112" s="44" t="s">
-        <v>699</v>
-      </c>
-      <c r="C112" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3">
-      <c r="B113" s="44" t="s">
-        <v>700</v>
-      </c>
-      <c r="C113" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3">
-      <c r="B114" s="44" t="s">
-        <v>701</v>
-      </c>
-      <c r="C114" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3">
-      <c r="B115" s="44" t="s">
-        <v>702</v>
-      </c>
-      <c r="C115" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3">
-      <c r="B116" s="44" t="s">
-        <v>703</v>
-      </c>
-      <c r="C116" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3">
-      <c r="B117" s="44" t="s">
-        <v>704</v>
-      </c>
-      <c r="C117" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3">
-      <c r="B118" s="44" t="s">
-        <v>705</v>
-      </c>
-      <c r="C118" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3">
-      <c r="B119" s="44" t="s">
-        <v>706</v>
-      </c>
-      <c r="C119" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3">
-      <c r="B120" s="44" t="s">
-        <v>707</v>
-      </c>
-      <c r="C120" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3">
-      <c r="B121" s="44" t="s">
-        <v>708</v>
-      </c>
-      <c r="C121" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3">
-      <c r="B122" s="44" t="s">
-        <v>709</v>
-      </c>
-      <c r="C122" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="123" spans="2:3">
-      <c r="B123" s="44" t="s">
-        <v>710</v>
-      </c>
-      <c r="C123" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3">
-      <c r="B124" s="44" t="s">
-        <v>711</v>
-      </c>
-      <c r="C124" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3">
-      <c r="B125" s="44" t="s">
-        <v>552</v>
-      </c>
-      <c r="C125" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="126" spans="2:3">
-      <c r="B126" s="44" t="s">
-        <v>712</v>
-      </c>
-      <c r="C126" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3">
-      <c r="B127" s="44" t="s">
-        <v>713</v>
-      </c>
-      <c r="C127" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3">
-      <c r="B128" s="44" t="s">
-        <v>714</v>
-      </c>
-      <c r="C128" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3">
-      <c r="B129" s="44" t="s">
-        <v>715</v>
-      </c>
-      <c r="C129" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3">
-      <c r="B130" s="44" t="s">
-        <v>716</v>
-      </c>
-      <c r="C130" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3">
-      <c r="B132" s="37" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="134" spans="2:3">
-      <c r="B134" s="37" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="135" spans="2:3">
-      <c r="B135" s="44" t="s">
-        <v>498</v>
-      </c>
-      <c r="C135" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="136" spans="2:3">
-      <c r="B136" s="44" t="s">
-        <v>497</v>
-      </c>
-      <c r="C136" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="137" spans="2:3">
-      <c r="B137" s="44" t="s">
-        <v>558</v>
-      </c>
-      <c r="C137" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="139" spans="2:3">
-      <c r="B139" s="37" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="140" spans="2:3">
-      <c r="B140" s="44" t="s">
-        <v>720</v>
-      </c>
-      <c r="C140" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="141" spans="2:3">
-      <c r="B141" s="44" t="s">
-        <v>498</v>
-      </c>
-      <c r="C141" s="44"/>
-    </row>
-    <row r="143" spans="2:3">
-      <c r="B143" s="37" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="144" spans="2:3">
-      <c r="B144" s="44" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3">
-      <c r="B145" s="44" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3">
-      <c r="B146" s="44" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3">
-      <c r="B147" s="44" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3">
-      <c r="B149" s="37" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3">
-      <c r="B150" s="44" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="152" spans="2:3">
-      <c r="B152" s="37" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3">
-      <c r="B153" s="44" t="s">
-        <v>555</v>
-      </c>
-      <c r="C153" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="155" spans="2:3">
-      <c r="B155" s="37" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3">
-      <c r="B156" s="44" t="s">
-        <v>727</v>
-      </c>
-      <c r="C156" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3">
-      <c r="B157" s="44" t="s">
-        <v>751</v>
-      </c>
-      <c r="C157" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="158" spans="2:3">
-      <c r="B158" s="44" t="s">
-        <v>752</v>
-      </c>
-      <c r="C158" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3">
-      <c r="B160" s="37" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3">
-      <c r="B161" s="44" t="s">
-        <v>498</v>
-      </c>
-      <c r="C161" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3">
-      <c r="B162" s="44" t="s">
-        <v>497</v>
-      </c>
-      <c r="C162" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3">
-      <c r="B164" s="37" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="165" spans="2:3">
-      <c r="B165" s="44" t="s">
-        <v>693</v>
-      </c>
-      <c r="C165" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="167" spans="2:3">
-      <c r="B167" s="37" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="168" spans="2:3">
-      <c r="B168" s="44" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="170" spans="2:3">
-      <c r="B170" s="37" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="171" spans="2:3">
-      <c r="B171" s="44" t="s">
-        <v>497</v>
-      </c>
-      <c r="C171" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="172" spans="2:3">
-      <c r="B172" s="44" t="s">
-        <v>733</v>
-      </c>
-      <c r="C172" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="173" spans="2:3">
-      <c r="B173" s="44" t="s">
-        <v>753</v>
-      </c>
-      <c r="C173" s="44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="175" spans="2:3">
-      <c r="B175" s="37" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="176" spans="2:3">
-      <c r="B176" s="44" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2">
-      <c r="B177" s="44" t="s">
-        <v>736</v>
-      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="40"/>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="40"/>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test Cases/Preethi/Test Case- In Patient.xlsx
+++ b/Test Cases/Preethi/Test Case- In Patient.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="In Patient" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="960">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -3053,17 +3052,54 @@
   <si>
     <t>MED_IP_TC_119</t>
   </si>
+  <si>
+    <t>Verify Cancellation of Pending Request in Discharge summary is working correctly</t>
+  </si>
+  <si>
+    <t>Select Menu&gt;&gt;Discharge Entry</t>
+  </si>
+  <si>
+    <t>Discharge pop up window should be displayed</t>
+  </si>
+  <si>
+    <t>Enter Patient Id and press Enter</t>
+  </si>
+  <si>
+    <t>Patient details should be displayed in respective fields</t>
+  </si>
+  <si>
+    <t>Select Pending on side pane</t>
+  </si>
+  <si>
+    <t>Pending list should be expanded</t>
+  </si>
+  <si>
+    <t>Right click on any of the pending request</t>
+  </si>
+  <si>
+    <t>Select Cancel</t>
+  </si>
+  <si>
+    <t>Request should be cancelled</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3224,7 +3260,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3240,12 +3276,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3276,17 +3306,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3298,13 +3328,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3313,22 +3343,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3337,51 +3367,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3389,42 +3425,38 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3432,19 +3464,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3720,18 +3749,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R1173"/>
+  <dimension ref="A1:R1182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A955" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H929" sqref="H929"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F640" sqref="F640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="20" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="39.85546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" style="5" customWidth="1"/>
     <col min="6" max="6" width="44.5703125" style="3" customWidth="1"/>
@@ -3803,7 +3832,7 @@
         <v>209</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="43" t="s">
         <v>824</v>
       </c>
       <c r="G2" s="3"/>
@@ -3817,7 +3846,7 @@
       </c>
       <c r="O2" s="16">
         <f>COUNTA(A:A)-1</f>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q2" s="17" t="s">
         <v>15</v>
@@ -3886,7 +3915,7 @@
       <c r="F5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="43" t="s">
         <v>822</v>
       </c>
       <c r="H5" s="5"/>
@@ -3932,7 +3961,7 @@
       <c r="F7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="43" t="s">
         <v>823</v>
       </c>
       <c r="J7" s="4"/>
@@ -3962,11 +3991,11 @@
       <c r="J9" s="4"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:18" s="47" customFormat="1" ht="36" customHeight="1">
-      <c r="A10" s="45"/>
+    <row r="10" spans="1:18" s="46" customFormat="1" ht="36" customHeight="1">
+      <c r="A10" s="44"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="46"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="5">
         <v>1</v>
       </c>
@@ -3980,8 +4009,8 @@
       <c r="J10" s="4"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="49"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="48"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="18"/>
     </row>
@@ -4055,7 +4084,7 @@
       <c r="F15" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="43" t="s">
         <v>825</v>
       </c>
       <c r="J15" s="14"/>
@@ -4076,7 +4105,7 @@
       <c r="D17" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="43" t="s">
         <v>36</v>
       </c>
       <c r="J17" s="14"/>
@@ -4129,7 +4158,7 @@
       <c r="E21" s="5">
         <v>4</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="43" t="s">
         <v>826</v>
       </c>
       <c r="G21" s="22" t="s">
@@ -4324,7 +4353,7 @@
       <c r="B37" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="49" t="s">
         <v>830</v>
       </c>
       <c r="F37" s="22" t="s">
@@ -4382,7 +4411,7 @@
       <c r="F41" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G41" s="44" t="s">
+      <c r="G41" s="43" t="s">
         <v>827</v>
       </c>
       <c r="J41" s="14"/>
@@ -4535,7 +4564,7 @@
       <c r="F53" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G53" s="44" t="s">
+      <c r="G53" s="43" t="s">
         <v>827</v>
       </c>
       <c r="J53" s="14"/>
@@ -4548,7 +4577,7 @@
       <c r="F54" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G54" s="44" t="s">
+      <c r="G54" s="43" t="s">
         <v>828</v>
       </c>
       <c r="J54" s="14"/>
@@ -4561,7 +4590,7 @@
       <c r="F55" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G55" s="44" t="s">
+      <c r="G55" s="43" t="s">
         <v>273</v>
       </c>
       <c r="J55" s="14"/>
@@ -4666,7 +4695,7 @@
       <c r="B64" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="50" t="s">
+      <c r="D64" s="49" t="s">
         <v>831</v>
       </c>
       <c r="F64" s="26" t="s">
@@ -4747,7 +4776,7 @@
       <c r="F70" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="G70" s="44" t="s">
+      <c r="G70" s="43" t="s">
         <v>829</v>
       </c>
       <c r="J70" s="14"/>
@@ -4822,7 +4851,7 @@
       <c r="F76" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G76" s="51" t="s">
+      <c r="G76" s="50" t="s">
         <v>80</v>
       </c>
       <c r="K76" s="14"/>
@@ -4831,7 +4860,7 @@
       <c r="K77" s="14"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="42" t="s">
+      <c r="A78" s="41" t="s">
         <v>363</v>
       </c>
       <c r="B78" s="26" t="s">
@@ -4921,7 +4950,7 @@
       <c r="K85" s="14"/>
     </row>
     <row r="86" spans="1:11" ht="30">
-      <c r="A86" s="42" t="s">
+      <c r="A86" s="41" t="s">
         <v>108</v>
       </c>
       <c r="B86" s="26" t="s">
@@ -5005,7 +5034,7 @@
       <c r="K93" s="14"/>
     </row>
     <row r="94" spans="1:11" ht="30">
-      <c r="A94" s="42" t="s">
+      <c r="A94" s="41" t="s">
         <v>109</v>
       </c>
       <c r="B94" s="26" t="s">
@@ -5113,7 +5142,7 @@
       <c r="K103" s="14"/>
     </row>
     <row r="104" spans="1:11" ht="30">
-      <c r="A104" s="42" t="s">
+      <c r="A104" s="41" t="s">
         <v>110</v>
       </c>
       <c r="B104" s="26" t="s">
@@ -5188,7 +5217,7 @@
       <c r="K110" s="14"/>
     </row>
     <row r="111" spans="1:11" ht="30">
-      <c r="A111" s="42" t="s">
+      <c r="A111" s="41" t="s">
         <v>116</v>
       </c>
       <c r="B111" s="26" t="s">
@@ -5287,7 +5316,7 @@
       <c r="K119" s="14"/>
     </row>
     <row r="120" spans="1:11" ht="30">
-      <c r="A120" s="42" t="s">
+      <c r="A120" s="41" t="s">
         <v>123</v>
       </c>
       <c r="B120" s="26" t="s">
@@ -5377,7 +5406,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" ht="45">
-      <c r="A129" s="42" t="s">
+      <c r="A129" s="41" t="s">
         <v>128</v>
       </c>
       <c r="B129" s="26" t="s">
@@ -5484,7 +5513,7 @@
       </c>
     </row>
     <row r="140" spans="1:8" ht="30">
-      <c r="A140" s="42" t="s">
+      <c r="A140" s="41" t="s">
         <v>134</v>
       </c>
       <c r="B140" s="26" t="s">
@@ -5539,7 +5568,7 @@
       </c>
     </row>
     <row r="146" spans="1:8" ht="30">
-      <c r="A146" s="42" t="s">
+      <c r="A146" s="41" t="s">
         <v>138</v>
       </c>
       <c r="B146" s="26" t="s">
@@ -5616,7 +5645,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" ht="30">
-      <c r="A154" s="42" t="s">
+      <c r="A154" s="41" t="s">
         <v>147</v>
       </c>
       <c r="B154" s="26" t="s">
@@ -5671,7 +5700,7 @@
       </c>
     </row>
     <row r="160" spans="1:8" ht="30">
-      <c r="A160" s="42" t="s">
+      <c r="A160" s="41" t="s">
         <v>154</v>
       </c>
       <c r="B160" s="26" t="s">
@@ -5748,7 +5777,7 @@
       </c>
     </row>
     <row r="168" spans="1:8" ht="30">
-      <c r="A168" s="42" t="s">
+      <c r="A168" s="41" t="s">
         <v>166</v>
       </c>
       <c r="B168" s="26" t="s">
@@ -5836,7 +5865,7 @@
       </c>
     </row>
     <row r="177" spans="1:8" ht="30">
-      <c r="A177" s="42" t="s">
+      <c r="A177" s="41" t="s">
         <v>168</v>
       </c>
       <c r="B177" s="26" t="s">
@@ -5924,7 +5953,7 @@
       </c>
     </row>
     <row r="186" spans="1:8" ht="30">
-      <c r="A186" s="42" t="s">
+      <c r="A186" s="41" t="s">
         <v>173</v>
       </c>
       <c r="B186" s="26" t="s">
@@ -5979,7 +6008,7 @@
       </c>
     </row>
     <row r="192" spans="1:8" ht="30">
-      <c r="A192" s="42" t="s">
+      <c r="A192" s="41" t="s">
         <v>180</v>
       </c>
       <c r="B192" s="26" t="s">
@@ -6045,7 +6074,7 @@
       </c>
     </row>
     <row r="199" spans="1:8" ht="30">
-      <c r="A199" s="42" t="s">
+      <c r="A199" s="41" t="s">
         <v>186</v>
       </c>
       <c r="B199" s="26" t="s">
@@ -6122,7 +6151,7 @@
       </c>
     </row>
     <row r="207" spans="1:8" ht="30">
-      <c r="A207" s="42" t="s">
+      <c r="A207" s="41" t="s">
         <v>190</v>
       </c>
       <c r="B207" s="26" t="s">
@@ -6177,7 +6206,7 @@
       </c>
     </row>
     <row r="213" spans="1:8" ht="30">
-      <c r="A213" s="42" t="s">
+      <c r="A213" s="41" t="s">
         <v>197</v>
       </c>
       <c r="B213" s="26" t="s">
@@ -6243,7 +6272,7 @@
       </c>
     </row>
     <row r="220" spans="1:8" ht="30">
-      <c r="A220" s="42" t="s">
+      <c r="A220" s="41" t="s">
         <v>199</v>
       </c>
       <c r="B220" s="26" t="s">
@@ -6320,7 +6349,7 @@
       </c>
     </row>
     <row r="228" spans="1:8" ht="45">
-      <c r="A228" s="42" t="s">
+      <c r="A228" s="41" t="s">
         <v>208</v>
       </c>
       <c r="B228" s="26" t="s">
@@ -6375,7 +6404,7 @@
       </c>
     </row>
     <row r="234" spans="1:8" ht="30">
-      <c r="A234" s="42" t="s">
+      <c r="A234" s="41" t="s">
         <v>216</v>
       </c>
       <c r="B234" s="26" t="s">
@@ -6438,7 +6467,7 @@
       </c>
     </row>
     <row r="242" spans="1:8" ht="30">
-      <c r="A242" s="55" t="s">
+      <c r="A242" s="52" t="s">
         <v>947</v>
       </c>
       <c r="B242" s="26" t="s">
@@ -6501,7 +6530,7 @@
       </c>
     </row>
     <row r="249" spans="1:8" ht="30">
-      <c r="A249" s="55" t="s">
+      <c r="A249" s="52" t="s">
         <v>221</v>
       </c>
       <c r="B249" s="26" t="s">
@@ -6557,7 +6586,7 @@
       </c>
     </row>
     <row r="255" spans="1:8" ht="30">
-      <c r="A255" s="55" t="s">
+      <c r="A255" s="52" t="s">
         <v>228</v>
       </c>
       <c r="B255" s="26" t="s">
@@ -6631,7 +6660,7 @@
       </c>
     </row>
     <row r="263" spans="1:8" ht="30">
-      <c r="A263" s="55" t="s">
+      <c r="A263" s="52" t="s">
         <v>239</v>
       </c>
       <c r="B263" s="26" t="s">
@@ -6741,7 +6770,7 @@
       </c>
     </row>
     <row r="274" spans="1:8" ht="30">
-      <c r="A274" s="55" t="s">
+      <c r="A274" s="52" t="s">
         <v>250</v>
       </c>
       <c r="B274" s="26" t="s">
@@ -6807,7 +6836,7 @@
       </c>
     </row>
     <row r="281" spans="1:8" ht="30">
-      <c r="A281" s="55" t="s">
+      <c r="A281" s="52" t="s">
         <v>253</v>
       </c>
       <c r="B281" s="26" t="s">
@@ -6881,7 +6910,7 @@
       </c>
     </row>
     <row r="289" spans="1:8" ht="30">
-      <c r="A289" s="55" t="s">
+      <c r="A289" s="52" t="s">
         <v>259</v>
       </c>
       <c r="B289" s="26" t="s">
@@ -6936,7 +6965,7 @@
       </c>
     </row>
     <row r="295" spans="1:8" ht="30">
-      <c r="A295" s="55" t="s">
+      <c r="A295" s="52" t="s">
         <v>262</v>
       </c>
       <c r="B295" s="26" t="s">
@@ -6991,7 +7020,7 @@
       </c>
     </row>
     <row r="301" spans="1:8" ht="30">
-      <c r="A301" s="55" t="s">
+      <c r="A301" s="52" t="s">
         <v>266</v>
       </c>
       <c r="B301" s="26" t="s">
@@ -7081,7 +7110,7 @@
       </c>
     </row>
     <row r="311" spans="1:8" ht="30">
-      <c r="A311" s="55" t="s">
+      <c r="A311" s="52" t="s">
         <v>274</v>
       </c>
       <c r="B311" s="26" t="s">
@@ -7152,7 +7181,7 @@
       </c>
     </row>
     <row r="319" spans="1:8" ht="30">
-      <c r="A319" s="55" t="s">
+      <c r="A319" s="52" t="s">
         <v>279</v>
       </c>
       <c r="B319" s="26" t="s">
@@ -7234,7 +7263,7 @@
       </c>
     </row>
     <row r="328" spans="1:8" ht="30">
-      <c r="A328" s="55" t="s">
+      <c r="A328" s="52" t="s">
         <v>284</v>
       </c>
       <c r="B328" s="26" t="s">
@@ -7319,7 +7348,7 @@
       </c>
     </row>
     <row r="337" spans="1:8" ht="30">
-      <c r="A337" s="55" t="s">
+      <c r="A337" s="52" t="s">
         <v>289</v>
       </c>
       <c r="B337" s="26" t="s">
@@ -7396,7 +7425,7 @@
       </c>
     </row>
     <row r="345" spans="1:8" ht="30">
-      <c r="A345" s="55" t="s">
+      <c r="A345" s="52" t="s">
         <v>299</v>
       </c>
       <c r="B345" s="26" t="s">
@@ -7484,7 +7513,7 @@
       </c>
     </row>
     <row r="354" spans="1:8" ht="30">
-      <c r="A354" s="55" t="s">
+      <c r="A354" s="52" t="s">
         <v>303</v>
       </c>
       <c r="B354" s="26" t="s">
@@ -7561,7 +7590,7 @@
       </c>
     </row>
     <row r="362" spans="1:8" ht="30">
-      <c r="A362" s="55" t="s">
+      <c r="A362" s="52" t="s">
         <v>314</v>
       </c>
       <c r="B362" s="26" t="s">
@@ -7616,7 +7645,7 @@
       </c>
     </row>
     <row r="368" spans="1:8" ht="45">
-      <c r="A368" s="55" t="s">
+      <c r="A368" s="52" t="s">
         <v>315</v>
       </c>
       <c r="B368" s="26" t="s">
@@ -7682,7 +7711,7 @@
       </c>
     </row>
     <row r="375" spans="1:8" ht="45">
-      <c r="A375" s="55" t="s">
+      <c r="A375" s="52" t="s">
         <v>321</v>
       </c>
       <c r="B375" s="26" t="s">
@@ -7759,7 +7788,7 @@
       </c>
     </row>
     <row r="383" spans="1:8" ht="45">
-      <c r="A383" s="55" t="s">
+      <c r="A383" s="52" t="s">
         <v>324</v>
       </c>
       <c r="B383" s="26" t="s">
@@ -7803,7 +7832,7 @@
       </c>
     </row>
     <row r="388" spans="1:8" ht="30">
-      <c r="A388" s="55" t="s">
+      <c r="A388" s="52" t="s">
         <v>329</v>
       </c>
       <c r="B388" s="26" t="s">
@@ -7858,7 +7887,7 @@
       </c>
     </row>
     <row r="394" spans="1:8" ht="30">
-      <c r="A394" s="55" t="s">
+      <c r="A394" s="52" t="s">
         <v>335</v>
       </c>
       <c r="B394" s="26" t="s">
@@ -7913,7 +7942,7 @@
       </c>
     </row>
     <row r="400" spans="1:8" ht="30">
-      <c r="A400" s="55" t="s">
+      <c r="A400" s="52" t="s">
         <v>339</v>
       </c>
       <c r="B400" s="26" t="s">
@@ -7957,7 +7986,7 @@
       </c>
     </row>
     <row r="405" spans="1:8" ht="30">
-      <c r="A405" s="55" t="s">
+      <c r="A405" s="52" t="s">
         <v>345</v>
       </c>
       <c r="B405" s="26" t="s">
@@ -8012,7 +8041,7 @@
       </c>
     </row>
     <row r="411" spans="1:8" ht="30">
-      <c r="A411" s="55" t="s">
+      <c r="A411" s="52" t="s">
         <v>352</v>
       </c>
       <c r="B411" s="26" t="s">
@@ -8102,7 +8131,7 @@
       </c>
     </row>
     <row r="421" spans="1:8" ht="30">
-      <c r="A421" s="55" t="s">
+      <c r="A421" s="52" t="s">
         <v>359</v>
       </c>
       <c r="B421" s="26" t="s">
@@ -8176,7 +8205,7 @@
       </c>
     </row>
     <row r="429" spans="1:8" ht="30">
-      <c r="A429" s="55" t="s">
+      <c r="A429" s="52" t="s">
         <v>362</v>
       </c>
       <c r="B429" s="26" t="s">
@@ -8261,7 +8290,7 @@
       </c>
     </row>
     <row r="438" spans="1:8" ht="30">
-      <c r="A438" s="55" t="s">
+      <c r="A438" s="52" t="s">
         <v>364</v>
       </c>
       <c r="B438" s="26" t="s">
@@ -8324,7 +8353,7 @@
       </c>
     </row>
     <row r="445" spans="1:8" ht="30">
-      <c r="A445" s="55" t="s">
+      <c r="A445" s="52" t="s">
         <v>371</v>
       </c>
       <c r="B445" s="26" t="s">
@@ -8398,13 +8427,13 @@
       </c>
     </row>
     <row r="453" spans="1:8" ht="30">
-      <c r="A453" s="55" t="s">
+      <c r="A453" s="52" t="s">
         <v>375</v>
       </c>
       <c r="B453" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D453" s="52" t="s">
+      <c r="D453" s="51" t="s">
         <v>376</v>
       </c>
       <c r="F453" s="3" t="s">
@@ -8491,7 +8520,7 @@
       </c>
     </row>
     <row r="463" spans="1:8" ht="30">
-      <c r="A463" s="55" t="s">
+      <c r="A463" s="52" t="s">
         <v>382</v>
       </c>
       <c r="B463" s="26" t="s">
@@ -8549,7 +8578,7 @@
       </c>
     </row>
     <row r="470" spans="1:8" ht="30">
-      <c r="A470" s="55" t="s">
+      <c r="A470" s="52" t="s">
         <v>388</v>
       </c>
       <c r="B470" s="26" t="s">
@@ -8610,7 +8639,7 @@
       </c>
     </row>
     <row r="476" spans="1:8" ht="30">
-      <c r="A476" s="55" t="s">
+      <c r="A476" s="52" t="s">
         <v>394</v>
       </c>
       <c r="B476" s="26" t="s">
@@ -8709,7 +8738,7 @@
       </c>
     </row>
     <row r="486" spans="1:8" ht="30">
-      <c r="A486" s="55" t="s">
+      <c r="A486" s="52" t="s">
         <v>402</v>
       </c>
       <c r="B486" s="26" t="s">
@@ -8767,7 +8796,7 @@
       </c>
     </row>
     <row r="492" spans="1:8" ht="30">
-      <c r="A492" s="55" t="s">
+      <c r="A492" s="52" t="s">
         <v>408</v>
       </c>
       <c r="B492" s="26" t="s">
@@ -8902,7 +8931,7 @@
       </c>
     </row>
     <row r="505" spans="1:8" ht="30">
-      <c r="A505" s="55" t="s">
+      <c r="A505" s="52" t="s">
         <v>427</v>
       </c>
       <c r="B505" s="26" t="s">
@@ -8982,7 +9011,7 @@
       </c>
     </row>
     <row r="513" spans="1:8" ht="45">
-      <c r="A513" s="55" t="s">
+      <c r="A513" s="52" t="s">
         <v>434</v>
       </c>
       <c r="B513" s="26" t="s">
@@ -9032,13 +9061,13 @@
       </c>
     </row>
     <row r="518" spans="1:8" ht="30">
-      <c r="A518" s="55" t="s">
+      <c r="A518" s="52" t="s">
         <v>441</v>
       </c>
       <c r="B518" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D518" s="52" t="s">
+      <c r="D518" s="51" t="s">
         <v>446</v>
       </c>
       <c r="F518" s="34" t="s">
@@ -9109,7 +9138,7 @@
       </c>
     </row>
     <row r="526" spans="1:8" ht="30">
-      <c r="A526" s="55" t="s">
+      <c r="A526" s="52" t="s">
         <v>450</v>
       </c>
       <c r="B526" s="26" t="s">
@@ -9175,7 +9204,7 @@
       </c>
     </row>
     <row r="533" spans="1:8" ht="30">
-      <c r="A533" s="55" t="s">
+      <c r="A533" s="52" t="s">
         <v>451</v>
       </c>
       <c r="B533" s="26" t="s">
@@ -9263,7 +9292,7 @@
       </c>
     </row>
     <row r="542" spans="1:8" ht="30">
-      <c r="A542" s="55" t="s">
+      <c r="A542" s="52" t="s">
         <v>459</v>
       </c>
       <c r="B542" s="26" t="s">
@@ -9329,7 +9358,7 @@
       </c>
     </row>
     <row r="549" spans="1:8" ht="30">
-      <c r="A549" s="55" t="s">
+      <c r="A549" s="52" t="s">
         <v>463</v>
       </c>
       <c r="B549" s="26" t="s">
@@ -9395,13 +9424,13 @@
       </c>
     </row>
     <row r="556" spans="1:8" ht="30">
-      <c r="A556" s="55" t="s">
+      <c r="A556" s="52" t="s">
         <v>467</v>
       </c>
       <c r="B556" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D556" s="43" t="s">
+      <c r="D556" s="42" t="s">
         <v>766</v>
       </c>
       <c r="F556" s="34" t="s">
@@ -9470,7 +9499,7 @@
       <c r="E563" s="5">
         <v>6</v>
       </c>
-      <c r="F563" s="43" t="s">
+      <c r="F563" s="42" t="s">
         <v>765</v>
       </c>
       <c r="G563" s="34" t="s">
@@ -9478,7 +9507,7 @@
       </c>
     </row>
     <row r="565" spans="1:8" ht="30">
-      <c r="A565" s="55" t="s">
+      <c r="A565" s="52" t="s">
         <v>470</v>
       </c>
       <c r="B565" s="26" t="s">
@@ -9544,7 +9573,7 @@
       </c>
     </row>
     <row r="572" spans="1:8" ht="30">
-      <c r="A572" s="55" t="s">
+      <c r="A572" s="52" t="s">
         <v>478</v>
       </c>
       <c r="B572" s="26" t="s">
@@ -9610,13 +9639,13 @@
       </c>
     </row>
     <row r="579" spans="1:8" ht="30">
-      <c r="A579" s="55" t="s">
+      <c r="A579" s="52" t="s">
         <v>479</v>
       </c>
       <c r="B579" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D579" s="41" t="s">
+      <c r="D579" s="40" t="s">
         <v>693</v>
       </c>
       <c r="F579" s="34" t="s">
@@ -9687,7 +9716,7 @@
       </c>
     </row>
     <row r="587" spans="1:8" ht="30">
-      <c r="A587" s="55" t="s">
+      <c r="A587" s="52" t="s">
         <v>484</v>
       </c>
       <c r="B587" s="26" t="s">
@@ -9764,7 +9793,7 @@
       </c>
     </row>
     <row r="595" spans="1:8" ht="30">
-      <c r="A595" s="55" t="s">
+      <c r="A595" s="52" t="s">
         <v>490</v>
       </c>
       <c r="B595" s="35" t="s">
@@ -9852,7 +9881,7 @@
       </c>
     </row>
     <row r="604" spans="1:8" ht="30">
-      <c r="A604" s="55" t="s">
+      <c r="A604" s="52" t="s">
         <v>503</v>
       </c>
       <c r="B604" s="35" t="s">
@@ -9920,7 +9949,7 @@
       </c>
     </row>
     <row r="611" spans="1:8" ht="30">
-      <c r="A611" s="55" t="s">
+      <c r="A611" s="52" t="s">
         <v>511</v>
       </c>
       <c r="B611" s="35" t="s">
@@ -9986,7 +10015,7 @@
       </c>
     </row>
     <row r="618" spans="1:8" ht="30">
-      <c r="A618" s="55" t="s">
+      <c r="A618" s="52" t="s">
         <v>516</v>
       </c>
       <c r="B618" s="35" t="s">
@@ -10074,7 +10103,7 @@
       </c>
     </row>
     <row r="627" spans="1:8" ht="30">
-      <c r="A627" s="55" t="s">
+      <c r="A627" s="52" t="s">
         <v>522</v>
       </c>
       <c r="B627" s="35" t="s">
@@ -10146,7 +10175,7 @@
       </c>
     </row>
     <row r="634" spans="1:8">
-      <c r="A634" s="55" t="s">
+      <c r="A634" s="52" t="s">
         <v>526</v>
       </c>
       <c r="B634" s="35" t="s">
@@ -10218,7 +10247,7 @@
       </c>
     </row>
     <row r="641" spans="1:8">
-      <c r="A641" s="56" t="s">
+      <c r="A641" s="52" t="s">
         <v>530</v>
       </c>
       <c r="B641" s="35" t="s">
@@ -10301,7 +10330,7 @@
       </c>
     </row>
     <row r="649" spans="1:8" ht="30">
-      <c r="A649" s="55" t="s">
+      <c r="A649" s="52" t="s">
         <v>538</v>
       </c>
       <c r="B649" s="35" t="s">
@@ -10381,7 +10410,7 @@
       </c>
     </row>
     <row r="657" spans="1:8" ht="30">
-      <c r="A657" s="55" t="s">
+      <c r="A657" s="52" t="s">
         <v>555</v>
       </c>
       <c r="B657" s="35" t="s">
@@ -10491,7 +10520,7 @@
       </c>
     </row>
     <row r="668" spans="1:8" ht="30">
-      <c r="A668" s="55" t="s">
+      <c r="A668" s="52" t="s">
         <v>560</v>
       </c>
       <c r="B668" s="35" t="s">
@@ -10579,7 +10608,7 @@
       </c>
     </row>
     <row r="677" spans="1:8" ht="30">
-      <c r="A677" s="55" t="s">
+      <c r="A677" s="52" t="s">
         <v>564</v>
       </c>
       <c r="B677" s="35" t="s">
@@ -10645,7 +10674,7 @@
       </c>
     </row>
     <row r="684" spans="1:8" ht="30">
-      <c r="A684" s="55" t="s">
+      <c r="A684" s="52" t="s">
         <v>570</v>
       </c>
       <c r="B684" s="35" t="s">
@@ -10722,7 +10751,7 @@
       </c>
     </row>
     <row r="692" spans="1:8" ht="30">
-      <c r="A692" s="55" t="s">
+      <c r="A692" s="52" t="s">
         <v>577</v>
       </c>
       <c r="B692" s="35" t="s">
@@ -10810,7 +10839,7 @@
       </c>
     </row>
     <row r="701" spans="1:8" ht="30">
-      <c r="A701" s="55" t="s">
+      <c r="A701" s="52" t="s">
         <v>584</v>
       </c>
       <c r="B701" s="35" t="s">
@@ -10898,7 +10927,7 @@
       </c>
     </row>
     <row r="710" spans="1:8" ht="30">
-      <c r="A710" s="55" t="s">
+      <c r="A710" s="52" t="s">
         <v>596</v>
       </c>
       <c r="B710" s="35" t="s">
@@ -10980,7 +11009,7 @@
       </c>
     </row>
     <row r="719" spans="1:8" ht="30">
-      <c r="A719" s="55" t="s">
+      <c r="A719" s="52" t="s">
         <v>603</v>
       </c>
       <c r="B719" s="37" t="s">
@@ -11068,7 +11097,7 @@
       </c>
     </row>
     <row r="728" spans="1:8" ht="30">
-      <c r="A728" s="55" t="s">
+      <c r="A728" s="52" t="s">
         <v>607</v>
       </c>
       <c r="B728" s="37" t="s">
@@ -11178,7 +11207,7 @@
       </c>
     </row>
     <row r="739" spans="1:8" ht="30">
-      <c r="A739" s="55" t="s">
+      <c r="A739" s="52" t="s">
         <v>611</v>
       </c>
       <c r="B739" s="37" t="s">
@@ -11266,7 +11295,7 @@
       </c>
     </row>
     <row r="748" spans="1:8" ht="30">
-      <c r="A748" s="55" t="s">
+      <c r="A748" s="52" t="s">
         <v>621</v>
       </c>
       <c r="B748" s="37" t="s">
@@ -11332,7 +11361,7 @@
       </c>
     </row>
     <row r="755" spans="1:8" ht="30">
-      <c r="A755" s="55" t="s">
+      <c r="A755" s="52" t="s">
         <v>632</v>
       </c>
       <c r="B755" s="37" t="s">
@@ -11431,7 +11460,7 @@
       </c>
     </row>
     <row r="765" spans="1:8" ht="30">
-      <c r="A765" s="55" t="s">
+      <c r="A765" s="52" t="s">
         <v>640</v>
       </c>
       <c r="B765" s="37" t="s">
@@ -11530,7 +11559,7 @@
       </c>
     </row>
     <row r="775" spans="1:8" ht="30">
-      <c r="A775" s="56" t="s">
+      <c r="A775" s="52" t="s">
         <v>752</v>
       </c>
       <c r="B775" s="37" t="s">
@@ -11602,13 +11631,13 @@
       </c>
     </row>
     <row r="782" spans="1:8" ht="30">
-      <c r="A782" s="56" t="s">
+      <c r="A782" s="52" t="s">
         <v>753</v>
       </c>
       <c r="B782" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D782" s="52" t="s">
+      <c r="D782" s="51" t="s">
         <v>641</v>
       </c>
       <c r="E782" s="5">
@@ -11685,7 +11714,7 @@
       </c>
     </row>
     <row r="790" spans="1:8" ht="30">
-      <c r="A790" s="55" t="s">
+      <c r="A790" s="52" t="s">
         <v>648</v>
       </c>
       <c r="B790" s="37" t="s">
@@ -11746,13 +11775,13 @@
       </c>
     </row>
     <row r="796" spans="1:8" ht="30">
-      <c r="A796" s="55" t="s">
+      <c r="A796" s="52" t="s">
         <v>652</v>
       </c>
       <c r="B796" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D796" s="52" t="s">
+      <c r="D796" s="51" t="s">
         <v>653</v>
       </c>
       <c r="F796" s="3" t="s">
@@ -11847,7 +11876,7 @@
       </c>
     </row>
     <row r="807" spans="1:8" ht="30">
-      <c r="A807" s="55" t="s">
+      <c r="A807" s="52" t="s">
         <v>665</v>
       </c>
       <c r="B807" s="37" t="s">
@@ -11940,7 +11969,7 @@
       </c>
     </row>
     <row r="817" spans="1:8" ht="30">
-      <c r="A817" s="55" t="s">
+      <c r="A817" s="52" t="s">
         <v>668</v>
       </c>
       <c r="B817" s="37" t="s">
@@ -12012,7 +12041,7 @@
       </c>
     </row>
     <row r="824" spans="1:8">
-      <c r="A824" s="55" t="s">
+      <c r="A824" s="52" t="s">
         <v>672</v>
       </c>
       <c r="B824" s="37" t="s">
@@ -12051,7 +12080,7 @@
       </c>
     </row>
     <row r="828" spans="1:8" ht="30">
-      <c r="A828" s="55" t="s">
+      <c r="A828" s="52" t="s">
         <v>682</v>
       </c>
       <c r="B828" s="37" t="s">
@@ -12131,7 +12160,7 @@
       </c>
     </row>
     <row r="836" spans="1:8" ht="30">
-      <c r="A836" s="55" t="s">
+      <c r="A836" s="52" t="s">
         <v>689</v>
       </c>
       <c r="B836" s="37" t="s">
@@ -12189,7 +12218,7 @@
       </c>
     </row>
     <row r="842" spans="1:8" ht="30">
-      <c r="A842" s="55" t="s">
+      <c r="A842" s="52" t="s">
         <v>694</v>
       </c>
       <c r="B842" s="37" t="s">
@@ -12239,7 +12268,7 @@
       </c>
     </row>
     <row r="847" spans="1:8" ht="30">
-      <c r="A847" s="55" t="s">
+      <c r="A847" s="52" t="s">
         <v>754</v>
       </c>
       <c r="B847" s="37" t="s">
@@ -12248,7 +12277,7 @@
       <c r="D847" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="F847" s="41" t="s">
+      <c r="F847" s="40" t="s">
         <v>97</v>
       </c>
     </row>
@@ -12316,7 +12345,7 @@
       </c>
     </row>
     <row r="855" spans="1:8" ht="30">
-      <c r="A855" s="55" t="s">
+      <c r="A855" s="52" t="s">
         <v>755</v>
       </c>
       <c r="B855" s="37" t="s">
@@ -12325,7 +12354,7 @@
       <c r="D855" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="F855" s="41" t="s">
+      <c r="F855" s="40" t="s">
         <v>97</v>
       </c>
     </row>
@@ -12393,7 +12422,7 @@
       </c>
     </row>
     <row r="863" spans="1:8" ht="30">
-      <c r="A863" s="55" t="s">
+      <c r="A863" s="52" t="s">
         <v>756</v>
       </c>
       <c r="B863" s="37" t="s">
@@ -12402,7 +12431,7 @@
       <c r="D863" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="F863" s="41" t="s">
+      <c r="F863" s="40" t="s">
         <v>97</v>
       </c>
     </row>
@@ -12470,7 +12499,7 @@
       </c>
     </row>
     <row r="871" spans="1:8" ht="30">
-      <c r="A871" s="55" t="s">
+      <c r="A871" s="52" t="s">
         <v>757</v>
       </c>
       <c r="B871" s="37" t="s">
@@ -12479,7 +12508,7 @@
       <c r="D871" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="F871" s="41" t="s">
+      <c r="F871" s="40" t="s">
         <v>97</v>
       </c>
     </row>
@@ -12547,7 +12576,7 @@
       </c>
     </row>
     <row r="880" spans="1:8" ht="30">
-      <c r="A880" s="55" t="s">
+      <c r="A880" s="52" t="s">
         <v>758</v>
       </c>
       <c r="B880" s="37" t="s">
@@ -12556,7 +12585,7 @@
       <c r="D880" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="F880" s="41" t="s">
+      <c r="F880" s="40" t="s">
         <v>97</v>
       </c>
     </row>
@@ -12624,7 +12653,7 @@
       </c>
     </row>
     <row r="888" spans="1:8" ht="30">
-      <c r="A888" s="55" t="s">
+      <c r="A888" s="52" t="s">
         <v>759</v>
       </c>
       <c r="B888" s="37" t="s">
@@ -12633,7 +12662,7 @@
       <c r="D888" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="F888" s="41" t="s">
+      <c r="F888" s="40" t="s">
         <v>97</v>
       </c>
     </row>
@@ -12723,7 +12752,7 @@
       </c>
     </row>
     <row r="898" spans="1:8" ht="30">
-      <c r="A898" s="55" t="s">
+      <c r="A898" s="52" t="s">
         <v>760</v>
       </c>
       <c r="B898" s="37" t="s">
@@ -12732,7 +12761,7 @@
       <c r="D898" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="F898" s="41" t="s">
+      <c r="F898" s="40" t="s">
         <v>97</v>
       </c>
     </row>
@@ -12819,7 +12848,7 @@
       </c>
     </row>
     <row r="908" spans="1:8" ht="30">
-      <c r="A908" s="55" t="s">
+      <c r="A908" s="52" t="s">
         <v>761</v>
       </c>
       <c r="B908" s="37" t="s">
@@ -12828,7 +12857,7 @@
       <c r="D908" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="F908" s="41" t="s">
+      <c r="F908" s="40" t="s">
         <v>97</v>
       </c>
     </row>
@@ -12923,7 +12952,7 @@
       </c>
     </row>
     <row r="920" spans="1:8">
-      <c r="A920" s="55" t="s">
+      <c r="A920" s="52" t="s">
         <v>762</v>
       </c>
       <c r="B920" s="37" t="s">
@@ -12932,7 +12961,7 @@
       <c r="D920" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="F920" s="41" t="s">
+      <c r="F920" s="40" t="s">
         <v>97</v>
       </c>
     </row>
@@ -13000,7 +13029,7 @@
       </c>
     </row>
     <row r="928" spans="1:8" ht="30">
-      <c r="A928" s="55" t="s">
+      <c r="A928" s="52" t="s">
         <v>948</v>
       </c>
       <c r="B928" s="37" t="s">
@@ -13009,7 +13038,7 @@
       <c r="D928" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="F928" s="41" t="s">
+      <c r="F928" s="40" t="s">
         <v>97</v>
       </c>
     </row>
@@ -13096,7 +13125,7 @@
       </c>
     </row>
     <row r="938" spans="1:8" ht="30">
-      <c r="A938" s="55" t="s">
+      <c r="A938" s="52" t="s">
         <v>949</v>
       </c>
       <c r="B938" s="37" t="s">
@@ -13219,7 +13248,7 @@
       </c>
     </row>
     <row r="951" spans="1:8" ht="30">
-      <c r="A951" s="55" t="s">
+      <c r="A951" s="52" t="s">
         <v>763</v>
       </c>
       <c r="B951" s="37" t="s">
@@ -13296,7 +13325,7 @@
       </c>
     </row>
     <row r="959" spans="1:8" ht="30">
-      <c r="A959" s="55" t="s">
+      <c r="A959" s="52" t="s">
         <v>764</v>
       </c>
       <c r="B959" s="37" t="s">
@@ -13406,7 +13435,7 @@
       </c>
     </row>
     <row r="970" spans="1:8" ht="30">
-      <c r="A970" s="55" t="s">
+      <c r="A970" s="52" t="s">
         <v>813</v>
       </c>
       <c r="B970" s="37" t="s">
@@ -13494,7 +13523,7 @@
       </c>
     </row>
     <row r="979" spans="1:8" ht="30">
-      <c r="A979" s="55" t="s">
+      <c r="A979" s="52" t="s">
         <v>814</v>
       </c>
       <c r="B979" s="37" t="s">
@@ -13560,7 +13589,7 @@
       </c>
     </row>
     <row r="986" spans="1:8" ht="30">
-      <c r="A986" s="55" t="s">
+      <c r="A986" s="52" t="s">
         <v>815</v>
       </c>
       <c r="B986" s="37" t="s">
@@ -13623,7 +13652,7 @@
       </c>
     </row>
     <row r="993" spans="1:8" ht="30">
-      <c r="A993" s="55" t="s">
+      <c r="A993" s="52" t="s">
         <v>816</v>
       </c>
       <c r="B993" s="37" t="s">
@@ -13686,7 +13715,7 @@
       </c>
     </row>
     <row r="1000" spans="1:8" ht="30">
-      <c r="A1000" s="55" t="s">
+      <c r="A1000" s="52" t="s">
         <v>817</v>
       </c>
       <c r="B1000" s="37" t="s">
@@ -13749,7 +13778,7 @@
       </c>
     </row>
     <row r="1007" spans="1:8" ht="30">
-      <c r="A1007" s="55" t="s">
+      <c r="A1007" s="52" t="s">
         <v>818</v>
       </c>
       <c r="B1007" s="37" t="s">
@@ -13796,10 +13825,10 @@
       <c r="E1011" s="5">
         <v>4</v>
       </c>
-      <c r="F1011" s="51" t="s">
+      <c r="F1011" s="50" t="s">
         <v>834</v>
       </c>
-      <c r="G1011" s="51" t="s">
+      <c r="G1011" s="50" t="s">
         <v>835</v>
       </c>
     </row>
@@ -13810,7 +13839,7 @@
       <c r="F1012" s="5" t="s">
         <v>836</v>
       </c>
-      <c r="G1012" s="51" t="s">
+      <c r="G1012" s="50" t="s">
         <v>837</v>
       </c>
     </row>
@@ -13819,7 +13848,7 @@
       <c r="G1013" s="26"/>
     </row>
     <row r="1014" spans="1:8" ht="30">
-      <c r="A1014" s="55" t="s">
+      <c r="A1014" s="52" t="s">
         <v>819</v>
       </c>
       <c r="B1014" s="37" t="s">
@@ -13874,7 +13903,7 @@
       </c>
     </row>
     <row r="1020" spans="1:8" ht="30">
-      <c r="A1020" s="55" t="s">
+      <c r="A1020" s="52" t="s">
         <v>820</v>
       </c>
       <c r="B1020" s="26" t="s">
@@ -13924,10 +13953,10 @@
       <c r="E1024" s="5">
         <v>5</v>
       </c>
-      <c r="F1024" s="51" t="s">
+      <c r="F1024" s="50" t="s">
         <v>646</v>
       </c>
-      <c r="G1024" s="51" t="s">
+      <c r="G1024" s="50" t="s">
         <v>573</v>
       </c>
     </row>
@@ -13943,13 +13972,13 @@
       </c>
     </row>
     <row r="1027" spans="1:8" ht="45">
-      <c r="A1027" s="55" t="s">
+      <c r="A1027" s="52" t="s">
         <v>832</v>
       </c>
       <c r="B1027" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D1027" s="51" t="s">
+      <c r="D1027" s="50" t="s">
         <v>848</v>
       </c>
       <c r="E1027" s="5">
@@ -13993,7 +14022,7 @@
       </c>
     </row>
     <row r="1032" spans="1:8" ht="30">
-      <c r="A1032" s="55" t="s">
+      <c r="A1032" s="52" t="s">
         <v>838</v>
       </c>
       <c r="B1032" s="26" t="s">
@@ -14043,7 +14072,7 @@
       </c>
     </row>
     <row r="1037" spans="1:8" ht="30">
-      <c r="A1037" s="55" t="s">
+      <c r="A1037" s="52" t="s">
         <v>842</v>
       </c>
       <c r="B1037" s="26" t="s">
@@ -14104,7 +14133,7 @@
       </c>
     </row>
     <row r="1043" spans="1:8" ht="30">
-      <c r="A1043" s="55" t="s">
+      <c r="A1043" s="52" t="s">
         <v>847</v>
       </c>
       <c r="B1043" s="26" t="s">
@@ -14154,7 +14183,7 @@
       </c>
     </row>
     <row r="1048" spans="1:8" ht="45">
-      <c r="A1048" s="55" t="s">
+      <c r="A1048" s="52" t="s">
         <v>851</v>
       </c>
       <c r="B1048" s="26" t="s">
@@ -14174,7 +14203,7 @@
       <c r="F1049" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G1049" s="47"/>
+      <c r="G1049" s="46"/>
       <c r="H1049" s="31" t="s">
         <v>210</v>
       </c>
@@ -14205,10 +14234,10 @@
       <c r="E1052" s="5">
         <v>4</v>
       </c>
-      <c r="F1052" s="52" t="s">
+      <c r="F1052" s="51" t="s">
         <v>870</v>
       </c>
-      <c r="G1052" s="52" t="s">
+      <c r="G1052" s="51" t="s">
         <v>871</v>
       </c>
     </row>
@@ -14217,7 +14246,7 @@
       <c r="G1053" s="22"/>
     </row>
     <row r="1054" spans="1:8" ht="60">
-      <c r="A1054" s="55" t="s">
+      <c r="A1054" s="52" t="s">
         <v>855</v>
       </c>
       <c r="B1054" s="26" t="s">
@@ -14226,10 +14255,10 @@
       <c r="D1054" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="F1054" s="52" t="s">
+      <c r="F1054" s="51" t="s">
         <v>874</v>
       </c>
-      <c r="G1054" s="44"/>
+      <c r="G1054" s="43"/>
     </row>
     <row r="1055" spans="1:8">
       <c r="E1055" s="5">
@@ -14238,7 +14267,7 @@
       <c r="F1055" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G1055" s="47"/>
+      <c r="G1055" s="46"/>
       <c r="H1055" s="31" t="s">
         <v>210</v>
       </c>
@@ -14285,7 +14314,7 @@
       </c>
     </row>
     <row r="1061" spans="1:8" ht="30">
-      <c r="A1061" s="55" t="s">
+      <c r="A1061" s="52" t="s">
         <v>861</v>
       </c>
       <c r="B1061" s="26" t="s">
@@ -14300,7 +14329,7 @@
       <c r="F1061" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G1061" s="47"/>
+      <c r="G1061" s="46"/>
       <c r="H1061" s="31" t="s">
         <v>210</v>
       </c>
@@ -14369,7 +14398,7 @@
       </c>
     </row>
     <row r="1069" spans="1:8" ht="30">
-      <c r="A1069" s="55" t="s">
+      <c r="A1069" s="52" t="s">
         <v>868</v>
       </c>
       <c r="B1069" s="26" t="s">
@@ -14389,7 +14418,7 @@
       <c r="F1070" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G1070" s="47"/>
+      <c r="G1070" s="46"/>
       <c r="H1070" s="31" t="s">
         <v>210</v>
       </c>
@@ -14450,7 +14479,7 @@
       </c>
     </row>
     <row r="1077" spans="1:8" ht="45">
-      <c r="A1077" s="55" t="s">
+      <c r="A1077" s="52" t="s">
         <v>872</v>
       </c>
       <c r="B1077" s="26" t="s">
@@ -14465,7 +14494,7 @@
       <c r="F1077" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G1077" s="47"/>
+      <c r="G1077" s="46"/>
       <c r="H1077" s="31" t="s">
         <v>210</v>
       </c>
@@ -14523,7 +14552,7 @@
       </c>
     </row>
     <row r="1084" spans="1:8" ht="30">
-      <c r="A1084" s="55" t="s">
+      <c r="A1084" s="52" t="s">
         <v>879</v>
       </c>
       <c r="B1084" s="26" t="s">
@@ -14538,7 +14567,7 @@
       <c r="F1084" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G1084" s="47"/>
+      <c r="G1084" s="46"/>
       <c r="H1084" s="31" t="s">
         <v>210</v>
       </c>
@@ -14615,7 +14644,7 @@
       </c>
     </row>
     <row r="1093" spans="1:8" ht="30">
-      <c r="A1093" s="55" t="s">
+      <c r="A1093" s="52" t="s">
         <v>886</v>
       </c>
       <c r="B1093" s="26" t="s">
@@ -14630,7 +14659,7 @@
       <c r="F1093" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G1093" s="47"/>
+      <c r="G1093" s="46"/>
       <c r="H1093" s="31" t="s">
         <v>210</v>
       </c>
@@ -14699,7 +14728,7 @@
       </c>
     </row>
     <row r="1101" spans="1:8" ht="30">
-      <c r="A1101" s="55" t="s">
+      <c r="A1101" s="52" t="s">
         <v>898</v>
       </c>
       <c r="B1101" s="26" t="s">
@@ -14719,6 +14748,9 @@
       <c r="F1102" s="26" t="s">
         <v>89</v>
       </c>
+      <c r="H1102" s="31" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="1103" spans="1:8">
       <c r="E1103" s="5">
@@ -14765,15 +14797,15 @@
       <c r="E1107" s="5">
         <v>6</v>
       </c>
-      <c r="F1107" s="52" t="s">
+      <c r="F1107" s="51" t="s">
         <v>907</v>
       </c>
-      <c r="G1107" s="52" t="s">
+      <c r="G1107" s="51" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="1109" spans="1:8" ht="30">
-      <c r="A1109" s="55" t="s">
+      <c r="A1109" s="52" t="s">
         <v>893</v>
       </c>
       <c r="B1109" s="26" t="s">
@@ -14861,7 +14893,7 @@
       </c>
     </row>
     <row r="1119" spans="1:8" ht="30">
-      <c r="A1119" s="55" t="s">
+      <c r="A1119" s="52" t="s">
         <v>901</v>
       </c>
       <c r="B1119" s="26" t="s">
@@ -14949,7 +14981,7 @@
       </c>
     </row>
     <row r="1128" spans="1:8" ht="30">
-      <c r="A1128" s="55" t="s">
+      <c r="A1128" s="52" t="s">
         <v>905</v>
       </c>
       <c r="B1128" s="26" t="s">
@@ -15034,7 +15066,7 @@
       </c>
     </row>
     <row r="1137" spans="1:8" ht="30">
-      <c r="A1137" s="55" t="s">
+      <c r="A1137" s="52" t="s">
         <v>909</v>
       </c>
       <c r="B1137" s="26" t="s">
@@ -15119,7 +15151,7 @@
       </c>
     </row>
     <row r="1146" spans="1:8" ht="45">
-      <c r="A1146" s="55" t="s">
+      <c r="A1146" s="52" t="s">
         <v>915</v>
       </c>
       <c r="B1146" s="26" t="s">
@@ -15204,7 +15236,7 @@
       </c>
     </row>
     <row r="1155" spans="1:8" ht="45">
-      <c r="A1155" s="55" t="s">
+      <c r="A1155" s="52" t="s">
         <v>924</v>
       </c>
       <c r="B1155" s="26" t="s">
@@ -15265,7 +15297,7 @@
       </c>
     </row>
     <row r="1161" spans="1:8" ht="30">
-      <c r="A1161" s="55" t="s">
+      <c r="A1161" s="52" t="s">
         <v>931</v>
       </c>
       <c r="B1161" s="26" t="s">
@@ -15334,7 +15366,7 @@
       </c>
     </row>
     <row r="1168" spans="1:8" ht="30">
-      <c r="A1168" s="55" t="s">
+      <c r="A1168" s="52" t="s">
         <v>934</v>
       </c>
       <c r="B1168" s="26" t="s">
@@ -15353,7 +15385,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1169" spans="5:7">
+    <row r="1169" spans="1:8">
       <c r="E1169" s="5">
         <v>2</v>
       </c>
@@ -15361,7 +15393,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="1170" spans="5:7">
+    <row r="1170" spans="1:8">
       <c r="E1170" s="5">
         <v>3</v>
       </c>
@@ -15372,7 +15404,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="1171" spans="5:7">
+    <row r="1171" spans="1:8">
       <c r="E1171" s="5">
         <v>4</v>
       </c>
@@ -15383,7 +15415,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="1172" spans="5:7" ht="45">
+    <row r="1172" spans="1:8" ht="45">
       <c r="E1172" s="5">
         <v>5</v>
       </c>
@@ -15391,7 +15423,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="1173" spans="5:7">
+    <row r="1173" spans="1:8">
       <c r="E1173" s="5">
         <v>6</v>
       </c>
@@ -15400,6 +15432,97 @@
       </c>
       <c r="G1173" s="3" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:8" ht="30">
+      <c r="A1175" s="55" t="s">
+        <v>886</v>
+      </c>
+      <c r="B1175" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1175" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="F1175" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1175" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:8">
+      <c r="E1176" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1176" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:8">
+      <c r="E1177" s="5">
+        <v>2</v>
+      </c>
+      <c r="F1177" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="G1177" s="34" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:8">
+      <c r="E1178" s="5">
+        <v>3</v>
+      </c>
+      <c r="F1178" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="G1178" s="3" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:8">
+      <c r="E1179" s="5">
+        <v>4</v>
+      </c>
+      <c r="F1179" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="G1179" s="3" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:8">
+      <c r="E1180" s="5">
+        <v>5</v>
+      </c>
+      <c r="F1180" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="G1180" s="3" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:8">
+      <c r="E1181" s="5">
+        <v>6</v>
+      </c>
+      <c r="F1181" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="G1181" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:8">
+      <c r="E1182" s="5">
+        <v>7</v>
+      </c>
+      <c r="F1182" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="G1182" s="3" t="s">
+        <v>959</v>
       </c>
     </row>
   </sheetData>
@@ -15573,33 +15696,10 @@
     <hyperlink ref="H909" r:id="rId146"/>
     <hyperlink ref="H921" r:id="rId147"/>
     <hyperlink ref="H929" r:id="rId148"/>
+    <hyperlink ref="H1102" r:id="rId149"/>
+    <hyperlink ref="H1175" r:id="rId150"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId149"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B71:B102"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="71" spans="2:2">
-      <c r="B71" s="40"/>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="40"/>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="40"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId151"/>
 </worksheet>
 </file>